--- a/codebook.xlsx
+++ b/codebook.xlsx
@@ -1,1912 +1,2039 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/Desktop/Research/1 Active Projects/2024 Platform Study/platform-study-rr/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3FA6AD3-6EB7-3245-8778-80AD19AC9676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="9480" yWindow="3020" windowWidth="21240" windowHeight="13260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Meta-info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Intake" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Panel" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Diary" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Nintendo" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Xbox" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Steam" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="iOS" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Android" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Meta-info" sheetId="1" r:id="rId1"/>
+    <sheet name="Intake" sheetId="2" r:id="rId2"/>
+    <sheet name="Panel" sheetId="3" r:id="rId3"/>
+    <sheet name="Diary" sheetId="4" r:id="rId4"/>
+    <sheet name="Nintendo" sheetId="5" r:id="rId5"/>
+    <sheet name="Xbox" sheetId="6" r:id="rId6"/>
+    <sheet name="Steam" sheetId="7" r:id="rId7"/>
+    <sheet name="iOS" sheetId="8" r:id="rId8"/>
+    <sheet name="Android" sheetId="9" r:id="rId9"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="622">
-  <si>
-    <t xml:space="preserve">Tab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data on participant demographics and gaming habits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wellbeing, sleep and time use data from the panel survey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily diary data on gaming, wellbeing, and sleep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nintendo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telemetry data (session-level) from the Nintendo Switch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xbox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telemetry data (session-level) from Xbox devices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telemetry data (total playtime in 1 hour blocks) from Steam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Screen time data from iOS devices, pulled from screenshots of the Screen time app</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Android</t>
-  </si>
-  <si>
-    <t xml:space="preserve">App usage data from Android devices, pulled from ActivityWatch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Item</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stem text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pid</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">region</t>
-  </si>
-  <si>
-    <t xml:space="preserve">age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is your age in years?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selected Choice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What gender do you identify with?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">employment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What best describes your employment status over the last three months?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">employment_7_TEXT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other: - Text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eduLevel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is the highest level of education you have completed?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Approximately how much do you weigh in pounds?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">height#1_1_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Measurement - Your height: - Feet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How tall are you?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">height#1_1_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Measurement - Your height: - Inches</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neuroIdentify</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do you identify as neurodivergent? (e.g., having autism, ADHD, dyslexia, dyspraxia, or another neurological condition)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neuroDiagnoses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Have you received formal diagnoses of neurodiverse conditions  from a qualified healthcare professional?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neuroDiagCondition_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selected Choice - Autism Spectrum Disorder (ASD)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Which of the following neurodiverse conditions have you been diagnosed with? (Select all that apply)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neuroDiagCondition_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selected Choice - Attention Deficit Hyperactivity Disorder (ADHD)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neuroDiagCondition_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selected Choice - Dyslexia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neuroDiagCondition_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selected Choice - Dyspraxia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neuroDiagCondition_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selected Choice - Dyscalculia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neuroDiagCondition_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selected Choice - Tourette Syndrome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neuroDiagCondition_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selected Choice - Obsessive-Compulsive Disorder (OCD)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neuroDiagCondition_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selected Choice - Sensory Processing Disorder (SPD)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neuroDiagCondition_9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selected Choice - Nonverbal Learning Disorder (NVLD)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neuroDiagCondition_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selected Choice - Specific Learning Disability (e.g., in reading, writing, math)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neuroDiagCondition_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selected Choice - Other:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neuroDiagCondition_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selected Choice - Prefer not to say</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neuroDiagCondition_11_TEXT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neuroIdenCondition_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Which of the following neurodiverse conditions do you identify with? (Select all that apply)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neuroIdenCondition_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neuroIdenCondition_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neuroIdenCondition_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neuroIdenCondition_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neuroIdenCondition_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neuroIdenCondition_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neuroIdenCondition_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neuroIdenCondition_9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neuroIdenCondition_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neuroIdenCondition_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neuroIdenCondition_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neuroIdenCondition_11_TEXT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maritalStatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is your current marital status?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maritalStatus_9_TEXT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">care_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selected Choice - Yes, I care for children</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do you have any caregiving responsibilities? (Select all that apply)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">care_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selected Choice - Yes, I care for an elderly family member</t>
-  </si>
-  <si>
-    <t xml:space="preserve">care_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selected Choice - Yes, I care for a family member with a disability or chronic illness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">care_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selected Choice - No, I do not have additional caregiving responsibilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">care_9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selected Choice - Other (please specify)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">care_9_TEXT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other (please specify) - Text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dependents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How many dependents do you have?
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="662">
+  <si>
+    <t>Tab</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>Intake</t>
+  </si>
+  <si>
+    <t>Data on participant demographics and gaming habits</t>
+  </si>
+  <si>
+    <t>Panel</t>
+  </si>
+  <si>
+    <t>Wellbeing, sleep and time use data from the panel survey</t>
+  </si>
+  <si>
+    <t>Diary</t>
+  </si>
+  <si>
+    <t>Daily diary data on gaming, wellbeing, and sleep</t>
+  </si>
+  <si>
+    <t>Nintendo</t>
+  </si>
+  <si>
+    <t>Telemetry data (session-level) from the Nintendo Switch</t>
+  </si>
+  <si>
+    <t>Xbox</t>
+  </si>
+  <si>
+    <t>Telemetry data (session-level) from Xbox devices</t>
+  </si>
+  <si>
+    <t>Steam</t>
+  </si>
+  <si>
+    <t>Telemetry data (total playtime in 1 hour blocks) from Steam</t>
+  </si>
+  <si>
+    <t>iOS</t>
+  </si>
+  <si>
+    <t>Screen time data from iOS devices, pulled from screenshots of the Screen time app</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>App usage data from Android devices, pulled from ActivityWatch</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Stem text</t>
+  </si>
+  <si>
+    <t>pid</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>What is your age in years?</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>Selected Choice</t>
+  </si>
+  <si>
+    <t>What gender do you identify with?</t>
+  </si>
+  <si>
+    <t>employment</t>
+  </si>
+  <si>
+    <t>What best describes your employment status over the last three months?</t>
+  </si>
+  <si>
+    <t>employment_7_TEXT</t>
+  </si>
+  <si>
+    <t>Other: - Text</t>
+  </si>
+  <si>
+    <t>eduLevel</t>
+  </si>
+  <si>
+    <t>What is the highest level of education you have completed?</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>Approximately how much do you weigh in pounds?</t>
+  </si>
+  <si>
+    <t>height#1_1_1</t>
+  </si>
+  <si>
+    <t>Measurement - Your height: - Feet</t>
+  </si>
+  <si>
+    <t>How tall are you?</t>
+  </si>
+  <si>
+    <t>height#1_1_2</t>
+  </si>
+  <si>
+    <t>Measurement - Your height: - Inches</t>
+  </si>
+  <si>
+    <t>neuroIdentify</t>
+  </si>
+  <si>
+    <t>Do you identify as neurodivergent? (e.g., having autism, ADHD, dyslexia, dyspraxia, or another neurological condition)</t>
+  </si>
+  <si>
+    <t>neuroDiagnoses</t>
+  </si>
+  <si>
+    <t>Have you received formal diagnoses of neurodiverse conditions  from a qualified healthcare professional?</t>
+  </si>
+  <si>
+    <t>neuroDiagCondition_1</t>
+  </si>
+  <si>
+    <t>Selected Choice - Autism Spectrum Disorder (ASD)</t>
+  </si>
+  <si>
+    <t>Which of the following neurodiverse conditions have you been diagnosed with? (Select all that apply)</t>
+  </si>
+  <si>
+    <t>neuroDiagCondition_2</t>
+  </si>
+  <si>
+    <t>Selected Choice - Attention Deficit Hyperactivity Disorder (ADHD)</t>
+  </si>
+  <si>
+    <t>neuroDiagCondition_3</t>
+  </si>
+  <si>
+    <t>Selected Choice - Dyslexia</t>
+  </si>
+  <si>
+    <t>neuroDiagCondition_4</t>
+  </si>
+  <si>
+    <t>Selected Choice - Dyspraxia</t>
+  </si>
+  <si>
+    <t>neuroDiagCondition_5</t>
+  </si>
+  <si>
+    <t>Selected Choice - Dyscalculia</t>
+  </si>
+  <si>
+    <t>neuroDiagCondition_6</t>
+  </si>
+  <si>
+    <t>Selected Choice - Tourette Syndrome</t>
+  </si>
+  <si>
+    <t>neuroDiagCondition_7</t>
+  </si>
+  <si>
+    <t>Selected Choice - Obsessive-Compulsive Disorder (OCD)</t>
+  </si>
+  <si>
+    <t>neuroDiagCondition_8</t>
+  </si>
+  <si>
+    <t>Selected Choice - Sensory Processing Disorder (SPD)</t>
+  </si>
+  <si>
+    <t>neuroDiagCondition_9</t>
+  </si>
+  <si>
+    <t>Selected Choice - Nonverbal Learning Disorder (NVLD)</t>
+  </si>
+  <si>
+    <t>neuroDiagCondition_10</t>
+  </si>
+  <si>
+    <t>Selected Choice - Specific Learning Disability (e.g., in reading, writing, math)</t>
+  </si>
+  <si>
+    <t>neuroDiagCondition_11</t>
+  </si>
+  <si>
+    <t>Selected Choice - Other:</t>
+  </si>
+  <si>
+    <t>neuroDiagCondition_12</t>
+  </si>
+  <si>
+    <t>Selected Choice - Prefer not to say</t>
+  </si>
+  <si>
+    <t>neuroDiagCondition_11_TEXT</t>
+  </si>
+  <si>
+    <t>neuroIdenCondition_1</t>
+  </si>
+  <si>
+    <t>Which of the following neurodiverse conditions do you identify with? (Select all that apply)</t>
+  </si>
+  <si>
+    <t>neuroIdenCondition_2</t>
+  </si>
+  <si>
+    <t>neuroIdenCondition_3</t>
+  </si>
+  <si>
+    <t>neuroIdenCondition_4</t>
+  </si>
+  <si>
+    <t>neuroIdenCondition_5</t>
+  </si>
+  <si>
+    <t>neuroIdenCondition_6</t>
+  </si>
+  <si>
+    <t>neuroIdenCondition_7</t>
+  </si>
+  <si>
+    <t>neuroIdenCondition_8</t>
+  </si>
+  <si>
+    <t>neuroIdenCondition_9</t>
+  </si>
+  <si>
+    <t>neuroIdenCondition_10</t>
+  </si>
+  <si>
+    <t>neuroIdenCondition_11</t>
+  </si>
+  <si>
+    <t>neuroIdenCondition_12</t>
+  </si>
+  <si>
+    <t>neuroIdenCondition_11_TEXT</t>
+  </si>
+  <si>
+    <t>maritalStatus</t>
+  </si>
+  <si>
+    <t>What is your current marital status?</t>
+  </si>
+  <si>
+    <t>maritalStatus_9_TEXT</t>
+  </si>
+  <si>
+    <t>care_5</t>
+  </si>
+  <si>
+    <t>Selected Choice - Yes, I care for children</t>
+  </si>
+  <si>
+    <t>Do you have any caregiving responsibilities? (Select all that apply)</t>
+  </si>
+  <si>
+    <t>care_6</t>
+  </si>
+  <si>
+    <t>Selected Choice - Yes, I care for an elderly family member</t>
+  </si>
+  <si>
+    <t>care_7</t>
+  </si>
+  <si>
+    <t>Selected Choice - Yes, I care for a family member with a disability or chronic illness</t>
+  </si>
+  <si>
+    <t>care_8</t>
+  </si>
+  <si>
+    <t>Selected Choice - No, I do not have additional caregiving responsibilities</t>
+  </si>
+  <si>
+    <t>care_9</t>
+  </si>
+  <si>
+    <t>Selected Choice - Other (please specify)</t>
+  </si>
+  <si>
+    <t>care_9_TEXT</t>
+  </si>
+  <si>
+    <t>Other (please specify) - Text</t>
+  </si>
+  <si>
+    <t>dependents</t>
+  </si>
+  <si>
+    <t>How many dependents do you have?
 Dependents can include children, elderly family members, or others who rely on you for care.</t>
   </si>
   <si>
-    <t xml:space="preserve">platforms_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selected Choice - Steam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please select all the platforms where you actively play games</t>
-  </si>
-  <si>
-    <t xml:space="preserve">platforms_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selected Choice - Playstation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">platforms_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selected Choice - Xbox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">platforms_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selected Choice - Nintendo Switch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">platforms_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selected Choice - iOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">platforms_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selected Choice - Android</t>
-  </si>
-  <si>
-    <t xml:space="preserve">platforms_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selected Choice - Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">platforms_5_TEXT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other - Text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">playProp_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In general during the last 3 months, approximately what percentage of your total gaming has taken place on each platform?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">playProp_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">playProp_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Playstation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">playProp_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">playProp_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">playProp_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">playProp_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">localDatetime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ethnicity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">localTimeZone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">playsSwitch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">playsXbox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">playsSteam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dailyNintendoPlayLikelihood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dailyXboxPlayLikelihood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dailySteamPlayLikelihood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iOSuser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">androidUser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Variable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Response Options</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">missingPanel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">problematicPlay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do you feel that gaming is sometimes a problem for you? Please describe.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">free text response</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positives</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How, if at all, does gaming contribute positively to your life? Please describe.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gdt_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I have had difficulties controlling my gaming activity.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please indicate how often the following issues occurred on average over the past 3 months until today.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gaming Disorder Test (https://doi.org/10.1007/s11469-019-00088-z)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gdt_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I have given increasing priority to gaming over other life interests and daily activities.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gdt_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I have continued gaming despite the occurrence of negative consequences.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gdt_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I have experienced significant problems in life (e.g., personal, family, social,education, occupational) due to the severity of my gaming behavior.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mctq_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I have a regular work schedule (this includes roles such as caregiver, homemaker, or other professional commitments):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Munich Chronotype Questionnaire (https://doi.org/10.1177/0748730402239679)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mctq_2_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I work on</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mctq_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mctq_3_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Image 1: I go to bed at</t>
-  </si>
-  <si>
-    <t xml:space="preserve">On Workdays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mctq_3_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Image 2: Note that some people stay awake for some time when in bed!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mctq_3_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Image 3: I actually get ready to fall asleep at</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mctq_3_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Image 4: I need</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mctq_3_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Image 5: I wake up at</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mctq_3_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Image 6: After</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mctq_4_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I use an alarm clock on workdays:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mctq_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mctq_5_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If “Yes”: I regularly wake up BEFORE the alarm rings:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mctq_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mctq_6_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">On Free days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mctq_6_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mctq_6_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mctq_6_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mctq_6_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mctq_6_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mctq_7_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">My wake-up time (Image 5) is due to the use of an alarm clock:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mctq_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mctq_7_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There are particular reasons why I cannot freely choose my sleep times on free days:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mctq_8_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If “Yes”:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mctq_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mctq_9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If 'Others', please describe:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">psqi_1#1_1_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hours/Minutes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Questions About Your Sleep The following questions relate to your usual sleep habits during the P...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">psqi_1#1_1_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">psqi_1#2_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM/PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">psqi_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">During the PAST MONTH, how long (in minutes) has it usually taken you to fall asleep each night?
+    <t>platforms_1</t>
+  </si>
+  <si>
+    <t>Selected Choice - Steam</t>
+  </si>
+  <si>
+    <t>Please select all the platforms where you actively play games</t>
+  </si>
+  <si>
+    <t>platforms_2</t>
+  </si>
+  <si>
+    <t>Selected Choice - Playstation</t>
+  </si>
+  <si>
+    <t>platforms_3</t>
+  </si>
+  <si>
+    <t>Selected Choice - Xbox</t>
+  </si>
+  <si>
+    <t>platforms_4</t>
+  </si>
+  <si>
+    <t>Selected Choice - Nintendo Switch</t>
+  </si>
+  <si>
+    <t>platforms_6</t>
+  </si>
+  <si>
+    <t>Selected Choice - iOS</t>
+  </si>
+  <si>
+    <t>platforms_7</t>
+  </si>
+  <si>
+    <t>Selected Choice - Android</t>
+  </si>
+  <si>
+    <t>platforms_5</t>
+  </si>
+  <si>
+    <t>Selected Choice - Other</t>
+  </si>
+  <si>
+    <t>platforms_5_TEXT</t>
+  </si>
+  <si>
+    <t>Other - Text</t>
+  </si>
+  <si>
+    <t>playProp_1</t>
+  </si>
+  <si>
+    <t>In general during the last 3 months, approximately what percentage of your total gaming has taken place on each platform?</t>
+  </si>
+  <si>
+    <t>playProp_2</t>
+  </si>
+  <si>
+    <t>playProp_3</t>
+  </si>
+  <si>
+    <t>Playstation</t>
+  </si>
+  <si>
+    <t>playProp_4</t>
+  </si>
+  <si>
+    <t>playProp_5</t>
+  </si>
+  <si>
+    <t>playProp_6</t>
+  </si>
+  <si>
+    <t>playProp_7</t>
+  </si>
+  <si>
+    <t>localDatetime</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>ethnicity</t>
+  </si>
+  <si>
+    <t>localTimeZone</t>
+  </si>
+  <si>
+    <t>playsSwitch</t>
+  </si>
+  <si>
+    <t>playsXbox</t>
+  </si>
+  <si>
+    <t>playsSteam</t>
+  </si>
+  <si>
+    <t>dailyNintendoPlayLikelihood</t>
+  </si>
+  <si>
+    <t>dailyXboxPlayLikelihood</t>
+  </si>
+  <si>
+    <t>dailySteamPlayLikelihood</t>
+  </si>
+  <si>
+    <t>iOSuser</t>
+  </si>
+  <si>
+    <t>androidUser</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Response Options</t>
+  </si>
+  <si>
+    <t>wave</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>missingPanel</t>
+  </si>
+  <si>
+    <t>problematicPlay</t>
+  </si>
+  <si>
+    <t>Do you feel that gaming is sometimes a problem for you? Please describe.</t>
+  </si>
+  <si>
+    <t>free text response</t>
+  </si>
+  <si>
+    <t>positives</t>
+  </si>
+  <si>
+    <t>How, if at all, does gaming contribute positively to your life? Please describe.</t>
+  </si>
+  <si>
+    <t>gdt_1</t>
+  </si>
+  <si>
+    <t>I have had difficulties controlling my gaming activity.</t>
+  </si>
+  <si>
+    <t>Please indicate how often the following issues occurred on average over the past 3 months until today.</t>
+  </si>
+  <si>
+    <t>Gaming Disorder Test (https://doi.org/10.1007/s11469-019-00088-z)</t>
+  </si>
+  <si>
+    <t>gdt_2</t>
+  </si>
+  <si>
+    <t>I have given increasing priority to gaming over other life interests and daily activities.</t>
+  </si>
+  <si>
+    <t>gdt_3</t>
+  </si>
+  <si>
+    <t>I have continued gaming despite the occurrence of negative consequences.</t>
+  </si>
+  <si>
+    <t>gdt_4</t>
+  </si>
+  <si>
+    <t>I have experienced significant problems in life (e.g., personal, family, social,education, occupational) due to the severity of my gaming behavior.</t>
+  </si>
+  <si>
+    <t>mctq_1</t>
+  </si>
+  <si>
+    <t>I have a regular work schedule (this includes roles such as caregiver, homemaker, or other professional commitments):</t>
+  </si>
+  <si>
+    <t>Munich Chronotype Questionnaire (https://doi.org/10.1177/0748730402239679)</t>
+  </si>
+  <si>
+    <t>mctq_2_1</t>
+  </si>
+  <si>
+    <t>I work on</t>
+  </si>
+  <si>
+    <t>mctq_2</t>
+  </si>
+  <si>
+    <t>mctq_3_1</t>
+  </si>
+  <si>
+    <t>Image 1: I go to bed at</t>
+  </si>
+  <si>
+    <t>On Workdays</t>
+  </si>
+  <si>
+    <t>mctq_3_2</t>
+  </si>
+  <si>
+    <t>Image 2: Note that some people stay awake for some time when in bed!</t>
+  </si>
+  <si>
+    <t>mctq_3_3</t>
+  </si>
+  <si>
+    <t>Image 3: I actually get ready to fall asleep at</t>
+  </si>
+  <si>
+    <t>mctq_3_4</t>
+  </si>
+  <si>
+    <t>Image 4: I need</t>
+  </si>
+  <si>
+    <t>mctq_3_5</t>
+  </si>
+  <si>
+    <t>Image 5: I wake up at</t>
+  </si>
+  <si>
+    <t>mctq_3_6</t>
+  </si>
+  <si>
+    <t>Image 6: After</t>
+  </si>
+  <si>
+    <t>mctq_4_1</t>
+  </si>
+  <si>
+    <t>I use an alarm clock on workdays:</t>
+  </si>
+  <si>
+    <t>mctq_4</t>
+  </si>
+  <si>
+    <t>mctq_5_1</t>
+  </si>
+  <si>
+    <t>If “Yes”: I regularly wake up BEFORE the alarm rings:</t>
+  </si>
+  <si>
+    <t>mctq_5</t>
+  </si>
+  <si>
+    <t>mctq_6_1</t>
+  </si>
+  <si>
+    <t>On Free days</t>
+  </si>
+  <si>
+    <t>mctq_6_2</t>
+  </si>
+  <si>
+    <t>mctq_6_3</t>
+  </si>
+  <si>
+    <t>mctq_6_4</t>
+  </si>
+  <si>
+    <t>mctq_6_5</t>
+  </si>
+  <si>
+    <t>mctq_6_6</t>
+  </si>
+  <si>
+    <t>mctq_7_1</t>
+  </si>
+  <si>
+    <t>My wake-up time (Image 5) is due to the use of an alarm clock:</t>
+  </si>
+  <si>
+    <t>mctq_7</t>
+  </si>
+  <si>
+    <t>mctq_7_2</t>
+  </si>
+  <si>
+    <t>There are particular reasons why I cannot freely choose my sleep times on free days:</t>
+  </si>
+  <si>
+    <t>mctq_8_1</t>
+  </si>
+  <si>
+    <t>If “Yes”:</t>
+  </si>
+  <si>
+    <t>mctq_8</t>
+  </si>
+  <si>
+    <t>mctq_9</t>
+  </si>
+  <si>
+    <t>If 'Others', please describe:</t>
+  </si>
+  <si>
+    <t>psqi_1#1_1_1</t>
+  </si>
+  <si>
+    <t>Hours/Minutes</t>
+  </si>
+  <si>
+    <t>Questions About Your Sleep The following questions relate to your usual sleep habits during the P...</t>
+  </si>
+  <si>
+    <t>psqi_1#1_1_2</t>
+  </si>
+  <si>
+    <t>psqi_1#2_1</t>
+  </si>
+  <si>
+    <t>AM/PM</t>
+  </si>
+  <si>
+    <t>psqi_2</t>
+  </si>
+  <si>
+    <t>During the PAST MONTH, how long (in minutes) has it usually taken you to fall asleep each night?
 Number of minutes:</t>
   </si>
   <si>
-    <t xml:space="preserve">psqi_3#1_1_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  During the PAST MONTH, what time have you usually gotten up in the morning?   Getting up time:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">psqi_3#1_1_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">psqi_3#2_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">psqi_4#1_1_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">During the PAST MONTH, how many hours of actual sleep did you usually get at night? (This may be...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">psqi_4#1_1_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">psqi_5_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cannot get to sleep within 30 minutes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For each of the remaining questions, check the one best response. Please answer all questions.During the past month, how often have you had trouble sleeping because you . . .</t>
-  </si>
-  <si>
-    <t xml:space="preserve">psqi_5_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wake up in the middle of the night or early morning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">psqi_5_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Have to get up to use the bathroom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">psqi_5_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cannot breathe comfortably</t>
-  </si>
-  <si>
-    <t xml:space="preserve">psqi_5_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cough or snore loudly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">psqi_5_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feel too cold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">psqi_5_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feel too hot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">psqi_5_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Had bad dreams</t>
-  </si>
-  <si>
-    <t xml:space="preserve">psqi_5_9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Have pain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">psqi_5_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other reason(s), please describe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">psqi_5_cr_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[QID96-ChoiceTextEntryValue]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How often during the past month have you had trouble sleeping because of this?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">psqi_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">During the past month, how would you rate your sleep quality overall?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">psqi_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">During the past month, how often have you taken medicine to help you sleep (prescribed or
+    <t>psqi_3#1_1_1</t>
+  </si>
+  <si>
+    <t>  During the PAST MONTH, what time have you usually gotten up in the morning?   Getting up time:</t>
+  </si>
+  <si>
+    <t>psqi_3#1_1_2</t>
+  </si>
+  <si>
+    <t>psqi_3#2_1</t>
+  </si>
+  <si>
+    <t>psqi_4#1_1_1</t>
+  </si>
+  <si>
+    <t>During the PAST MONTH, how many hours of actual sleep did you usually get at night? (This may be...</t>
+  </si>
+  <si>
+    <t>psqi_4#1_1_2</t>
+  </si>
+  <si>
+    <t>psqi_5_1</t>
+  </si>
+  <si>
+    <t>Cannot get to sleep within 30 minutes</t>
+  </si>
+  <si>
+    <t>For each of the remaining questions, check the one best response. Please answer all questions.During the past month, how often have you had trouble sleeping because you . . .</t>
+  </si>
+  <si>
+    <t>psqi_5_2</t>
+  </si>
+  <si>
+    <t>Wake up in the middle of the night or early morning</t>
+  </si>
+  <si>
+    <t>psqi_5_3</t>
+  </si>
+  <si>
+    <t>Have to get up to use the bathroom</t>
+  </si>
+  <si>
+    <t>psqi_5_4</t>
+  </si>
+  <si>
+    <t>Cannot breathe comfortably</t>
+  </si>
+  <si>
+    <t>psqi_5_5</t>
+  </si>
+  <si>
+    <t>Cough or snore loudly</t>
+  </si>
+  <si>
+    <t>psqi_5_6</t>
+  </si>
+  <si>
+    <t>Feel too cold</t>
+  </si>
+  <si>
+    <t>psqi_5_7</t>
+  </si>
+  <si>
+    <t>Feel too hot</t>
+  </si>
+  <si>
+    <t>psqi_5_8</t>
+  </si>
+  <si>
+    <t>Had bad dreams</t>
+  </si>
+  <si>
+    <t>psqi_5_9</t>
+  </si>
+  <si>
+    <t>Have pain</t>
+  </si>
+  <si>
+    <t>psqi_5_c</t>
+  </si>
+  <si>
+    <t>Other reason(s), please describe</t>
+  </si>
+  <si>
+    <t>psqi_5_cr_1</t>
+  </si>
+  <si>
+    <t>[QID96-ChoiceTextEntryValue]</t>
+  </si>
+  <si>
+    <t>How often during the past month have you had trouble sleeping because of this?</t>
+  </si>
+  <si>
+    <t>psqi_6</t>
+  </si>
+  <si>
+    <t>During the past month, how would you rate your sleep quality overall?</t>
+  </si>
+  <si>
+    <t>psqi_7</t>
+  </si>
+  <si>
+    <t>During the past month, how often have you taken medicine to help you sleep (prescribed or
 "over the counter")?</t>
   </si>
   <si>
-    <t xml:space="preserve">psqi_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">During the past month, how often have you had trouble staying awake while driving, eating
+    <t>psqi_8</t>
+  </si>
+  <si>
+    <t>During the past month, how often have you had trouble staying awake while driving, eating
 meals, or engaging in social activity?</t>
   </si>
   <si>
-    <t xml:space="preserve">psqi_9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">During the past month, how much of a problem has it been for you to keep up enough
+    <t>psqi_9</t>
+  </si>
+  <si>
+    <t>During the past month, how much of a problem has it been for you to keep up enough
 enthusiasm to get things done?</t>
   </si>
   <si>
-    <t xml:space="preserve">psqi_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do you have a bed partner or room mate?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">psqi_10_c_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loud snoring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If you have a room mate or bed partner, ask him/her/them how often in the past month youhave had . . .</t>
-  </si>
-  <si>
-    <t xml:space="preserve">psqi_10_c_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Long pauses between breaths while asleep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">psqi_10_c_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Legs twitching or jerking while you sleep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">psqi_10_c_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Episodes of disorientation or confusion during sleep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">psqi_10_c_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other restlessness while you sleep; please describe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">psqi_10_c_5_TEXT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eps_1_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sitting and reading</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How likely are you to doze off or fall asleep in the following situations, in comparison to feeling just tired? This refers to your usual way of life in recent times.Even if you haven't done some of these things recently, try to work out how they would have affected you. It's important that you answer each question as best you can.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epwoth Sleepiness Scale (https://doi.org/10.1093/sleep/14.6.540)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No chance of dozing; Slight chance of dozing; Moderate chance of dozing; High chance of dozing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eps_1_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Watching TV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eps_1_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sitting inactive in a public place (e.g., a theater or a meeting)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eps_1_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a passenger in a car for an hour without a break</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eps_1_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lying down to rest in the afternoon when circumstances permit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eps_1_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sitting and talking to someone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eps_1_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sitting quietly after a lunch without alcohol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eps_1_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In a car, while stopped for a few minutes in traffic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BFI-2-XS_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tends to be quiet.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your Personality Here are a number of characteristics that may or may not apply to you. For example, do you agree that you are someone who likes to spend time with others? Please select a response to indicate the extent to which you agree or disagree with each statement. I am someone who...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extra-short Big Five Inventory–2 (https://doi.org/10.1016/j.jrp.2017.02.004)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disagree strongly; Disagree a little; Neutral, no opinion; Agree a little; Agree strongly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BFI-2-XS_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is compassionate, has a soft heart.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BFI-2-XS_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tends to be disorganized.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BFI-2-XS_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Worries a lot.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BFI-2-XS_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is fascinated by art, music, or literature.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BFI-2-XS_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is dominant, acts as a leader.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BFI-2-XS_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is sometimes rude to others.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BFI-2-XS_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Has difficulty getting started on tasks.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BFI-2-XS_9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tends to feel depressed, blue.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BFI-2-XS_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Has little interest in abstract ideas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BFI-2-XS_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is full of energy.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BFI-2-XS_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assumes the best about people.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BFI-2-XS_13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is reliable, can always be counted on.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BFI-2-XS_14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is emotionally stable, not easily upset.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BFI-2-XS_15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is original, comes up with new ideas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trojan_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I like to chat with my friends while playing a video game.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The following items ask you about what kinds of experiences you like to have in games.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trojan Player Typology (https://doi.org/10.1016/j.chb.2015.03.018)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 - Strongly disagree; 2; 3; 4; 5 - Strongly agree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trojan_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I like to use voice communication when I play.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trojan_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It's important to me to play with a tightly knit group.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trojan_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I like to master all elements of a game.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trojan_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I like to figure out how the game works inside and out.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trojan_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I like to try everything that is possible to do in a game.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trojan_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Winning is a big reason for me to play video games.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trojan_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I play to win.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trojan_9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It's important to me to be the fastest and most skilled person playing the game.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trojan_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I like to do things in games which I cannot do in real life.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trojan_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Video games allow me to pretend I am someone/somewhere else.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trojan_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I like the feeling of being part of a story.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trojan_13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I like stories in a game.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trojan_14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Games make me smarter.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trojan_15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I play games to enhance my intellectual abilities.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selfreportPlay #1_1_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In each of the previous periods, how much total time did you spend playing games? Please only inc...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selfreportPlay #1_1_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selfreportPlay #1_2_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selfreportPlay #1_2_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selfreportPlay #1_3_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selfreportPlay #1_3_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recentSessions_1_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Session 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To the best of your recollection, please list at least 1 and up to 3 of your most recent gaming sessions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recentSessions_1_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recentSessions_1_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recentSessions_1_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recentSessions_2_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Session 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recentSessions_2_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recentSessions_2_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recentSessions_2_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recentSessions_3_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Session 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recentSessions_3_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recentSessions_3_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recentSessions_3_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">csas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please imagine a ladder with steps numbered from 0 at the bottom to 10 at the top. The top of the ladder represents the best possible life for you, and the bottom of the ladder represents the worst possible life for you. On which step of the ladder would you say you personally feel you stood over the past two weeks?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">affectiveValence_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How are you feeling right now?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wemwbs_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I’ve been feeling optimistic about the future</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Below are some statements about feelings and thoughts.Please select the answer that best describes your experience of each over the last 2 weeks.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Warwick-Edinburgh Mental Wellbeing Scale (https://doi.org/10.1186/1477-7525-5-63)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 - None of the time; 2 - Rarely; 3 - Some of the time; 4 - Often; 5 - All of the time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wemwbs_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I’ve been feeling relaxed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wemwbs_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I’ve been thinking clearly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wemwbs_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I’ve been feeling close to other people</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wemwbs_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I’ve been able to make up my own mind about things</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wemwbs_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I’ve been feeling useful</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wemwbs_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I’ve been dealing with problems well</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wemwbs_attCheck_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wemwbs_attCheck</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wemwbs_attCheck_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wemwbs_attCheck_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wemwbs_attCheck_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wemwbs_attCheck_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wemwbs_attCheck_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wemwbs_attCheck_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">promis_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I felt worthless.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In the past 7 days...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROMIS Short Form 8a Adult Depression Scale (https://doi.org/10.1177/1073191111411667)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Never; Rarely; Sometimes; Often; Never</t>
-  </si>
-  <si>
-    <t xml:space="preserve">promis_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I felt that I had nothing to look forward to.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">promis_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I felt helpless.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">promis_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I felt sad.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">promis_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I felt like a failure.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">promis_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I felt depressed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">promis_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I felt unhappy.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">promis_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I felt hopeless.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bangs_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I could play in the way I wanted.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Below, we ask you about experiences of gaming during the last 2 weeks, across all the video games you played. If you did not play any video games in the last 2 weeks, please select "4" for all statements.When playing video games during the last 2 weeks...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basic Needs in Games Scale (https://doi.org/10.31234/osf.io/4965z7)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 Strongly Disagree; 2; 3; 4 Neither Agree nor Disagree; 5; 6; 7 Strongly Agree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bangs_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I could make choices regarding how to play.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bangs_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I could direct my own play experiences.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bangs_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I too often felt forced to take certain actions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bangs_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Many actions were boring.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bangs_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I often found myself wishing I could do something else.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bangs_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I felt I was getting better at playing.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bangs_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I felt that I made progress while playing.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bangs_9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I felt a sense of achievement while playing.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bangs_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I often felt that I lacked the skills necessary.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bangs_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I kept failing to accomplish what I wanted to while playing.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bangs_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I felt disappointed with my performance.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bangs_13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I felt I formed relationships with other players and/or characters.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bangs_14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I felt a connection to others, virtual or real.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bangs_15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I felt that other players and/or characters in games cared about me.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bangs_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interactions with other players and/or characters felt toxic to me.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bangs_17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The communities or virtual worlds made me feel unwelcome.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bangs_18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Others were unfriendly towards me.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">displacement_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Work/school performance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Over the last two weeks, to what extent has the time you spend playing video games influenced the following areas of your life?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greatly interfered; Moderately interfered; Slightly interfered; No impact; Slightly supported;
+    <t>psqi_10</t>
+  </si>
+  <si>
+    <t>Do you have a bed partner or room mate?</t>
+  </si>
+  <si>
+    <t>psqi_10_c_1</t>
+  </si>
+  <si>
+    <t>Loud snoring</t>
+  </si>
+  <si>
+    <t>If you have a room mate or bed partner, ask him/her/them how often in the past month youhave had . . .</t>
+  </si>
+  <si>
+    <t>psqi_10_c_2</t>
+  </si>
+  <si>
+    <t>Long pauses between breaths while asleep</t>
+  </si>
+  <si>
+    <t>psqi_10_c_3</t>
+  </si>
+  <si>
+    <t>Legs twitching or jerking while you sleep</t>
+  </si>
+  <si>
+    <t>psqi_10_c_4</t>
+  </si>
+  <si>
+    <t>Episodes of disorientation or confusion during sleep</t>
+  </si>
+  <si>
+    <t>psqi_10_c_5</t>
+  </si>
+  <si>
+    <t>Other restlessness while you sleep; please describe</t>
+  </si>
+  <si>
+    <t>psqi_10_c_5_TEXT</t>
+  </si>
+  <si>
+    <t>eps_1_1</t>
+  </si>
+  <si>
+    <t>Sitting and reading</t>
+  </si>
+  <si>
+    <t>How likely are you to doze off or fall asleep in the following situations, in comparison to feeling just tired? This refers to your usual way of life in recent times.Even if you haven't done some of these things recently, try to work out how they would have affected you. It's important that you answer each question as best you can.</t>
+  </si>
+  <si>
+    <t>Epwoth Sleepiness Scale (https://doi.org/10.1093/sleep/14.6.540)</t>
+  </si>
+  <si>
+    <t>No chance of dozing; Slight chance of dozing; Moderate chance of dozing; High chance of dozing</t>
+  </si>
+  <si>
+    <t>eps_1_2</t>
+  </si>
+  <si>
+    <t>Watching TV</t>
+  </si>
+  <si>
+    <t>eps_1_3</t>
+  </si>
+  <si>
+    <t>Sitting inactive in a public place (e.g., a theater or a meeting)</t>
+  </si>
+  <si>
+    <t>eps_1_4</t>
+  </si>
+  <si>
+    <t>As a passenger in a car for an hour without a break</t>
+  </si>
+  <si>
+    <t>eps_1_5</t>
+  </si>
+  <si>
+    <t>Lying down to rest in the afternoon when circumstances permit</t>
+  </si>
+  <si>
+    <t>eps_1_6</t>
+  </si>
+  <si>
+    <t>Sitting and talking to someone</t>
+  </si>
+  <si>
+    <t>eps_1_7</t>
+  </si>
+  <si>
+    <t>Sitting quietly after a lunch without alcohol</t>
+  </si>
+  <si>
+    <t>eps_1_8</t>
+  </si>
+  <si>
+    <t>In a car, while stopped for a few minutes in traffic</t>
+  </si>
+  <si>
+    <t>BFI-2-XS_1</t>
+  </si>
+  <si>
+    <t>Tends to be quiet.</t>
+  </si>
+  <si>
+    <t>Your Personality Here are a number of characteristics that may or may not apply to you. For example, do you agree that you are someone who likes to spend time with others? Please select a response to indicate the extent to which you agree or disagree with each statement. I am someone who...</t>
+  </si>
+  <si>
+    <t>Extra-short Big Five Inventory–2 (https://doi.org/10.1016/j.jrp.2017.02.004)</t>
+  </si>
+  <si>
+    <t>Disagree strongly; Disagree a little; Neutral, no opinion; Agree a little; Agree strongly</t>
+  </si>
+  <si>
+    <t>BFI-2-XS_2</t>
+  </si>
+  <si>
+    <t>Is compassionate, has a soft heart.</t>
+  </si>
+  <si>
+    <t>BFI-2-XS_3</t>
+  </si>
+  <si>
+    <t>Tends to be disorganized.</t>
+  </si>
+  <si>
+    <t>BFI-2-XS_4</t>
+  </si>
+  <si>
+    <t>Worries a lot.</t>
+  </si>
+  <si>
+    <t>BFI-2-XS_5</t>
+  </si>
+  <si>
+    <t>Is fascinated by art, music, or literature.</t>
+  </si>
+  <si>
+    <t>BFI-2-XS_6</t>
+  </si>
+  <si>
+    <t>Is dominant, acts as a leader.</t>
+  </si>
+  <si>
+    <t>BFI-2-XS_7</t>
+  </si>
+  <si>
+    <t>Is sometimes rude to others.</t>
+  </si>
+  <si>
+    <t>BFI-2-XS_8</t>
+  </si>
+  <si>
+    <t>Has difficulty getting started on tasks.</t>
+  </si>
+  <si>
+    <t>BFI-2-XS_9</t>
+  </si>
+  <si>
+    <t>Tends to feel depressed, blue.</t>
+  </si>
+  <si>
+    <t>BFI-2-XS_10</t>
+  </si>
+  <si>
+    <t>Has little interest in abstract ideas.</t>
+  </si>
+  <si>
+    <t>BFI-2-XS_11</t>
+  </si>
+  <si>
+    <t>Is full of energy.</t>
+  </si>
+  <si>
+    <t>BFI-2-XS_12</t>
+  </si>
+  <si>
+    <t>Assumes the best about people.</t>
+  </si>
+  <si>
+    <t>BFI-2-XS_13</t>
+  </si>
+  <si>
+    <t>Is reliable, can always be counted on.</t>
+  </si>
+  <si>
+    <t>BFI-2-XS_14</t>
+  </si>
+  <si>
+    <t>Is emotionally stable, not easily upset.</t>
+  </si>
+  <si>
+    <t>BFI-2-XS_15</t>
+  </si>
+  <si>
+    <t>Is original, comes up with new ideas.</t>
+  </si>
+  <si>
+    <t>trojan_1</t>
+  </si>
+  <si>
+    <t>I like to chat with my friends while playing a video game.</t>
+  </si>
+  <si>
+    <t>The following items ask you about what kinds of experiences you like to have in games.</t>
+  </si>
+  <si>
+    <t>Trojan Player Typology (https://doi.org/10.1016/j.chb.2015.03.018)</t>
+  </si>
+  <si>
+    <t>1 - Strongly disagree; 2; 3; 4; 5 - Strongly agree</t>
+  </si>
+  <si>
+    <t>trojan_2</t>
+  </si>
+  <si>
+    <t>I like to use voice communication when I play.</t>
+  </si>
+  <si>
+    <t>trojan_3</t>
+  </si>
+  <si>
+    <t>It's important to me to play with a tightly knit group.</t>
+  </si>
+  <si>
+    <t>trojan_4</t>
+  </si>
+  <si>
+    <t>I like to master all elements of a game.</t>
+  </si>
+  <si>
+    <t>trojan_5</t>
+  </si>
+  <si>
+    <t>I like to figure out how the game works inside and out.</t>
+  </si>
+  <si>
+    <t>trojan_6</t>
+  </si>
+  <si>
+    <t>I like to try everything that is possible to do in a game.</t>
+  </si>
+  <si>
+    <t>trojan_7</t>
+  </si>
+  <si>
+    <t>Winning is a big reason for me to play video games.</t>
+  </si>
+  <si>
+    <t>trojan_8</t>
+  </si>
+  <si>
+    <t>I play to win.</t>
+  </si>
+  <si>
+    <t>trojan_9</t>
+  </si>
+  <si>
+    <t>It's important to me to be the fastest and most skilled person playing the game.</t>
+  </si>
+  <si>
+    <t>trojan_10</t>
+  </si>
+  <si>
+    <t>I like to do things in games which I cannot do in real life.</t>
+  </si>
+  <si>
+    <t>trojan_11</t>
+  </si>
+  <si>
+    <t>Video games allow me to pretend I am someone/somewhere else.</t>
+  </si>
+  <si>
+    <t>trojan_12</t>
+  </si>
+  <si>
+    <t>I like the feeling of being part of a story.</t>
+  </si>
+  <si>
+    <t>trojan_13</t>
+  </si>
+  <si>
+    <t>I like stories in a game.</t>
+  </si>
+  <si>
+    <t>trojan_14</t>
+  </si>
+  <si>
+    <t>Games make me smarter.</t>
+  </si>
+  <si>
+    <t>trojan_15</t>
+  </si>
+  <si>
+    <t>I play games to enhance my intellectual abilities.</t>
+  </si>
+  <si>
+    <t>selfreportPlay #1_1_1</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>In each of the previous periods, how much total time did you spend playing games? Please only inc...</t>
+  </si>
+  <si>
+    <t>selfreportPlay #1_1_2</t>
+  </si>
+  <si>
+    <t>selfreportPlay #1_2_1</t>
+  </si>
+  <si>
+    <t>selfreportPlay #1_2_2</t>
+  </si>
+  <si>
+    <t>selfreportPlay #1_3_1</t>
+  </si>
+  <si>
+    <t>selfreportPlay #1_3_2</t>
+  </si>
+  <si>
+    <t>recentSessions_1_1</t>
+  </si>
+  <si>
+    <t>Session 1</t>
+  </si>
+  <si>
+    <t>To the best of your recollection, please list at least 1 and up to 3 of your most recent gaming sessions.</t>
+  </si>
+  <si>
+    <t>recentSessions_1_2</t>
+  </si>
+  <si>
+    <t>recentSessions_1_3</t>
+  </si>
+  <si>
+    <t>recentSessions_1_4</t>
+  </si>
+  <si>
+    <t>recentSessions_2_1</t>
+  </si>
+  <si>
+    <t>Session 2</t>
+  </si>
+  <si>
+    <t>recentSessions_2_2</t>
+  </si>
+  <si>
+    <t>recentSessions_2_3</t>
+  </si>
+  <si>
+    <t>recentSessions_2_4</t>
+  </si>
+  <si>
+    <t>recentSessions_3_1</t>
+  </si>
+  <si>
+    <t>Session 3</t>
+  </si>
+  <si>
+    <t>recentSessions_3_2</t>
+  </si>
+  <si>
+    <t>recentSessions_3_3</t>
+  </si>
+  <si>
+    <t>recentSessions_3_4</t>
+  </si>
+  <si>
+    <t>csas</t>
+  </si>
+  <si>
+    <t>Please imagine a ladder with steps numbered from 0 at the bottom to 10 at the top. The top of the ladder represents the best possible life for you, and the bottom of the ladder represents the worst possible life for you. On which step of the ladder would you say you personally feel you stood over the past two weeks?</t>
+  </si>
+  <si>
+    <t>affectiveValence_1</t>
+  </si>
+  <si>
+    <t>How are you feeling right now?</t>
+  </si>
+  <si>
+    <t>wemwbs_1</t>
+  </si>
+  <si>
+    <t>I’ve been feeling optimistic about the future</t>
+  </si>
+  <si>
+    <t>Below are some statements about feelings and thoughts.Please select the answer that best describes your experience of each over the last 2 weeks.</t>
+  </si>
+  <si>
+    <t>Warwick-Edinburgh Mental Wellbeing Scale (https://doi.org/10.1186/1477-7525-5-63)</t>
+  </si>
+  <si>
+    <t>1 - None of the time; 2 - Rarely; 3 - Some of the time; 4 - Often; 5 - All of the time</t>
+  </si>
+  <si>
+    <t>wemwbs_2</t>
+  </si>
+  <si>
+    <t>I’ve been feeling relaxed</t>
+  </si>
+  <si>
+    <t>wemwbs_3</t>
+  </si>
+  <si>
+    <t>I’ve been thinking clearly</t>
+  </si>
+  <si>
+    <t>wemwbs_4</t>
+  </si>
+  <si>
+    <t>I’ve been feeling close to other people</t>
+  </si>
+  <si>
+    <t>wemwbs_5</t>
+  </si>
+  <si>
+    <t>I’ve been able to make up my own mind about things</t>
+  </si>
+  <si>
+    <t>wemwbs_6</t>
+  </si>
+  <si>
+    <t>I’ve been feeling useful</t>
+  </si>
+  <si>
+    <t>wemwbs_7</t>
+  </si>
+  <si>
+    <t>I’ve been dealing with problems well</t>
+  </si>
+  <si>
+    <t>wemwbs_attCheck_1</t>
+  </si>
+  <si>
+    <t>wemwbs_attCheck</t>
+  </si>
+  <si>
+    <t>wemwbs_attCheck_2</t>
+  </si>
+  <si>
+    <t>wemwbs_attCheck_3</t>
+  </si>
+  <si>
+    <t>wemwbs_attCheck_4</t>
+  </si>
+  <si>
+    <t>wemwbs_attCheck_5</t>
+  </si>
+  <si>
+    <t>wemwbs_attCheck_6</t>
+  </si>
+  <si>
+    <t>wemwbs_attCheck_7</t>
+  </si>
+  <si>
+    <t>promis_1</t>
+  </si>
+  <si>
+    <t>I felt worthless.</t>
+  </si>
+  <si>
+    <t>In the past 7 days...</t>
+  </si>
+  <si>
+    <t>PROMIS Short Form 8a Adult Depression Scale (https://doi.org/10.1177/1073191111411667)</t>
+  </si>
+  <si>
+    <t>Never; Rarely; Sometimes; Often; Never</t>
+  </si>
+  <si>
+    <t>promis_2</t>
+  </si>
+  <si>
+    <t>I felt that I had nothing to look forward to.</t>
+  </si>
+  <si>
+    <t>promis_3</t>
+  </si>
+  <si>
+    <t>I felt helpless.</t>
+  </si>
+  <si>
+    <t>promis_4</t>
+  </si>
+  <si>
+    <t>I felt sad.</t>
+  </si>
+  <si>
+    <t>promis_5</t>
+  </si>
+  <si>
+    <t>I felt like a failure.</t>
+  </si>
+  <si>
+    <t>promis_6</t>
+  </si>
+  <si>
+    <t>I felt depressed.</t>
+  </si>
+  <si>
+    <t>promis_7</t>
+  </si>
+  <si>
+    <t>I felt unhappy.</t>
+  </si>
+  <si>
+    <t>promis_8</t>
+  </si>
+  <si>
+    <t>I felt hopeless.</t>
+  </si>
+  <si>
+    <t>bangs_1</t>
+  </si>
+  <si>
+    <t>I could play in the way I wanted.</t>
+  </si>
+  <si>
+    <t>Below, we ask you about experiences of gaming during the last 2 weeks, across all the video games you played. If you did not play any video games in the last 2 weeks, please select "4" for all statements.When playing video games during the last 2 weeks...</t>
+  </si>
+  <si>
+    <t>Basic Needs in Games Scale (https://doi.org/10.31234/osf.io/4965z7)</t>
+  </si>
+  <si>
+    <t>1 Strongly Disagree; 2; 3; 4 Neither Agree nor Disagree; 5; 6; 7 Strongly Agree</t>
+  </si>
+  <si>
+    <t>bangs_2</t>
+  </si>
+  <si>
+    <t>I could make choices regarding how to play.</t>
+  </si>
+  <si>
+    <t>bangs_3</t>
+  </si>
+  <si>
+    <t>I could direct my own play experiences.</t>
+  </si>
+  <si>
+    <t>bangs_4</t>
+  </si>
+  <si>
+    <t>I too often felt forced to take certain actions.</t>
+  </si>
+  <si>
+    <t>bangs_5</t>
+  </si>
+  <si>
+    <t>Many actions were boring.</t>
+  </si>
+  <si>
+    <t>bangs_6</t>
+  </si>
+  <si>
+    <t>I often found myself wishing I could do something else.</t>
+  </si>
+  <si>
+    <t>bangs_7</t>
+  </si>
+  <si>
+    <t>I felt I was getting better at playing.</t>
+  </si>
+  <si>
+    <t>bangs_8</t>
+  </si>
+  <si>
+    <t>I felt that I made progress while playing.</t>
+  </si>
+  <si>
+    <t>bangs_9</t>
+  </si>
+  <si>
+    <t>I felt a sense of achievement while playing.</t>
+  </si>
+  <si>
+    <t>bangs_10</t>
+  </si>
+  <si>
+    <t>I often felt that I lacked the skills necessary.</t>
+  </si>
+  <si>
+    <t>bangs_11</t>
+  </si>
+  <si>
+    <t>I kept failing to accomplish what I wanted to while playing.</t>
+  </si>
+  <si>
+    <t>bangs_12</t>
+  </si>
+  <si>
+    <t>I felt disappointed with my performance.</t>
+  </si>
+  <si>
+    <t>bangs_13</t>
+  </si>
+  <si>
+    <t>I felt I formed relationships with other players and/or characters.</t>
+  </si>
+  <si>
+    <t>bangs_14</t>
+  </si>
+  <si>
+    <t>I felt a connection to others, virtual or real.</t>
+  </si>
+  <si>
+    <t>bangs_15</t>
+  </si>
+  <si>
+    <t>I felt that other players and/or characters in games cared about me.</t>
+  </si>
+  <si>
+    <t>bangs_16</t>
+  </si>
+  <si>
+    <t>Interactions with other players and/or characters felt toxic to me.</t>
+  </si>
+  <si>
+    <t>bangs_17</t>
+  </si>
+  <si>
+    <t>The communities or virtual worlds made me feel unwelcome.</t>
+  </si>
+  <si>
+    <t>bangs_18</t>
+  </si>
+  <si>
+    <t>Others were unfriendly towards me.</t>
+  </si>
+  <si>
+    <t>displacement_1</t>
+  </si>
+  <si>
+    <t>Work/school performance</t>
+  </si>
+  <si>
+    <t>Over the last two weeks, to what extent has the time you spend playing video games influenced the following areas of your life?</t>
+  </si>
+  <si>
+    <t>Greatly interfered; Moderately interfered; Slightly interfered; No impact; Slightly supported;
 Moderately supported; Greatly supported</t>
   </si>
   <si>
-    <t xml:space="preserve">displacement_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Social participation (e.g., community involvement, personal relationships)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">displacement_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cognitive health (e.g., attention, memory)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">displacement_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emotion regulation (e.g., mood swings, impulse control)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">displacement_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily routines (e.g., sleep, eating habits)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">missingDiary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">played24hr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In the last 24 hours, have you spent any time playing video games?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">socialGaming_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Single-player games only</t>
-  </si>
-  <si>
-    <t xml:space="preserve">While gaming in the last 24 hours, what kind of social interaction did you take part in? Select all that apply.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">socialGaming_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multiplayer with real-world friends</t>
-  </si>
-  <si>
-    <t xml:space="preserve">socialGaming_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multiplayer with online-only friends</t>
-  </si>
-  <si>
-    <t xml:space="preserve">socialGaming_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multiplayer with strangers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mostRecentGame</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is the name of the game you most recently played?
+    <t>displacement_2</t>
+  </si>
+  <si>
+    <t>Social participation (e.g., community involvement, personal relationships)</t>
+  </si>
+  <si>
+    <t>displacement_3</t>
+  </si>
+  <si>
+    <t>Cognitive health (e.g., attention, memory)</t>
+  </si>
+  <si>
+    <t>displacement_4</t>
+  </si>
+  <si>
+    <t>Emotion regulation (e.g., mood swings, impulse control)</t>
+  </si>
+  <si>
+    <t>displacement_5</t>
+  </si>
+  <si>
+    <t>Daily routines (e.g., sleep, eating habits)</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>missingDiary</t>
+  </si>
+  <si>
+    <t>played24hr</t>
+  </si>
+  <si>
+    <t>In the last 24 hours, have you spent any time playing video games?</t>
+  </si>
+  <si>
+    <t>socialGaming_4</t>
+  </si>
+  <si>
+    <t>Single-player games only</t>
+  </si>
+  <si>
+    <t>While gaming in the last 24 hours, what kind of social interaction did you take part in? Select all that apply.</t>
+  </si>
+  <si>
+    <t>socialGaming_5</t>
+  </si>
+  <si>
+    <t>Multiplayer with real-world friends</t>
+  </si>
+  <si>
+    <t>socialGaming_6</t>
+  </si>
+  <si>
+    <t>Multiplayer with online-only friends</t>
+  </si>
+  <si>
+    <t>socialGaming_7</t>
+  </si>
+  <si>
+    <t>Multiplayer with strangers</t>
+  </si>
+  <si>
+    <t>mostRecentGame</t>
+  </si>
+  <si>
+    <t>What is the name of the game you most recently played?
 This text will be copied into certain other questions, so please write only the game name and use abbreviations if needed.</t>
   </si>
   <si>
-    <t xml:space="preserve">In my most recent session of [QID6-ChoiceTextEntryValue]...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 
+    <t>In my most recent session of [QID6-ChoiceTextEntryValue]...</t>
+  </si>
+  <si>
+    <t>1 
 Strongly Disagree; 2; 3; 4Neither Agree nor Disagree; 5; 6; 7 Strongly agree</t>
   </si>
   <si>
-    <t xml:space="preserve">displacedActivity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Think back to your most recent gaming session. If you hadn't played a game, what would you most likely have done instead?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lifeSat_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I was satisfied with my life today.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpnsfs_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">... I felt a sense of choice and freedom in the things I did.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The next statements tap into your experiences today. Please indicate for each of the statements to what extent they are true for you.Today...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basic Psychological Need Satisfaction and Frustration Scale (https://doi.org/10.1007/s11031-014-9450-1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 - Not at all true; 2; 3; 4; 5 - Completely true</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpnsfs_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">... I felt forced to do many things I wouldn’t choose to do.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpnsfs_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">... I felt confident that I could do things well.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpnsfs_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">... I felt insecure about my abilities.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpnsfs_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">... I felt connected with people who care for me, and for whom I care.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpnsfs_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">... I felt excluded from the group I want to belong to.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Which best describes today for you?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consensus Sleep Diary (https://doi.org/10.5665/sleep.1642)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regular work day; Regular day off; Weekend; Holiday; Vacation day Other (please specify):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_0_8_TEXT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other (please specify):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_1#1_1_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What time did you get into bed last night? Write the time that you got into bed. This may not be...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_1#1_1_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_1#2_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_2#1_1_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What time did you try to go to sleep?  Record the time that you began “trying” to fall asleep.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_2#1_1_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_2#2_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How long did it take you to fall asleep?
+    <t>displacedActivity</t>
+  </si>
+  <si>
+    <t>Think back to your most recent gaming session. If you hadn't played a game, what would you most likely have done instead?</t>
+  </si>
+  <si>
+    <t>lifeSat_1</t>
+  </si>
+  <si>
+    <t>I was satisfied with my life today.</t>
+  </si>
+  <si>
+    <t>bpnsfs_1</t>
+  </si>
+  <si>
+    <t>... I felt a sense of choice and freedom in the things I did.</t>
+  </si>
+  <si>
+    <t>The next statements tap into your experiences today. Please indicate for each of the statements to what extent they are true for you.Today...</t>
+  </si>
+  <si>
+    <t>Basic Psychological Need Satisfaction and Frustration Scale (https://doi.org/10.1007/s11031-014-9450-1)</t>
+  </si>
+  <si>
+    <t>1 - Not at all true; 2; 3; 4; 5 - Completely true</t>
+  </si>
+  <si>
+    <t>bpnsfs_2</t>
+  </si>
+  <si>
+    <t>... I felt forced to do many things I wouldn’t choose to do.</t>
+  </si>
+  <si>
+    <t>bpnsfs_3</t>
+  </si>
+  <si>
+    <t>... I felt confident that I could do things well.</t>
+  </si>
+  <si>
+    <t>bpnsfs_4</t>
+  </si>
+  <si>
+    <t>... I felt insecure about my abilities.</t>
+  </si>
+  <si>
+    <t>bpnsfs_5</t>
+  </si>
+  <si>
+    <t>... I felt connected with people who care for me, and for whom I care.</t>
+  </si>
+  <si>
+    <t>bpnsfs_6</t>
+  </si>
+  <si>
+    <t>... I felt excluded from the group I want to belong to.</t>
+  </si>
+  <si>
+    <t>sd_0</t>
+  </si>
+  <si>
+    <t>Which best describes today for you?</t>
+  </si>
+  <si>
+    <t>Consensus Sleep Diary (https://doi.org/10.5665/sleep.1642)</t>
+  </si>
+  <si>
+    <t>Regular work day; Regular day off; Weekend; Holiday; Vacation day Other (please specify):</t>
+  </si>
+  <si>
+    <t>sd_0_8_TEXT</t>
+  </si>
+  <si>
+    <t>Other (please specify):</t>
+  </si>
+  <si>
+    <t>sd_1#1_1_1</t>
+  </si>
+  <si>
+    <t>What time did you get into bed last night? Write the time that you got into bed. This may not be...</t>
+  </si>
+  <si>
+    <t>sd_1#1_1_2</t>
+  </si>
+  <si>
+    <t>sd_1#2_1</t>
+  </si>
+  <si>
+    <t>sd_2#1_1_1</t>
+  </si>
+  <si>
+    <t>What time did you try to go to sleep?  Record the time that you began “trying” to fall asleep.</t>
+  </si>
+  <si>
+    <t>sd_2#1_1_2</t>
+  </si>
+  <si>
+    <t>sd_2#2_1</t>
+  </si>
+  <si>
+    <t>sd_3</t>
+  </si>
+  <si>
+    <t>How long did it take you to fall asleep?
 Based on the time you provided in the previous question, please indicate how many minutes it took you to fall asleep.
 Number of minutes:</t>
   </si>
   <si>
-    <t xml:space="preserve">sd_4#1_1_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What time was your final awakening? Record the last time you woke up in the morning.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_4#1_1_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_4#2_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_5#1_1_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What time did you get out of bed for the day? What time did you get out of bed with no further at...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_5#1_1_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_5#2_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How do you rate the quality of your sleep?
+    <t>sd_4#1_1_1</t>
+  </si>
+  <si>
+    <t>What time was your final awakening? Record the last time you woke up in the morning.</t>
+  </si>
+  <si>
+    <t>sd_4#1_1_2</t>
+  </si>
+  <si>
+    <t>sd_4#2_1</t>
+  </si>
+  <si>
+    <t>sd_5#1_1_1</t>
+  </si>
+  <si>
+    <t>What time did you get out of bed for the day? What time did you get out of bed with no further at...</t>
+  </si>
+  <si>
+    <t>sd_5#1_1_2</t>
+  </si>
+  <si>
+    <t>sd_5#2_1</t>
+  </si>
+  <si>
+    <t>sd_6</t>
+  </si>
+  <si>
+    <t>How do you rate the quality of your sleep?
 "Sleep Quality" is your sense of whether you slept well or poorly.</t>
   </si>
   <si>
-    <t xml:space="preserve">timeUse_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sleep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In the past 24 hours, how much time did you spend on each of the following activities?Note: The total hours must add up to 24.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">slider from 0-16 hours, with increments of .1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">timeUse_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Work and Employment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">timeUse_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gaming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">timeUse_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Social Media and Instant Messaging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">timeUse_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TV, Movies &amp;amp; Streaming&amp;nbsp;(e.g., Television, Netflix, Youtube, Twitch, etc.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">timeUse_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Internet Browsing and Online Shopping</t>
-  </si>
-  <si>
-    <t xml:space="preserve">timeUse_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Education</t>
-  </si>
-  <si>
-    <t xml:space="preserve">timeUse_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exercise and Sports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">timeUse_9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Offline Leisure and Recreation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">timeUse_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Household Activities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">timeUse_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Childcare and Caregiving</t>
-  </si>
-  <si>
-    <t xml:space="preserve">timeUse_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Travel and Transportation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">timeUse_13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Voluntary Activities and Religious Practices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">timeUse_14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unspecified and Miscellaneous Activities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stress_argument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Did you have an argument or disagreement with anyone since this time yesterday?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily Inventory of Stressful Events (https://doi.org/10.1177/1073191102091006)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes; No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">howStress_arg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How stressful was this for you?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not at all; Not very; Somewhat; Very</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stress_letpass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Since this time yesterday, did anything happen that you could have argued about but you decided to let pass in order to avoid a disagreement?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">howStress_letPass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stress_school</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Since this time yesterday, did anything happen at work or school (other than what you have already mentioned) that most people would consider stressful?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">howStress_school</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stress_home</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Since this time yesterday, did anything happen at home (other than what you have already mentioned) that most people would consider stressful?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">howStress_home</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stress_discrim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Many people experience discrimination on the basis of such things as race, sex, or age. Did anything like this happen to you since this time yesterday?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">howStress_discrim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stress_relative</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Since this time yesterday, did anything happen to a close friend or relative?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">howStress_relative</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stress_other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Did anything else happen to you since this
+    <t>timeUse_5</t>
+  </si>
+  <si>
+    <t>Sleep</t>
+  </si>
+  <si>
+    <t>In the past 24 hours, how much time did you spend on each of the following activities?Note: The total hours must add up to 24.</t>
+  </si>
+  <si>
+    <t>slider from 0-16 hours, with increments of .1</t>
+  </si>
+  <si>
+    <t>timeUse_6</t>
+  </si>
+  <si>
+    <t>Work and Employment</t>
+  </si>
+  <si>
+    <t>timeUse_1</t>
+  </si>
+  <si>
+    <t>Gaming</t>
+  </si>
+  <si>
+    <t>timeUse_2</t>
+  </si>
+  <si>
+    <t>Social Media and Instant Messaging</t>
+  </si>
+  <si>
+    <t>timeUse_3</t>
+  </si>
+  <si>
+    <t>TV, Movies &amp;amp; Streaming&amp;nbsp;(e.g., Television, Netflix, Youtube, Twitch, etc.)</t>
+  </si>
+  <si>
+    <t>timeUse_4</t>
+  </si>
+  <si>
+    <t>Internet Browsing and Online Shopping</t>
+  </si>
+  <si>
+    <t>timeUse_7</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>timeUse_8</t>
+  </si>
+  <si>
+    <t>Exercise and Sports</t>
+  </si>
+  <si>
+    <t>timeUse_9</t>
+  </si>
+  <si>
+    <t>Offline Leisure and Recreation</t>
+  </si>
+  <si>
+    <t>timeUse_10</t>
+  </si>
+  <si>
+    <t>Household Activities</t>
+  </si>
+  <si>
+    <t>timeUse_11</t>
+  </si>
+  <si>
+    <t>Childcare and Caregiving</t>
+  </si>
+  <si>
+    <t>timeUse_12</t>
+  </si>
+  <si>
+    <t>Travel and Transportation</t>
+  </si>
+  <si>
+    <t>timeUse_13</t>
+  </si>
+  <si>
+    <t>Voluntary Activities and Religious Practices</t>
+  </si>
+  <si>
+    <t>timeUse_14</t>
+  </si>
+  <si>
+    <t>Unspecified and Miscellaneous Activities</t>
+  </si>
+  <si>
+    <t>stress_argument</t>
+  </si>
+  <si>
+    <t>Did you have an argument or disagreement with anyone since this time yesterday?</t>
+  </si>
+  <si>
+    <t>Daily Inventory of Stressful Events (https://doi.org/10.1177/1073191102091006)</t>
+  </si>
+  <si>
+    <t>Yes; No</t>
+  </si>
+  <si>
+    <t>howStress_arg</t>
+  </si>
+  <si>
+    <t>How stressful was this for you?</t>
+  </si>
+  <si>
+    <t>Not at all; Not very; Somewhat; Very</t>
+  </si>
+  <si>
+    <t>stress_letpass</t>
+  </si>
+  <si>
+    <t>Since this time yesterday, did anything happen that you could have argued about but you decided to let pass in order to avoid a disagreement?</t>
+  </si>
+  <si>
+    <t>howStress_letPass</t>
+  </si>
+  <si>
+    <t>stress_school</t>
+  </si>
+  <si>
+    <t>Since this time yesterday, did anything happen at work or school (other than what you have already mentioned) that most people would consider stressful?</t>
+  </si>
+  <si>
+    <t>howStress_school</t>
+  </si>
+  <si>
+    <t>stress_home</t>
+  </si>
+  <si>
+    <t>Since this time yesterday, did anything happen at home (other than what you have already mentioned) that most people would consider stressful?</t>
+  </si>
+  <si>
+    <t>howStress_home</t>
+  </si>
+  <si>
+    <t>stress_discrim</t>
+  </si>
+  <si>
+    <t>Many people experience discrimination on the basis of such things as race, sex, or age. Did anything like this happen to you since this time yesterday?</t>
+  </si>
+  <si>
+    <t>howStress_discrim</t>
+  </si>
+  <si>
+    <t>stress_relative</t>
+  </si>
+  <si>
+    <t>Since this time yesterday, did anything happen to a close friend or relative?</t>
+  </si>
+  <si>
+    <t>howStress_relative</t>
+  </si>
+  <si>
+    <t>stress_other</t>
+  </si>
+  <si>
+    <t>Did anything else happen to you since this
 time yesterday that most people
 would consider stressful?</t>
   </si>
   <si>
-    <t xml:space="preserve">howStress_other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">session</t>
-  </si>
-  <si>
-    <t xml:space="preserve">titleID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sessionStart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">duration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">genre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">platform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hour</t>
-  </si>
-  <si>
-    <t xml:space="preserve">persona</t>
-  </si>
-  <si>
-    <t xml:space="preserve">minutes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AppID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">missing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dropout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">week</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entertainment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Social</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Information &amp; Reading</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Games</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Productivity &amp; Finance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Travel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creativity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Health &amp; Fitness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shopping &amp; Food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">totalScreentime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">numDailyAppSessions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">app</t>
-  </si>
-  <si>
-    <t xml:space="preserve">category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tabs of this file contain the respective codebooks for each data table.</t>
+    <t>howStress_other</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>A unique identifier assigned to each participant in the study.</t>
+  </si>
+  <si>
+    <t>The day number relative to the start of the study (e.g., Day 1, Day 2).</t>
+  </si>
+  <si>
+    <t>The calendar date on which the gaming session occurred (format: YYYY-MM-DD).</t>
+  </si>
+  <si>
+    <t>session</t>
+  </si>
+  <si>
+    <t>A sequential identifier for each gaming session on a given day for the participant.</t>
+  </si>
+  <si>
+    <t>titleID</t>
+  </si>
+  <si>
+    <t>The name of the game played during the session.</t>
+  </si>
+  <si>
+    <t>sessionStart</t>
+  </si>
+  <si>
+    <t>The time of day when the gaming session began (format: HH:MM:SS).</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>The length of the gaming session in minutes.</t>
+  </si>
+  <si>
+    <t>genre</t>
+  </si>
+  <si>
+    <t>The genre(s) of the game played (e.g., Action, Puzzle, Role-Playing), using IGDB categories.</t>
+  </si>
+  <si>
+    <t>platform</t>
+  </si>
+  <si>
+    <t>The platform on which the game was played, for use in future merging (here: always Nintendo).</t>
+  </si>
+  <si>
+    <t>The platform on which the game was played, for use in future merging (here: always Xbox).</t>
+  </si>
+  <si>
+    <t>hour</t>
+  </si>
+  <si>
+    <t>The hour of the day when the gaming session began (0-23).</t>
+  </si>
+  <si>
+    <t>persona</t>
+  </si>
+  <si>
+    <t>One of 250 possible Steam personas, generated by LLMs, with particular gameplay habits</t>
+  </si>
+  <si>
+    <t>The category or genre of the game played during the session (e.g., Action, Puzzle, Role-Playing).</t>
+  </si>
+  <si>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>The number of minutes played of that game during the hour period in question.</t>
+  </si>
+  <si>
+    <t>AppID</t>
+  </si>
+  <si>
+    <t>A unique identifier assigned to each game on the Steam platform.</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>The platform on which the game was played, for use in future merging (here: always Steam).</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>The week number relative to the start of the study.</t>
+  </si>
+  <si>
+    <t>The date corresponding to the start of the week in question (format: YYYY-MM-DD).</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>Indicator for whether the data for the week is missing (TRUE = missing).</t>
+  </si>
+  <si>
+    <t>dropout</t>
+  </si>
+  <si>
+    <t>Indicator for whether the participant dropped out of the study (TRUE = dropped out).</t>
+  </si>
+  <si>
+    <t>Entertainment</t>
+  </si>
+  <si>
+    <t>Total amount of time spent in entertainment apps during the week (in minutes).</t>
+  </si>
+  <si>
+    <t>Social</t>
+  </si>
+  <si>
+    <t>Total amount of time spent in social media apps during the week (in minutes).</t>
+  </si>
+  <si>
+    <t>Information &amp; Reading</t>
+  </si>
+  <si>
+    <t>Total amount of time spent in information and reading apps during the week (in minutes).</t>
+  </si>
+  <si>
+    <t>Games</t>
+  </si>
+  <si>
+    <t>Total amount of time spent in gaming apps during the week (in minutes).</t>
+  </si>
+  <si>
+    <t>Productivity &amp; Finance</t>
+  </si>
+  <si>
+    <t>Total amount of time spent in productivity and finance apps during the week (in minutes).</t>
+  </si>
+  <si>
+    <t>Travel</t>
+  </si>
+  <si>
+    <t>Total amount of time spent in travel-related apps during the week (in minutes).</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Total amount of time spent in other uncategorized apps during the week (in minutes).</t>
+  </si>
+  <si>
+    <t>Creativity</t>
+  </si>
+  <si>
+    <t>Total amount of time spent in creativity apps (e.g., photo/video editing) during the week (in minutes).</t>
+  </si>
+  <si>
+    <t>Total amount of time spent in educational apps during the week (in minutes).</t>
+  </si>
+  <si>
+    <t>Health &amp; Fitness</t>
+  </si>
+  <si>
+    <t>Total amount of time spent in health and fitness apps during the week (in minutes).</t>
+  </si>
+  <si>
+    <t>Shopping &amp; Food</t>
+  </si>
+  <si>
+    <t>Total amount of time spent in shopping and food-related apps during the week (in minutes).</t>
+  </si>
+  <si>
+    <t>Utilities</t>
+  </si>
+  <si>
+    <t>Total amount of time spent in utility apps (e.g., weather, calculators) during the week (in minutes).</t>
+  </si>
+  <si>
+    <t>totalScreentime</t>
+  </si>
+  <si>
+    <t>Total amount of screen time across all app categories during the week (in minutes).</t>
+  </si>
+  <si>
+    <t>numDailyAppSessions</t>
+  </si>
+  <si>
+    <t>The total number of app sessions recorded on the given day.</t>
+  </si>
+  <si>
+    <t>The calendar date on which the app sessions occurred (format: YYYY-MM-DD).</t>
+  </si>
+  <si>
+    <t>A sequential identifier for each app session on the given day for the participant.</t>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>The name of the app used during the session.</t>
+  </si>
+  <si>
+    <t>The time of day when the app session began (format: HH:MM:SS).</t>
+  </si>
+  <si>
+    <t>The duration of the app session in minutes.</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>The category of the app used during the session (e.g., Social, Productivity, Entertainment).</t>
+  </si>
+  <si>
+    <t>Tabs of this file contain the respective codebooks for each data table.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1915,15 +2042,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <b/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1946,10 +2075,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1959,6 +2091,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2240,18 +2381,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.71" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="81.71" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="81.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2259,7 +2400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2267,7 +2408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2275,7 +2416,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2283,7 +2424,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2291,7 +2432,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2299,7 +2440,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -2307,7 +2448,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2315,7 +2456,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -2323,36 +2464,36 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" ht="50" customHeight="1">
-      <c r="A11" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+    <row r="11" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A11:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.71" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="100.71" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="40.71" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -2363,34 +2504,31 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>21</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
       </c>
-      <c r="C2"/>
-    </row>
-    <row r="3">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>23</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="C3"/>
-    </row>
-    <row r="4">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>24</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
       </c>
-      <c r="C4"/>
-    </row>
-    <row r="5">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -2401,7 +2539,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -2412,7 +2550,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -2423,25 +2561,23 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>33</v>
       </c>
       <c r="B8" t="s">
         <v>34</v>
       </c>
-      <c r="C8"/>
-    </row>
-    <row r="9">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>35</v>
       </c>
       <c r="B9" t="s">
         <v>36</v>
       </c>
-      <c r="C9"/>
-    </row>
-    <row r="10">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -2452,7 +2588,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -2463,25 +2599,23 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>42</v>
       </c>
       <c r="B12" t="s">
         <v>43</v>
       </c>
-      <c r="C12"/>
-    </row>
-    <row r="13">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>44</v>
       </c>
       <c r="B13" t="s">
         <v>45</v>
       </c>
-      <c r="C13"/>
-    </row>
-    <row r="14">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -2492,7 +2626,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -2503,7 +2637,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -2514,7 +2648,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -2525,7 +2659,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -2536,7 +2670,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -2547,7 +2681,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -2558,7 +2692,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>61</v>
       </c>
@@ -2569,7 +2703,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>63</v>
       </c>
@@ -2580,7 +2714,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -2591,7 +2725,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>67</v>
       </c>
@@ -2602,7 +2736,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>69</v>
       </c>
@@ -2613,7 +2747,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>71</v>
       </c>
@@ -2624,7 +2758,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>72</v>
       </c>
@@ -2635,7 +2769,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>74</v>
       </c>
@@ -2646,7 +2780,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>75</v>
       </c>
@@ -2657,7 +2791,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>76</v>
       </c>
@@ -2668,7 +2802,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>77</v>
       </c>
@@ -2679,7 +2813,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>78</v>
       </c>
@@ -2690,7 +2824,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>79</v>
       </c>
@@ -2701,7 +2835,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>80</v>
       </c>
@@ -2712,7 +2846,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>81</v>
       </c>
@@ -2723,7 +2857,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>82</v>
       </c>
@@ -2734,7 +2868,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>83</v>
       </c>
@@ -2745,7 +2879,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>84</v>
       </c>
@@ -2756,7 +2890,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>85</v>
       </c>
@@ -2767,7 +2901,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>86</v>
       </c>
@@ -2778,7 +2912,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>88</v>
       </c>
@@ -2789,7 +2923,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>89</v>
       </c>
@@ -2800,7 +2934,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>92</v>
       </c>
@@ -2811,7 +2945,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>94</v>
       </c>
@@ -2822,7 +2956,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>96</v>
       </c>
@@ -2833,7 +2967,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>98</v>
       </c>
@@ -2844,7 +2978,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>100</v>
       </c>
@@ -2855,16 +2989,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>102</v>
       </c>
       <c r="B48" t="s">
         <v>103</v>
       </c>
-      <c r="C48"/>
-    </row>
-    <row r="49">
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>104</v>
       </c>
@@ -2875,7 +3008,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>107</v>
       </c>
@@ -2886,7 +3019,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>109</v>
       </c>
@@ -2897,7 +3030,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>111</v>
       </c>
@@ -2908,7 +3041,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>113</v>
       </c>
@@ -2919,7 +3052,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>115</v>
       </c>
@@ -2930,7 +3063,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>117</v>
       </c>
@@ -2941,7 +3074,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>119</v>
       </c>
@@ -2952,7 +3085,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>121</v>
       </c>
@@ -2963,7 +3096,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>123</v>
       </c>
@@ -2974,7 +3107,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>124</v>
       </c>
@@ -2985,7 +3118,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>126</v>
       </c>
@@ -2996,7 +3129,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>127</v>
       </c>
@@ -3007,7 +3140,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>128</v>
       </c>
@@ -3018,150 +3151,137 @@
         <v>122</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>129</v>
       </c>
       <c r="B63" t="s">
         <v>22</v>
       </c>
-      <c r="C63"/>
-    </row>
-    <row r="64">
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>130</v>
       </c>
       <c r="B64" t="s">
         <v>130</v>
       </c>
-      <c r="C64"/>
-    </row>
-    <row r="65">
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>131</v>
       </c>
       <c r="B65" t="s">
         <v>22</v>
       </c>
-      <c r="C65"/>
-    </row>
-    <row r="66">
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>132</v>
       </c>
       <c r="B66" t="s">
         <v>22</v>
       </c>
-      <c r="C66"/>
-    </row>
-    <row r="67">
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>133</v>
       </c>
       <c r="B67" t="s">
         <v>22</v>
       </c>
-      <c r="C67"/>
-    </row>
-    <row r="68">
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>134</v>
       </c>
       <c r="B68" t="s">
         <v>22</v>
       </c>
-      <c r="C68"/>
-    </row>
-    <row r="69">
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>135</v>
       </c>
       <c r="B69" t="s">
         <v>22</v>
       </c>
-      <c r="C69"/>
-    </row>
-    <row r="70">
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>136</v>
       </c>
       <c r="B70" t="s">
         <v>22</v>
       </c>
-      <c r="C70"/>
-    </row>
-    <row r="71">
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>137</v>
       </c>
       <c r="B71" t="s">
         <v>22</v>
       </c>
-      <c r="C71"/>
-    </row>
-    <row r="72">
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>138</v>
       </c>
       <c r="B72" t="s">
         <v>22</v>
       </c>
-      <c r="C72"/>
-    </row>
-    <row r="73">
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>139</v>
       </c>
       <c r="B73" t="s">
         <v>22</v>
       </c>
-      <c r="C73"/>
-    </row>
-    <row r="74">
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>140</v>
       </c>
       <c r="B74" t="s">
         <v>22</v>
       </c>
-      <c r="C74"/>
-    </row>
-    <row r="75">
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>141</v>
       </c>
       <c r="B75" t="s">
         <v>22</v>
       </c>
-      <c r="C75"/>
-    </row>
-    <row r="77">
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E167"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.71" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="100.71" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="40.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="86.71" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="134.71" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" customWidth="1"/>
+    <col min="4" max="4" width="86.6640625" customWidth="1"/>
+    <col min="5" max="5" width="134.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>142</v>
       </c>
@@ -3178,14 +3298,13 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>21</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
       </c>
-      <c r="C2"/>
       <c r="D2" t="s">
         <v>22</v>
       </c>
@@ -3193,14 +3312,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>145</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="C3"/>
       <c r="D3" t="s">
         <v>22</v>
       </c>
@@ -3208,14 +3326,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>146</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="C4"/>
       <c r="D4" t="s">
         <v>22</v>
       </c>
@@ -3223,14 +3340,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>147</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="C5"/>
       <c r="D5" t="s">
         <v>22</v>
       </c>
@@ -3238,14 +3354,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>148</v>
       </c>
       <c r="B6" t="s">
         <v>149</v>
       </c>
-      <c r="C6"/>
       <c r="D6" t="s">
         <v>22</v>
       </c>
@@ -3253,14 +3368,13 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>151</v>
       </c>
       <c r="B7" t="s">
         <v>152</v>
       </c>
-      <c r="C7"/>
       <c r="D7" t="s">
         <v>22</v>
       </c>
@@ -3268,7 +3382,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>153</v>
       </c>
@@ -3285,7 +3399,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>157</v>
       </c>
@@ -3302,7 +3416,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>159</v>
       </c>
@@ -3319,7 +3433,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>161</v>
       </c>
@@ -3336,14 +3450,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>163</v>
       </c>
       <c r="B12" t="s">
         <v>164</v>
       </c>
-      <c r="C12"/>
       <c r="D12" t="s">
         <v>165</v>
       </c>
@@ -3351,7 +3464,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>166</v>
       </c>
@@ -3368,7 +3481,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>169</v>
       </c>
@@ -3385,7 +3498,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>172</v>
       </c>
@@ -3402,7 +3515,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>174</v>
       </c>
@@ -3419,7 +3532,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>176</v>
       </c>
@@ -3436,7 +3549,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>178</v>
       </c>
@@ -3453,7 +3566,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>180</v>
       </c>
@@ -3470,7 +3583,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>182</v>
       </c>
@@ -3487,7 +3600,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>185</v>
       </c>
@@ -3504,7 +3617,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>188</v>
       </c>
@@ -3521,7 +3634,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>190</v>
       </c>
@@ -3538,7 +3651,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>191</v>
       </c>
@@ -3555,7 +3668,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>192</v>
       </c>
@@ -3572,7 +3685,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>193</v>
       </c>
@@ -3589,7 +3702,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>194</v>
       </c>
@@ -3606,7 +3719,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>195</v>
       </c>
@@ -3623,7 +3736,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>198</v>
       </c>
@@ -3640,7 +3753,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>200</v>
       </c>
@@ -3657,14 +3770,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>203</v>
       </c>
       <c r="B31" t="s">
         <v>204</v>
       </c>
-      <c r="C31"/>
       <c r="D31" t="s">
         <v>165</v>
       </c>
@@ -3672,7 +3784,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>205</v>
       </c>
@@ -3689,7 +3801,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>208</v>
       </c>
@@ -3706,7 +3818,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>209</v>
       </c>
@@ -3723,14 +3835,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>211</v>
       </c>
       <c r="B35" t="s">
         <v>212</v>
       </c>
-      <c r="C35"/>
       <c r="D35" t="s">
         <v>22</v>
       </c>
@@ -3738,7 +3849,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>213</v>
       </c>
@@ -3755,7 +3866,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>215</v>
       </c>
@@ -3772,7 +3883,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>216</v>
       </c>
@@ -3789,7 +3900,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>217</v>
       </c>
@@ -3806,7 +3917,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>219</v>
       </c>
@@ -3823,7 +3934,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>220</v>
       </c>
@@ -3840,7 +3951,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>223</v>
       </c>
@@ -3857,7 +3968,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>225</v>
       </c>
@@ -3874,7 +3985,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>227</v>
       </c>
@@ -3891,7 +4002,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>229</v>
       </c>
@@ -3908,7 +4019,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>231</v>
       </c>
@@ -3925,7 +4036,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>233</v>
       </c>
@@ -3942,7 +4053,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>235</v>
       </c>
@@ -3959,7 +4070,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>237</v>
       </c>
@@ -3976,14 +4087,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>239</v>
       </c>
       <c r="B50" t="s">
         <v>240</v>
       </c>
-      <c r="C50"/>
       <c r="D50" t="s">
         <v>22</v>
       </c>
@@ -3991,7 +4101,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>241</v>
       </c>
@@ -4008,14 +4118,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>244</v>
       </c>
       <c r="B52" t="s">
         <v>245</v>
       </c>
-      <c r="C52"/>
       <c r="D52" t="s">
         <v>22</v>
       </c>
@@ -4023,14 +4132,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>246</v>
       </c>
       <c r="B53" t="s">
         <v>247</v>
       </c>
-      <c r="C53"/>
       <c r="D53" t="s">
         <v>22</v>
       </c>
@@ -4038,14 +4146,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>248</v>
       </c>
       <c r="B54" t="s">
         <v>249</v>
       </c>
-      <c r="C54"/>
       <c r="D54" t="s">
         <v>22</v>
       </c>
@@ -4053,14 +4160,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>250</v>
       </c>
       <c r="B55" t="s">
         <v>251</v>
       </c>
-      <c r="C55"/>
       <c r="D55" t="s">
         <v>22</v>
       </c>
@@ -4068,14 +4174,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>252</v>
       </c>
       <c r="B56" t="s">
         <v>253</v>
       </c>
-      <c r="C56"/>
       <c r="D56" t="s">
         <v>22</v>
       </c>
@@ -4083,7 +4188,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>254</v>
       </c>
@@ -4100,7 +4205,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>257</v>
       </c>
@@ -4117,7 +4222,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>259</v>
       </c>
@@ -4134,7 +4239,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>261</v>
       </c>
@@ -4151,7 +4256,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>263</v>
       </c>
@@ -4168,7 +4273,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>265</v>
       </c>
@@ -4185,7 +4290,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>266</v>
       </c>
@@ -4202,7 +4307,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>271</v>
       </c>
@@ -4219,7 +4324,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>273</v>
       </c>
@@ -4236,7 +4341,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>275</v>
       </c>
@@ -4253,7 +4358,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>277</v>
       </c>
@@ -4270,7 +4375,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>279</v>
       </c>
@@ -4287,7 +4392,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>281</v>
       </c>
@@ -4304,7 +4409,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>283</v>
       </c>
@@ -4321,7 +4426,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>285</v>
       </c>
@@ -4338,7 +4443,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>290</v>
       </c>
@@ -4355,7 +4460,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>292</v>
       </c>
@@ -4372,7 +4477,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>294</v>
       </c>
@@ -4389,7 +4494,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>296</v>
       </c>
@@ -4406,7 +4511,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>298</v>
       </c>
@@ -4423,7 +4528,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>300</v>
       </c>
@@ -4440,7 +4545,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>302</v>
       </c>
@@ -4457,7 +4562,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>304</v>
       </c>
@@ -4474,7 +4579,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>306</v>
       </c>
@@ -4491,7 +4596,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>308</v>
       </c>
@@ -4508,7 +4613,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>310</v>
       </c>
@@ -4525,7 +4630,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>312</v>
       </c>
@@ -4542,7 +4647,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>314</v>
       </c>
@@ -4559,7 +4664,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>316</v>
       </c>
@@ -4576,7 +4681,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>318</v>
       </c>
@@ -4593,7 +4698,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>323</v>
       </c>
@@ -4610,7 +4715,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>325</v>
       </c>
@@ -4627,7 +4732,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>327</v>
       </c>
@@ -4644,7 +4749,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>329</v>
       </c>
@@ -4661,7 +4766,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>331</v>
       </c>
@@ -4678,7 +4783,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>333</v>
       </c>
@@ -4695,7 +4800,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>335</v>
       </c>
@@ -4712,7 +4817,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>337</v>
       </c>
@@ -4729,7 +4834,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>339</v>
       </c>
@@ -4746,7 +4851,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>341</v>
       </c>
@@ -4763,7 +4868,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>343</v>
       </c>
@@ -4780,7 +4885,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>345</v>
       </c>
@@ -4797,7 +4902,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>347</v>
       </c>
@@ -4814,7 +4919,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>349</v>
       </c>
@@ -4831,7 +4936,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>351</v>
       </c>
@@ -4848,7 +4953,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>354</v>
       </c>
@@ -4865,7 +4970,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>355</v>
       </c>
@@ -4882,7 +4987,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>356</v>
       </c>
@@ -4899,7 +5004,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>357</v>
       </c>
@@ -4916,7 +5021,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>358</v>
       </c>
@@ -4933,7 +5038,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>359</v>
       </c>
@@ -4950,7 +5055,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>362</v>
       </c>
@@ -4967,7 +5072,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>363</v>
       </c>
@@ -4984,7 +5089,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>364</v>
       </c>
@@ -5001,7 +5106,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>365</v>
       </c>
@@ -5018,7 +5123,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>367</v>
       </c>
@@ -5035,7 +5140,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>368</v>
       </c>
@@ -5052,7 +5157,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>369</v>
       </c>
@@ -5069,7 +5174,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>370</v>
       </c>
@@ -5086,7 +5191,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>372</v>
       </c>
@@ -5103,7 +5208,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>373</v>
       </c>
@@ -5120,7 +5225,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>374</v>
       </c>
@@ -5137,14 +5242,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>375</v>
       </c>
       <c r="B119" t="s">
         <v>376</v>
       </c>
-      <c r="C119"/>
       <c r="D119" t="s">
         <v>22</v>
       </c>
@@ -5152,14 +5256,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>377</v>
       </c>
       <c r="B120" t="s">
         <v>378</v>
       </c>
-      <c r="C120"/>
       <c r="D120" t="s">
         <v>22</v>
       </c>
@@ -5167,7 +5270,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>379</v>
       </c>
@@ -5184,7 +5287,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>384</v>
       </c>
@@ -5201,7 +5304,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>386</v>
       </c>
@@ -5218,7 +5321,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>388</v>
       </c>
@@ -5235,7 +5338,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>390</v>
       </c>
@@ -5252,7 +5355,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>392</v>
       </c>
@@ -5269,7 +5372,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>394</v>
       </c>
@@ -5286,7 +5389,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>396</v>
       </c>
@@ -5303,7 +5406,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>398</v>
       </c>
@@ -5320,7 +5423,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>399</v>
       </c>
@@ -5337,7 +5440,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>400</v>
       </c>
@@ -5354,7 +5457,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>401</v>
       </c>
@@ -5371,7 +5474,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>402</v>
       </c>
@@ -5388,7 +5491,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>403</v>
       </c>
@@ -5405,7 +5508,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>404</v>
       </c>
@@ -5422,7 +5525,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>409</v>
       </c>
@@ -5439,7 +5542,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>411</v>
       </c>
@@ -5456,7 +5559,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>413</v>
       </c>
@@ -5473,7 +5576,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>415</v>
       </c>
@@ -5490,7 +5593,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>417</v>
       </c>
@@ -5507,7 +5610,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>419</v>
       </c>
@@ -5524,7 +5627,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>421</v>
       </c>
@@ -5541,7 +5644,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>423</v>
       </c>
@@ -5558,7 +5661,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>428</v>
       </c>
@@ -5575,7 +5678,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>430</v>
       </c>
@@ -5592,7 +5695,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>432</v>
       </c>
@@ -5609,7 +5712,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>434</v>
       </c>
@@ -5626,7 +5729,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>436</v>
       </c>
@@ -5643,7 +5746,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>438</v>
       </c>
@@ -5660,7 +5763,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>440</v>
       </c>
@@ -5677,7 +5780,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>442</v>
       </c>
@@ -5694,7 +5797,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>444</v>
       </c>
@@ -5711,7 +5814,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>446</v>
       </c>
@@ -5728,7 +5831,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>448</v>
       </c>
@@ -5745,7 +5848,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>450</v>
       </c>
@@ -5762,7 +5865,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>452</v>
       </c>
@@ -5779,7 +5882,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>454</v>
       </c>
@@ -5796,7 +5899,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>456</v>
       </c>
@@ -5813,7 +5916,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>458</v>
       </c>
@@ -5830,7 +5933,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>460</v>
       </c>
@@ -5847,7 +5950,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>462</v>
       </c>
@@ -5864,7 +5967,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>466</v>
       </c>
@@ -5881,7 +5984,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>468</v>
       </c>
@@ -5898,7 +6001,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>470</v>
       </c>
@@ -5915,7 +6018,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>472</v>
       </c>
@@ -5932,33 +6035,33 @@
         <v>465</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.71" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="100.71" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="40.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="103.71" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="89.71" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" customWidth="1"/>
+    <col min="4" max="4" width="103.6640625" customWidth="1"/>
+    <col min="5" max="5" width="89.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>142</v>
       </c>
@@ -5975,14 +6078,13 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>21</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
       </c>
-      <c r="C2"/>
       <c r="D2" t="s">
         <v>22</v>
       </c>
@@ -5990,14 +6092,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>474</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="C3"/>
       <c r="D3" t="s">
         <v>22</v>
       </c>
@@ -6005,14 +6106,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>146</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="C4"/>
       <c r="D4" t="s">
         <v>22</v>
       </c>
@@ -6020,14 +6120,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>475</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="C5"/>
       <c r="D5" t="s">
         <v>22</v>
       </c>
@@ -6035,14 +6134,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>476</v>
       </c>
       <c r="B6" t="s">
         <v>477</v>
       </c>
-      <c r="C6"/>
       <c r="D6" t="s">
         <v>22</v>
       </c>
@@ -6050,7 +6148,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>478</v>
       </c>
@@ -6067,7 +6165,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>481</v>
       </c>
@@ -6084,7 +6182,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>483</v>
       </c>
@@ -6101,7 +6199,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>485</v>
       </c>
@@ -6118,14 +6216,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>487</v>
       </c>
       <c r="B11" t="s">
         <v>488</v>
       </c>
-      <c r="C11"/>
       <c r="D11" t="s">
         <v>22</v>
       </c>
@@ -6133,7 +6230,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>423</v>
       </c>
@@ -6150,7 +6247,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>428</v>
       </c>
@@ -6167,7 +6264,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>430</v>
       </c>
@@ -6184,7 +6281,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>432</v>
       </c>
@@ -6201,7 +6298,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>434</v>
       </c>
@@ -6218,7 +6315,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>436</v>
       </c>
@@ -6235,14 +6332,13 @@
         <v>490</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>491</v>
       </c>
       <c r="B18" t="s">
         <v>492</v>
       </c>
-      <c r="C18"/>
       <c r="D18" t="s">
         <v>22</v>
       </c>
@@ -6250,14 +6346,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>493</v>
       </c>
       <c r="B19" t="s">
         <v>494</v>
       </c>
-      <c r="C19"/>
       <c r="D19" t="s">
         <v>22</v>
       </c>
@@ -6265,14 +6360,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>377</v>
       </c>
       <c r="B20" t="s">
         <v>378</v>
       </c>
-      <c r="C20"/>
       <c r="D20" t="s">
         <v>22</v>
       </c>
@@ -6280,7 +6374,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>495</v>
       </c>
@@ -6297,7 +6391,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>500</v>
       </c>
@@ -6314,7 +6408,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>502</v>
       </c>
@@ -6331,7 +6425,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>504</v>
       </c>
@@ -6348,7 +6442,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>506</v>
       </c>
@@ -6365,7 +6459,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>508</v>
       </c>
@@ -6382,7 +6476,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>510</v>
       </c>
@@ -6399,7 +6493,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>514</v>
       </c>
@@ -6416,7 +6510,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>516</v>
       </c>
@@ -6433,7 +6527,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>518</v>
       </c>
@@ -6450,7 +6544,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>519</v>
       </c>
@@ -6467,7 +6561,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>520</v>
       </c>
@@ -6484,7 +6578,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>522</v>
       </c>
@@ -6501,7 +6595,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>523</v>
       </c>
@@ -6518,14 +6612,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>524</v>
       </c>
       <c r="B35" t="s">
         <v>525</v>
       </c>
-      <c r="C35"/>
       <c r="D35" t="s">
         <v>512</v>
       </c>
@@ -6533,7 +6626,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>526</v>
       </c>
@@ -6550,7 +6643,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>528</v>
       </c>
@@ -6567,7 +6660,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>529</v>
       </c>
@@ -6584,7 +6677,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>530</v>
       </c>
@@ -6601,7 +6694,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>532</v>
       </c>
@@ -6618,7 +6711,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>533</v>
       </c>
@@ -6635,14 +6728,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>534</v>
       </c>
       <c r="B42" t="s">
         <v>535</v>
       </c>
-      <c r="C42"/>
       <c r="D42" t="s">
         <v>512</v>
       </c>
@@ -6650,7 +6742,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>536</v>
       </c>
@@ -6667,7 +6759,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>540</v>
       </c>
@@ -6684,7 +6776,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>542</v>
       </c>
@@ -6701,7 +6793,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>544</v>
       </c>
@@ -6718,7 +6810,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>546</v>
       </c>
@@ -6735,7 +6827,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>548</v>
       </c>
@@ -6752,7 +6844,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>550</v>
       </c>
@@ -6769,7 +6861,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>552</v>
       </c>
@@ -6786,7 +6878,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>554</v>
       </c>
@@ -6803,7 +6895,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>556</v>
       </c>
@@ -6820,7 +6912,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>558</v>
       </c>
@@ -6837,7 +6929,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>560</v>
       </c>
@@ -6854,7 +6946,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>562</v>
       </c>
@@ -6871,7 +6963,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>564</v>
       </c>
@@ -6888,14 +6980,13 @@
         <v>539</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>566</v>
       </c>
       <c r="B57" t="s">
         <v>567</v>
       </c>
-      <c r="C57"/>
       <c r="D57" t="s">
         <v>568</v>
       </c>
@@ -6903,14 +6994,13 @@
         <v>569</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>570</v>
       </c>
       <c r="B58" t="s">
         <v>571</v>
       </c>
-      <c r="C58"/>
       <c r="D58" t="s">
         <v>568</v>
       </c>
@@ -6918,14 +7008,13 @@
         <v>572</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>573</v>
       </c>
       <c r="B59" t="s">
         <v>574</v>
       </c>
-      <c r="C59"/>
       <c r="D59" t="s">
         <v>568</v>
       </c>
@@ -6933,14 +7022,13 @@
         <v>569</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>575</v>
       </c>
       <c r="B60" t="s">
         <v>571</v>
       </c>
-      <c r="C60"/>
       <c r="D60" t="s">
         <v>568</v>
       </c>
@@ -6948,14 +7036,13 @@
         <v>572</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>576</v>
       </c>
       <c r="B61" t="s">
         <v>577</v>
       </c>
-      <c r="C61"/>
       <c r="D61" t="s">
         <v>568</v>
       </c>
@@ -6963,14 +7050,13 @@
         <v>569</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>578</v>
       </c>
       <c r="B62" t="s">
         <v>571</v>
       </c>
-      <c r="C62"/>
       <c r="D62" t="s">
         <v>568</v>
       </c>
@@ -6978,14 +7064,13 @@
         <v>572</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>579</v>
       </c>
       <c r="B63" t="s">
         <v>580</v>
       </c>
-      <c r="C63"/>
       <c r="D63" t="s">
         <v>568</v>
       </c>
@@ -6993,14 +7078,13 @@
         <v>569</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>581</v>
       </c>
       <c r="B64" t="s">
         <v>571</v>
       </c>
-      <c r="C64"/>
       <c r="D64" t="s">
         <v>568</v>
       </c>
@@ -7008,14 +7092,13 @@
         <v>572</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>582</v>
       </c>
       <c r="B65" t="s">
         <v>583</v>
       </c>
-      <c r="C65"/>
       <c r="D65" t="s">
         <v>568</v>
       </c>
@@ -7023,14 +7106,13 @@
         <v>569</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>584</v>
       </c>
       <c r="B66" t="s">
         <v>571</v>
       </c>
-      <c r="C66"/>
       <c r="D66" t="s">
         <v>568</v>
       </c>
@@ -7038,14 +7120,13 @@
         <v>572</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>585</v>
       </c>
       <c r="B67" t="s">
         <v>586</v>
       </c>
-      <c r="C67"/>
       <c r="D67" t="s">
         <v>568</v>
       </c>
@@ -7053,14 +7134,13 @@
         <v>569</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>587</v>
       </c>
       <c r="B68" t="s">
         <v>571</v>
       </c>
-      <c r="C68"/>
       <c r="D68" t="s">
         <v>568</v>
       </c>
@@ -7068,14 +7148,13 @@
         <v>572</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>588</v>
       </c>
       <c r="B69" t="s">
         <v>589</v>
       </c>
-      <c r="C69"/>
       <c r="D69" t="s">
         <v>568</v>
       </c>
@@ -7083,14 +7162,13 @@
         <v>569</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>590</v>
       </c>
       <c r="B70" t="s">
         <v>571</v>
       </c>
-      <c r="C70"/>
       <c r="D70" t="s">
         <v>568</v>
       </c>
@@ -7098,575 +7176,575 @@
         <v>572</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.71" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="5.71" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="93.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>474</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>146</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>606</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.71" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="5.71" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="89.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>474</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>146</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>607</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.71" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="5.71" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="97.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>474</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>146</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>608</v>
+      </c>
+      <c r="B5" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>610</v>
+      </c>
+      <c r="B6" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>603</v>
+      </c>
+      <c r="B7" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>613</v>
+      </c>
+      <c r="B8" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>615</v>
+      </c>
+      <c r="B9" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>617</v>
+      </c>
+      <c r="B10" t="s">
         <v>598</v>
       </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>599</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>596</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>600</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>601</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>602</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>618</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.71" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="5.71" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="103.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>603</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>604</v>
+        <v>619</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>146</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>605</v>
+        <v>622</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>624</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>606</v>
+        <v>626</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>607</v>
+        <v>628</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>608</v>
+        <v>630</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>609</v>
+        <v>632</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>610</v>
+        <v>634</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>611</v>
+        <v>636</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>612</v>
+        <v>638</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>613</v>
+        <v>640</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>551</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>614</v>
+        <v>643</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>615</v>
+        <v>645</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>616</v>
+        <v>647</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>617</v>
+        <v>649</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>650</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.71" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="5.71" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="92.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>474</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>618</v>
+        <v>651</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>146</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>619</v>
+        <v>655</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>620</v>
+        <v>659</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>660</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/codebook.xlsx
+++ b/codebook.xlsx
@@ -1,2081 +1,2074 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/Desktop/Research/1 Active Projects/2024 Platform Study/platform-study-rr/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0D630A-8EC5-0143-BE9B-1A731D4F241F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="20980" windowHeight="13200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Meta-info" sheetId="1" r:id="rId1"/>
-    <sheet name="Intake" sheetId="2" r:id="rId2"/>
-    <sheet name="Panel" sheetId="3" r:id="rId3"/>
-    <sheet name="Diary" sheetId="4" r:id="rId4"/>
-    <sheet name="Nintendo" sheetId="5" r:id="rId5"/>
-    <sheet name="Xbox" sheetId="6" r:id="rId6"/>
-    <sheet name="Steam" sheetId="7" r:id="rId7"/>
-    <sheet name="iOS" sheetId="8" r:id="rId8"/>
-    <sheet name="Android" sheetId="9" r:id="rId9"/>
+    <sheet name="Meta-info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Intake" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Panel" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Diary" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Nintendo" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Xbox" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Steam" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="iOS" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Android" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="676">
-  <si>
-    <t>Tab</t>
-  </si>
-  <si>
-    <t>Data File</t>
-  </si>
-  <si>
-    <t>Content</t>
-  </si>
-  <si>
-    <t>Intake</t>
-  </si>
-  <si>
-    <t>data-synthetic/synIntake.csv</t>
-  </si>
-  <si>
-    <t>Data on participant demographics and gaming habits</t>
-  </si>
-  <si>
-    <t>Panel</t>
-  </si>
-  <si>
-    <t>data-synthetic/synPanel.csv</t>
-  </si>
-  <si>
-    <t>Wellbeing, sleep and time use data from the panel survey</t>
-  </si>
-  <si>
-    <t>Diary</t>
-  </si>
-  <si>
-    <t>data-synthetic/synDiary.csv</t>
-  </si>
-  <si>
-    <t>Daily diary data on gaming, wellbeing, and sleep</t>
-  </si>
-  <si>
-    <t>Nintendo</t>
-  </si>
-  <si>
-    <t>data-synthetic/synNintendo.csv</t>
-  </si>
-  <si>
-    <t>Telemetry data (session-level) from the Nintendo Switch</t>
-  </si>
-  <si>
-    <t>Xbox</t>
-  </si>
-  <si>
-    <t>data-synthetic/synXbox.csv</t>
-  </si>
-  <si>
-    <t>Telemetry data (session-level) from Xbox devices</t>
-  </si>
-  <si>
-    <t>Steam</t>
-  </si>
-  <si>
-    <t>data-synthetic/synSteam.csv</t>
-  </si>
-  <si>
-    <t>Telemetry data (total playtime in 1 hour blocks) from Steam</t>
-  </si>
-  <si>
-    <t>iOS</t>
-  </si>
-  <si>
-    <t>data-synthetic/syniOS.csv</t>
-  </si>
-  <si>
-    <t>Screen time data from iOS devices, pulled from screenshots of the Screen time app</t>
-  </si>
-  <si>
-    <t>Android</t>
-  </si>
-  <si>
-    <t>data-synthetic/synAndroid.csv</t>
-  </si>
-  <si>
-    <t>App usage data from Android devices, pulled from ActivityWatch</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>Stem text</t>
-  </si>
-  <si>
-    <t>pid</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>region</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>What is your age in years?</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>Selected Choice</t>
-  </si>
-  <si>
-    <t>What gender do you identify with?</t>
-  </si>
-  <si>
-    <t>employment</t>
-  </si>
-  <si>
-    <t>What best describes your employment status over the last three months?</t>
-  </si>
-  <si>
-    <t>employment_7_TEXT</t>
-  </si>
-  <si>
-    <t>Other: - Text</t>
-  </si>
-  <si>
-    <t>eduLevel</t>
-  </si>
-  <si>
-    <t>What is the highest level of education you have completed?</t>
-  </si>
-  <si>
-    <t>weight</t>
-  </si>
-  <si>
-    <t>Approximately how much do you weigh in pounds?</t>
-  </si>
-  <si>
-    <t>height#1_1_1</t>
-  </si>
-  <si>
-    <t>Measurement - Your height: - Feet</t>
-  </si>
-  <si>
-    <t>How tall are you?</t>
-  </si>
-  <si>
-    <t>height#1_1_2</t>
-  </si>
-  <si>
-    <t>Measurement - Your height: - Inches</t>
-  </si>
-  <si>
-    <t>neuroIdentify</t>
-  </si>
-  <si>
-    <t>Do you identify as neurodivergent? (e.g., having autism, ADHD, dyslexia, dyspraxia, or another neurological condition)</t>
-  </si>
-  <si>
-    <t>neuroDiagnoses</t>
-  </si>
-  <si>
-    <t>Have you received formal diagnoses of neurodiverse conditions  from a qualified healthcare professional?</t>
-  </si>
-  <si>
-    <t>neuroDiagCondition_1</t>
-  </si>
-  <si>
-    <t>Selected Choice - Autism Spectrum Disorder (ASD)</t>
-  </si>
-  <si>
-    <t>Which of the following neurodiverse conditions have you been diagnosed with? (Select all that apply)</t>
-  </si>
-  <si>
-    <t>neuroDiagCondition_2</t>
-  </si>
-  <si>
-    <t>Selected Choice - Attention Deficit Hyperactivity Disorder (ADHD)</t>
-  </si>
-  <si>
-    <t>neuroDiagCondition_3</t>
-  </si>
-  <si>
-    <t>Selected Choice - Dyslexia</t>
-  </si>
-  <si>
-    <t>neuroDiagCondition_4</t>
-  </si>
-  <si>
-    <t>Selected Choice - Dyspraxia</t>
-  </si>
-  <si>
-    <t>neuroDiagCondition_5</t>
-  </si>
-  <si>
-    <t>Selected Choice - Dyscalculia</t>
-  </si>
-  <si>
-    <t>neuroDiagCondition_6</t>
-  </si>
-  <si>
-    <t>Selected Choice - Tourette Syndrome</t>
-  </si>
-  <si>
-    <t>neuroDiagCondition_7</t>
-  </si>
-  <si>
-    <t>Selected Choice - Obsessive-Compulsive Disorder (OCD)</t>
-  </si>
-  <si>
-    <t>neuroDiagCondition_8</t>
-  </si>
-  <si>
-    <t>Selected Choice - Sensory Processing Disorder (SPD)</t>
-  </si>
-  <si>
-    <t>neuroDiagCondition_9</t>
-  </si>
-  <si>
-    <t>Selected Choice - Nonverbal Learning Disorder (NVLD)</t>
-  </si>
-  <si>
-    <t>neuroDiagCondition_10</t>
-  </si>
-  <si>
-    <t>Selected Choice - Specific Learning Disability (e.g., in reading, writing, math)</t>
-  </si>
-  <si>
-    <t>neuroDiagCondition_11</t>
-  </si>
-  <si>
-    <t>Selected Choice - Other:</t>
-  </si>
-  <si>
-    <t>neuroDiagCondition_12</t>
-  </si>
-  <si>
-    <t>Selected Choice - Prefer not to say</t>
-  </si>
-  <si>
-    <t>neuroDiagCondition_11_TEXT</t>
-  </si>
-  <si>
-    <t>neuroIdenCondition_1</t>
-  </si>
-  <si>
-    <t>Which of the following neurodiverse conditions do you identify with? (Select all that apply)</t>
-  </si>
-  <si>
-    <t>neuroIdenCondition_2</t>
-  </si>
-  <si>
-    <t>neuroIdenCondition_3</t>
-  </si>
-  <si>
-    <t>neuroIdenCondition_4</t>
-  </si>
-  <si>
-    <t>neuroIdenCondition_5</t>
-  </si>
-  <si>
-    <t>neuroIdenCondition_6</t>
-  </si>
-  <si>
-    <t>neuroIdenCondition_7</t>
-  </si>
-  <si>
-    <t>neuroIdenCondition_8</t>
-  </si>
-  <si>
-    <t>neuroIdenCondition_9</t>
-  </si>
-  <si>
-    <t>neuroIdenCondition_10</t>
-  </si>
-  <si>
-    <t>neuroIdenCondition_11</t>
-  </si>
-  <si>
-    <t>neuroIdenCondition_12</t>
-  </si>
-  <si>
-    <t>neuroIdenCondition_11_TEXT</t>
-  </si>
-  <si>
-    <t>maritalStatus</t>
-  </si>
-  <si>
-    <t>What is your current marital status?</t>
-  </si>
-  <si>
-    <t>maritalStatus_9_TEXT</t>
-  </si>
-  <si>
-    <t>care_5</t>
-  </si>
-  <si>
-    <t>Selected Choice - Yes, I care for children</t>
-  </si>
-  <si>
-    <t>Do you have any caregiving responsibilities? (Select all that apply)</t>
-  </si>
-  <si>
-    <t>care_6</t>
-  </si>
-  <si>
-    <t>Selected Choice - Yes, I care for an elderly family member</t>
-  </si>
-  <si>
-    <t>care_7</t>
-  </si>
-  <si>
-    <t>Selected Choice - Yes, I care for a family member with a disability or chronic illness</t>
-  </si>
-  <si>
-    <t>care_8</t>
-  </si>
-  <si>
-    <t>Selected Choice - No, I do not have additional caregiving responsibilities</t>
-  </si>
-  <si>
-    <t>care_9</t>
-  </si>
-  <si>
-    <t>Selected Choice - Other (please specify)</t>
-  </si>
-  <si>
-    <t>care_9_TEXT</t>
-  </si>
-  <si>
-    <t>Other (please specify) - Text</t>
-  </si>
-  <si>
-    <t>dependents</t>
-  </si>
-  <si>
-    <t>How many dependents do you have?
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="676">
+  <si>
+    <t xml:space="preserve">Tab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data File</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data-synthetic/synIntake.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data on participant demographics and gaming habits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data-synthetic/synPanel.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wellbeing, sleep and time use data from the panel survey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data-synthetic/synDiary.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily diary data on gaming, wellbeing, and sleep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nintendo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data-synthetic/synNintendo.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telemetry data (session-level) from the Nintendo Switch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xbox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data-synthetic/synXbox.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telemetry data (session-level) from Xbox devices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data-synthetic/synSteam.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telemetry data (total playtime in 1 hour blocks) from Steam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data-synthetic/syniOS.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Screen time data from iOS devices, pulled from screenshots of the Screen time app</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Android</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data-synthetic/synAndroid.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">App usage data from Android devices, pulled from ActivityWatch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stem text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pid</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is your age in years?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selected Choice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What gender do you identify with?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">employment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What best describes your employment status over the last three months?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">employment_7_TEXT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other: - Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eduLevel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the highest level of education you have completed?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approximately how much do you weigh in pounds?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">height#1_1_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measurement - Your height: - Feet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How tall are you?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">height#1_1_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measurement - Your height: - Inches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neuroIdentify</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you identify as neurodivergent? (e.g., having autism, ADHD, dyslexia, dyspraxia, or another neurological condition)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neuroDiagnoses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Have you received formal diagnoses of neurodiverse conditions  from a qualified healthcare professional?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neuroDiagCondition_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selected Choice - Autism Spectrum Disorder (ASD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which of the following neurodiverse conditions have you been diagnosed with? (Select all that apply)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neuroDiagCondition_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selected Choice - Attention Deficit Hyperactivity Disorder (ADHD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neuroDiagCondition_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selected Choice - Dyslexia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neuroDiagCondition_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selected Choice - Dyspraxia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neuroDiagCondition_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selected Choice - Dyscalculia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neuroDiagCondition_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selected Choice - Tourette Syndrome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neuroDiagCondition_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selected Choice - Obsessive-Compulsive Disorder (OCD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neuroDiagCondition_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selected Choice - Sensory Processing Disorder (SPD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neuroDiagCondition_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selected Choice - Nonverbal Learning Disorder (NVLD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neuroDiagCondition_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selected Choice - Specific Learning Disability (e.g., in reading, writing, math)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neuroDiagCondition_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selected Choice - Other:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neuroDiagCondition_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selected Choice - Prefer not to say</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neuroDiagCondition_11_TEXT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neuroIdenCondition_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which of the following neurodiverse conditions do you identify with? (Select all that apply)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neuroIdenCondition_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neuroIdenCondition_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neuroIdenCondition_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neuroIdenCondition_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neuroIdenCondition_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neuroIdenCondition_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neuroIdenCondition_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neuroIdenCondition_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neuroIdenCondition_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neuroIdenCondition_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neuroIdenCondition_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neuroIdenCondition_11_TEXT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maritalStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is your current marital status?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maritalStatus_9_TEXT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">care_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selected Choice - Yes, I care for children</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you have any caregiving responsibilities? (Select all that apply)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">care_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selected Choice - Yes, I care for an elderly family member</t>
+  </si>
+  <si>
+    <t xml:space="preserve">care_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selected Choice - Yes, I care for a family member with a disability or chronic illness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">care_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selected Choice - No, I do not have additional caregiving responsibilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">care_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selected Choice - Other (please specify)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">care_9_TEXT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other (please specify) - Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dependents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How many dependents do you have?
 Dependents can include children, elderly family members, or others who rely on you for care.</t>
   </si>
   <si>
-    <t>platforms_1</t>
-  </si>
-  <si>
-    <t>Selected Choice - Steam</t>
-  </si>
-  <si>
-    <t>Please select all the platforms where you actively play games</t>
-  </si>
-  <si>
-    <t>platforms_2</t>
-  </si>
-  <si>
-    <t>Selected Choice - Playstation</t>
-  </si>
-  <si>
-    <t>platforms_3</t>
-  </si>
-  <si>
-    <t>Selected Choice - Xbox</t>
-  </si>
-  <si>
-    <t>platforms_4</t>
-  </si>
-  <si>
-    <t>Selected Choice - Nintendo Switch</t>
-  </si>
-  <si>
-    <t>platforms_6</t>
-  </si>
-  <si>
-    <t>Selected Choice - iOS</t>
-  </si>
-  <si>
-    <t>platforms_7</t>
-  </si>
-  <si>
-    <t>Selected Choice - Android</t>
-  </si>
-  <si>
-    <t>platforms_5</t>
-  </si>
-  <si>
-    <t>Selected Choice - Other</t>
-  </si>
-  <si>
-    <t>platforms_5_TEXT</t>
-  </si>
-  <si>
-    <t>Other - Text</t>
-  </si>
-  <si>
-    <t>playProp_1</t>
-  </si>
-  <si>
-    <t>In general during the last 3 months, approximately what percentage of your total gaming has taken place on each platform?</t>
-  </si>
-  <si>
-    <t>playProp_2</t>
-  </si>
-  <si>
-    <t>playProp_3</t>
-  </si>
-  <si>
-    <t>Playstation</t>
-  </si>
-  <si>
-    <t>playProp_4</t>
-  </si>
-  <si>
-    <t>playProp_5</t>
-  </si>
-  <si>
-    <t>playProp_6</t>
-  </si>
-  <si>
-    <t>playProp_7</t>
-  </si>
-  <si>
-    <t>localDatetime</t>
-  </si>
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>ethnicity</t>
-  </si>
-  <si>
-    <t>localTimeZone</t>
-  </si>
-  <si>
-    <t>playsSwitch</t>
-  </si>
-  <si>
-    <t>playsXbox</t>
-  </si>
-  <si>
-    <t>playsSteam</t>
-  </si>
-  <si>
-    <t>dailyNintendoPlayLikelihood</t>
-  </si>
-  <si>
-    <t>dailyXboxPlayLikelihood</t>
-  </si>
-  <si>
-    <t>dailySteamPlayLikelihood</t>
-  </si>
-  <si>
-    <t>iOSuser</t>
-  </si>
-  <si>
-    <t>androidUser</t>
-  </si>
-  <si>
-    <t>Variable</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>Response Options</t>
-  </si>
-  <si>
-    <t>wave</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>missingPanel</t>
-  </si>
-  <si>
-    <t>surveyCompletionTime</t>
-  </si>
-  <si>
-    <t>problematicPlay</t>
-  </si>
-  <si>
-    <t>Do you feel that gaming is sometimes a problem for you? Please describe.</t>
-  </si>
-  <si>
-    <t>free text response</t>
-  </si>
-  <si>
-    <t>positives</t>
-  </si>
-  <si>
-    <t>How, if at all, does gaming contribute positively to your life? Please describe.</t>
-  </si>
-  <si>
-    <t>gdt_1</t>
-  </si>
-  <si>
-    <t>I have had difficulties controlling my gaming activity.</t>
-  </si>
-  <si>
-    <t>Please indicate how often the following issues occurred on average over the past 3 months until today.</t>
-  </si>
-  <si>
-    <t>Gaming Disorder Test (https://doi.org/10.1007/s11469-019-00088-z)</t>
-  </si>
-  <si>
-    <t>gdt_2</t>
-  </si>
-  <si>
-    <t>I have given increasing priority to gaming over other life interests and daily activities.</t>
-  </si>
-  <si>
-    <t>gdt_3</t>
-  </si>
-  <si>
-    <t>I have continued gaming despite the occurrence of negative consequences.</t>
-  </si>
-  <si>
-    <t>gdt_4</t>
-  </si>
-  <si>
-    <t>I have experienced significant problems in life (e.g., personal, family, social,education, occupational) due to the severity of my gaming behavior.</t>
-  </si>
-  <si>
-    <t>mctq_1</t>
-  </si>
-  <si>
-    <t>I have a regular work schedule (this includes roles such as caregiver, homemaker, or other professional commitments):</t>
-  </si>
-  <si>
-    <t>Munich Chronotype Questionnaire (https://doi.org/10.1177/0748730402239679)</t>
-  </si>
-  <si>
-    <t>mctq_2_1</t>
-  </si>
-  <si>
-    <t>I work on</t>
-  </si>
-  <si>
-    <t>mctq_2</t>
-  </si>
-  <si>
-    <t>mctq_3_1</t>
-  </si>
-  <si>
-    <t>Image 1: I go to bed at</t>
-  </si>
-  <si>
-    <t>On Workdays</t>
-  </si>
-  <si>
-    <t>mctq_3_2</t>
-  </si>
-  <si>
-    <t>Image 2: Note that some people stay awake for some time when in bed!</t>
-  </si>
-  <si>
-    <t>mctq_3_3</t>
-  </si>
-  <si>
-    <t>Image 3: I actually get ready to fall asleep at</t>
-  </si>
-  <si>
-    <t>mctq_3_4</t>
-  </si>
-  <si>
-    <t>Image 4: I need</t>
-  </si>
-  <si>
-    <t>mctq_3_5</t>
-  </si>
-  <si>
-    <t>Image 5: I wake up at</t>
-  </si>
-  <si>
-    <t>mctq_3_6</t>
-  </si>
-  <si>
-    <t>Image 6: After</t>
-  </si>
-  <si>
-    <t>mctq_4_1</t>
-  </si>
-  <si>
-    <t>I use an alarm clock on workdays:</t>
-  </si>
-  <si>
-    <t>mctq_4</t>
-  </si>
-  <si>
-    <t>mctq_5_1</t>
-  </si>
-  <si>
-    <t>If “Yes”: I regularly wake up BEFORE the alarm rings:</t>
-  </si>
-  <si>
-    <t>mctq_5</t>
-  </si>
-  <si>
-    <t>mctq_6_1</t>
-  </si>
-  <si>
-    <t>On Free days</t>
-  </si>
-  <si>
-    <t>mctq_6_2</t>
-  </si>
-  <si>
-    <t>mctq_6_3</t>
-  </si>
-  <si>
-    <t>mctq_6_4</t>
-  </si>
-  <si>
-    <t>mctq_6_5</t>
-  </si>
-  <si>
-    <t>mctq_6_6</t>
-  </si>
-  <si>
-    <t>mctq_7_1</t>
-  </si>
-  <si>
-    <t>My wake-up time (Image 5) is due to the use of an alarm clock:</t>
-  </si>
-  <si>
-    <t>mctq_7</t>
-  </si>
-  <si>
-    <t>mctq_7_2</t>
-  </si>
-  <si>
-    <t>There are particular reasons why I cannot freely choose my sleep times on free days:</t>
-  </si>
-  <si>
-    <t>mctq_8_1</t>
-  </si>
-  <si>
-    <t>If “Yes”:</t>
-  </si>
-  <si>
-    <t>mctq_8</t>
-  </si>
-  <si>
-    <t>mctq_9</t>
-  </si>
-  <si>
-    <t>If 'Others', please describe:</t>
-  </si>
-  <si>
-    <t>psqi_1#1_1_1</t>
-  </si>
-  <si>
-    <t>Hours/Minutes</t>
-  </si>
-  <si>
-    <t>Questions About Your Sleep The following questions relate to your usual sleep habits during the P...</t>
-  </si>
-  <si>
-    <t>psqi_1#1_1_2</t>
-  </si>
-  <si>
-    <t>psqi_1#2_1</t>
-  </si>
-  <si>
-    <t>AM/PM</t>
-  </si>
-  <si>
-    <t>psqi_2</t>
-  </si>
-  <si>
-    <t>During the PAST MONTH, how long (in minutes) has it usually taken you to fall asleep each night?
+    <t xml:space="preserve">platforms_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selected Choice - Steam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please select all the platforms where you actively play games</t>
+  </si>
+  <si>
+    <t xml:space="preserve">platforms_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selected Choice - Playstation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">platforms_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selected Choice - Xbox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">platforms_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selected Choice - Nintendo Switch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">platforms_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selected Choice - iOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">platforms_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selected Choice - Android</t>
+  </si>
+  <si>
+    <t xml:space="preserve">platforms_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selected Choice - Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">platforms_5_TEXT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other - Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">playProp_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In general during the last 3 months, approximately what percentage of your total gaming has taken place on each platform?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">playProp_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">playProp_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Playstation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">playProp_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">playProp_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">playProp_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">playProp_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">localDatetime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ethnicity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">localTimeZone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">playsSwitch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">playsXbox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">playsSteam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dailyNintendoPlayLikelihood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dailyXboxPlayLikelihood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dailySteamPlayLikelihood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iOSuser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">androidUser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response Options</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">missingPanel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">surveyCompletionTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">problematicPlay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you feel that gaming is sometimes a problem for you? Please describe.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">free text response</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How, if at all, does gaming contribute positively to your life? Please describe.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gdt_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have had difficulties controlling my gaming activity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please indicate how often the following issues occurred on average over the past 3 months until today.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gaming Disorder Test (https://doi.org/10.1007/s11469-019-00088-z)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gdt_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have given increasing priority to gaming over other life interests and daily activities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gdt_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have continued gaming despite the occurrence of negative consequences.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gdt_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have experienced significant problems in life (e.g., personal, family, social,education, occupational) due to the severity of my gaming behavior.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mctq_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have a regular work schedule (this includes roles such as caregiver, homemaker, or other professional commitments):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Munich Chronotype Questionnaire (https://doi.org/10.1177/0748730402239679)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mctq_2_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I work on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mctq_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mctq_3_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image 1: I go to bed at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On Workdays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mctq_3_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image 2: Note that some people stay awake for some time when in bed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mctq_3_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image 3: I actually get ready to fall asleep at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mctq_3_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image 4: I need</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mctq_3_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image 5: I wake up at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mctq_3_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image 6: After</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mctq_4_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I use an alarm clock on workdays:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mctq_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mctq_5_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If “Yes”: I regularly wake up BEFORE the alarm rings:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mctq_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mctq_6_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On Free days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mctq_6_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mctq_6_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mctq_6_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mctq_6_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mctq_6_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mctq_7_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My wake-up time (Image 5) is due to the use of an alarm clock:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mctq_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mctq_7_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are particular reasons why I cannot freely choose my sleep times on free days:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mctq_8_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If “Yes”:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mctq_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mctq_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If 'Others', please describe:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psqi_1#1_1_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hours/Minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Questions About Your Sleep The following questions relate to your usual sleep habits during the P...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psqi_1#1_1_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psqi_1#2_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM/PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psqi_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">During the PAST MONTH, how long (in minutes) has it usually taken you to fall asleep each night?
 Number of minutes:</t>
   </si>
   <si>
-    <t>psqi_3#1_1_1</t>
-  </si>
-  <si>
-    <t>  During the PAST MONTH, what time have you usually gotten up in the morning?   Getting up time:</t>
-  </si>
-  <si>
-    <t>psqi_3#1_1_2</t>
-  </si>
-  <si>
-    <t>psqi_3#2_1</t>
-  </si>
-  <si>
-    <t>psqi_4#1_1_1</t>
-  </si>
-  <si>
-    <t>During the PAST MONTH, how many hours of actual sleep did you usually get at night? (This may be...</t>
-  </si>
-  <si>
-    <t>psqi_4#1_1_2</t>
-  </si>
-  <si>
-    <t>psqi_5_1</t>
-  </si>
-  <si>
-    <t>Cannot get to sleep within 30 minutes</t>
-  </si>
-  <si>
-    <t>For each of the remaining questions, check the one best response. Please answer all questions.During the past month, how often have you had trouble sleeping because you . . .</t>
-  </si>
-  <si>
-    <t>psqi_5_2</t>
-  </si>
-  <si>
-    <t>Wake up in the middle of the night or early morning</t>
-  </si>
-  <si>
-    <t>psqi_5_3</t>
-  </si>
-  <si>
-    <t>Have to get up to use the bathroom</t>
-  </si>
-  <si>
-    <t>psqi_5_4</t>
-  </si>
-  <si>
-    <t>Cannot breathe comfortably</t>
-  </si>
-  <si>
-    <t>psqi_5_5</t>
-  </si>
-  <si>
-    <t>Cough or snore loudly</t>
-  </si>
-  <si>
-    <t>psqi_5_6</t>
-  </si>
-  <si>
-    <t>Feel too cold</t>
-  </si>
-  <si>
-    <t>psqi_5_7</t>
-  </si>
-  <si>
-    <t>Feel too hot</t>
-  </si>
-  <si>
-    <t>psqi_5_8</t>
-  </si>
-  <si>
-    <t>Had bad dreams</t>
-  </si>
-  <si>
-    <t>psqi_5_9</t>
-  </si>
-  <si>
-    <t>Have pain</t>
-  </si>
-  <si>
-    <t>psqi_5_c</t>
-  </si>
-  <si>
-    <t>Other reason(s), please describe</t>
-  </si>
-  <si>
-    <t>psqi_5_cr_1</t>
-  </si>
-  <si>
-    <t>[QID96-ChoiceTextEntryValue]</t>
-  </si>
-  <si>
-    <t>How often during the past month have you had trouble sleeping because of this?</t>
-  </si>
-  <si>
-    <t>psqi_6</t>
-  </si>
-  <si>
-    <t>During the past month, how would you rate your sleep quality overall?</t>
-  </si>
-  <si>
-    <t>psqi_7</t>
-  </si>
-  <si>
-    <t>During the past month, how often have you taken medicine to help you sleep (prescribed or
+    <t xml:space="preserve">psqi_3#1_1_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  During the PAST MONTH, what time have you usually gotten up in the morning?   Getting up time:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psqi_3#1_1_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psqi_3#2_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psqi_4#1_1_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">During the PAST MONTH, how many hours of actual sleep did you usually get at night? (This may be...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psqi_4#1_1_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psqi_5_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cannot get to sleep within 30 minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For each of the remaining questions, check the one best response. Please answer all questions.During the past month, how often have you had trouble sleeping because you . . .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psqi_5_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wake up in the middle of the night or early morning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psqi_5_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Have to get up to use the bathroom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psqi_5_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cannot breathe comfortably</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psqi_5_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cough or snore loudly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psqi_5_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feel too cold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psqi_5_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feel too hot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psqi_5_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Had bad dreams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psqi_5_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Have pain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psqi_5_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other reason(s), please describe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psqi_5_cr_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[QID96-ChoiceTextEntryValue]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How often during the past month have you had trouble sleeping because of this?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psqi_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">During the past month, how would you rate your sleep quality overall?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psqi_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">During the past month, how often have you taken medicine to help you sleep (prescribed or
 "over the counter")?</t>
   </si>
   <si>
-    <t>psqi_8</t>
-  </si>
-  <si>
-    <t>During the past month, how often have you had trouble staying awake while driving, eating
+    <t xml:space="preserve">psqi_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">During the past month, how often have you had trouble staying awake while driving, eating
 meals, or engaging in social activity?</t>
   </si>
   <si>
-    <t>psqi_9</t>
-  </si>
-  <si>
-    <t>During the past month, how much of a problem has it been for you to keep up enough
+    <t xml:space="preserve">psqi_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">During the past month, how much of a problem has it been for you to keep up enough
 enthusiasm to get things done?</t>
   </si>
   <si>
-    <t>psqi_10</t>
-  </si>
-  <si>
-    <t>Do you have a bed partner or room mate?</t>
-  </si>
-  <si>
-    <t>psqi_10_c_1</t>
-  </si>
-  <si>
-    <t>Loud snoring</t>
-  </si>
-  <si>
-    <t>If you have a room mate or bed partner, ask him/her/them how often in the past month youhave had . . .</t>
-  </si>
-  <si>
-    <t>psqi_10_c_2</t>
-  </si>
-  <si>
-    <t>Long pauses between breaths while asleep</t>
-  </si>
-  <si>
-    <t>psqi_10_c_3</t>
-  </si>
-  <si>
-    <t>Legs twitching or jerking while you sleep</t>
-  </si>
-  <si>
-    <t>psqi_10_c_4</t>
-  </si>
-  <si>
-    <t>Episodes of disorientation or confusion during sleep</t>
-  </si>
-  <si>
-    <t>psqi_10_c_5</t>
-  </si>
-  <si>
-    <t>Other restlessness while you sleep; please describe</t>
-  </si>
-  <si>
-    <t>psqi_10_c_5_TEXT</t>
-  </si>
-  <si>
-    <t>eps_1_1</t>
-  </si>
-  <si>
-    <t>Sitting and reading</t>
-  </si>
-  <si>
-    <t>How likely are you to doze off or fall asleep in the following situations, in comparison to feeling just tired? This refers to your usual way of life in recent times.Even if you haven't done some of these things recently, try to work out how they would have affected you. It's important that you answer each question as best you can.</t>
-  </si>
-  <si>
-    <t>Epwoth Sleepiness Scale (https://doi.org/10.1093/sleep/14.6.540)</t>
-  </si>
-  <si>
-    <t>No chance of dozing; Slight chance of dozing; Moderate chance of dozing; High chance of dozing</t>
-  </si>
-  <si>
-    <t>eps_1_2</t>
-  </si>
-  <si>
-    <t>Watching TV</t>
-  </si>
-  <si>
-    <t>eps_1_3</t>
-  </si>
-  <si>
-    <t>Sitting inactive in a public place (e.g., a theater or a meeting)</t>
-  </si>
-  <si>
-    <t>eps_1_4</t>
-  </si>
-  <si>
-    <t>As a passenger in a car for an hour without a break</t>
-  </si>
-  <si>
-    <t>eps_1_5</t>
-  </si>
-  <si>
-    <t>Lying down to rest in the afternoon when circumstances permit</t>
-  </si>
-  <si>
-    <t>eps_1_6</t>
-  </si>
-  <si>
-    <t>Sitting and talking to someone</t>
-  </si>
-  <si>
-    <t>eps_1_7</t>
-  </si>
-  <si>
-    <t>Sitting quietly after a lunch without alcohol</t>
-  </si>
-  <si>
-    <t>eps_1_8</t>
-  </si>
-  <si>
-    <t>In a car, while stopped for a few minutes in traffic</t>
-  </si>
-  <si>
-    <t>BFI-2-XS_1</t>
-  </si>
-  <si>
-    <t>Tends to be quiet.</t>
-  </si>
-  <si>
-    <t>Your Personality Here are a number of characteristics that may or may not apply to you. For example, do you agree that you are someone who likes to spend time with others? Please select a response to indicate the extent to which you agree or disagree with each statement. I am someone who...</t>
-  </si>
-  <si>
-    <t>Extra-short Big Five Inventory–2 (https://doi.org/10.1016/j.jrp.2017.02.004)</t>
-  </si>
-  <si>
-    <t>Disagree strongly; Disagree a little; Neutral, no opinion; Agree a little; Agree strongly</t>
-  </si>
-  <si>
-    <t>BFI-2-XS_2</t>
-  </si>
-  <si>
-    <t>Is compassionate, has a soft heart.</t>
-  </si>
-  <si>
-    <t>BFI-2-XS_3</t>
-  </si>
-  <si>
-    <t>Tends to be disorganized.</t>
-  </si>
-  <si>
-    <t>BFI-2-XS_4</t>
-  </si>
-  <si>
-    <t>Worries a lot.</t>
-  </si>
-  <si>
-    <t>BFI-2-XS_5</t>
-  </si>
-  <si>
-    <t>Is fascinated by art, music, or literature.</t>
-  </si>
-  <si>
-    <t>BFI-2-XS_6</t>
-  </si>
-  <si>
-    <t>Is dominant, acts as a leader.</t>
-  </si>
-  <si>
-    <t>BFI-2-XS_7</t>
-  </si>
-  <si>
-    <t>Is sometimes rude to others.</t>
-  </si>
-  <si>
-    <t>BFI-2-XS_8</t>
-  </si>
-  <si>
-    <t>Has difficulty getting started on tasks.</t>
-  </si>
-  <si>
-    <t>BFI-2-XS_9</t>
-  </si>
-  <si>
-    <t>Tends to feel depressed, blue.</t>
-  </si>
-  <si>
-    <t>BFI-2-XS_10</t>
-  </si>
-  <si>
-    <t>Has little interest in abstract ideas.</t>
-  </si>
-  <si>
-    <t>BFI-2-XS_11</t>
-  </si>
-  <si>
-    <t>Is full of energy.</t>
-  </si>
-  <si>
-    <t>BFI-2-XS_12</t>
-  </si>
-  <si>
-    <t>Assumes the best about people.</t>
-  </si>
-  <si>
-    <t>BFI-2-XS_13</t>
-  </si>
-  <si>
-    <t>Is reliable, can always be counted on.</t>
-  </si>
-  <si>
-    <t>BFI-2-XS_14</t>
-  </si>
-  <si>
-    <t>Is emotionally stable, not easily upset.</t>
-  </si>
-  <si>
-    <t>BFI-2-XS_15</t>
-  </si>
-  <si>
-    <t>Is original, comes up with new ideas.</t>
-  </si>
-  <si>
-    <t>trojan_1</t>
-  </si>
-  <si>
-    <t>I like to chat with my friends while playing a video game.</t>
-  </si>
-  <si>
-    <t>The following items ask you about what kinds of experiences you like to have in games.</t>
-  </si>
-  <si>
-    <t>Trojan Player Typology (https://doi.org/10.1016/j.chb.2015.03.018)</t>
-  </si>
-  <si>
-    <t>1 - Strongly disagree; 2; 3; 4; 5 - Strongly agree</t>
-  </si>
-  <si>
-    <t>trojan_2</t>
-  </si>
-  <si>
-    <t>I like to use voice communication when I play.</t>
-  </si>
-  <si>
-    <t>trojan_3</t>
-  </si>
-  <si>
-    <t>It's important to me to play with a tightly knit group.</t>
-  </si>
-  <si>
-    <t>trojan_4</t>
-  </si>
-  <si>
-    <t>I like to master all elements of a game.</t>
-  </si>
-  <si>
-    <t>trojan_5</t>
-  </si>
-  <si>
-    <t>I like to figure out how the game works inside and out.</t>
-  </si>
-  <si>
-    <t>trojan_6</t>
-  </si>
-  <si>
-    <t>I like to try everything that is possible to do in a game.</t>
-  </si>
-  <si>
-    <t>trojan_7</t>
-  </si>
-  <si>
-    <t>Winning is a big reason for me to play video games.</t>
-  </si>
-  <si>
-    <t>trojan_8</t>
-  </si>
-  <si>
-    <t>I play to win.</t>
-  </si>
-  <si>
-    <t>trojan_9</t>
-  </si>
-  <si>
-    <t>It's important to me to be the fastest and most skilled person playing the game.</t>
-  </si>
-  <si>
-    <t>trojan_10</t>
-  </si>
-  <si>
-    <t>I like to do things in games which I cannot do in real life.</t>
-  </si>
-  <si>
-    <t>trojan_11</t>
-  </si>
-  <si>
-    <t>Video games allow me to pretend I am someone/somewhere else.</t>
-  </si>
-  <si>
-    <t>trojan_12</t>
-  </si>
-  <si>
-    <t>I like the feeling of being part of a story.</t>
-  </si>
-  <si>
-    <t>trojan_13</t>
-  </si>
-  <si>
-    <t>I like stories in a game.</t>
-  </si>
-  <si>
-    <t>trojan_14</t>
-  </si>
-  <si>
-    <t>Games make me smarter.</t>
-  </si>
-  <si>
-    <t>trojan_15</t>
-  </si>
-  <si>
-    <t>I play games to enhance my intellectual abilities.</t>
-  </si>
-  <si>
-    <t>selfreportPlay #1_1_1</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>In each of the previous periods, how much total time did you spend playing games? Please only inc...</t>
-  </si>
-  <si>
-    <t>selfreportPlay #1_1_2</t>
-  </si>
-  <si>
-    <t>selfreportPlay #1_2_1</t>
-  </si>
-  <si>
-    <t>selfreportPlay #1_2_2</t>
-  </si>
-  <si>
-    <t>selfreportPlay #1_3_1</t>
-  </si>
-  <si>
-    <t>selfreportPlay #1_3_2</t>
-  </si>
-  <si>
-    <t>recentSessions_1_1</t>
-  </si>
-  <si>
-    <t>Session 1</t>
-  </si>
-  <si>
-    <t>To the best of your recollection, please list at least 1 and up to 3 of your most recent gaming sessions.</t>
-  </si>
-  <si>
-    <t>recentSessions_1_2</t>
-  </si>
-  <si>
-    <t>recentSessions_1_3</t>
-  </si>
-  <si>
-    <t>recentSessions_1_4</t>
-  </si>
-  <si>
-    <t>recentSessions_2_1</t>
-  </si>
-  <si>
-    <t>Session 2</t>
-  </si>
-  <si>
-    <t>recentSessions_2_2</t>
-  </si>
-  <si>
-    <t>recentSessions_2_3</t>
-  </si>
-  <si>
-    <t>recentSessions_2_4</t>
-  </si>
-  <si>
-    <t>recentSessions_3_1</t>
-  </si>
-  <si>
-    <t>Session 3</t>
-  </si>
-  <si>
-    <t>recentSessions_3_2</t>
-  </si>
-  <si>
-    <t>recentSessions_3_3</t>
-  </si>
-  <si>
-    <t>recentSessions_3_4</t>
-  </si>
-  <si>
-    <t>csas</t>
-  </si>
-  <si>
-    <t>Please imagine a ladder with steps numbered from 0 at the bottom to 10 at the top. The top of the ladder represents the best possible life for you, and the bottom of the ladder represents the worst possible life for you. On which step of the ladder would you say you personally feel you stood over the past two weeks?</t>
-  </si>
-  <si>
-    <t>affectiveValence_1</t>
-  </si>
-  <si>
-    <t>How are you feeling right now?</t>
-  </si>
-  <si>
-    <t>wemwbs_1</t>
-  </si>
-  <si>
-    <t>I’ve been feeling optimistic about the future</t>
-  </si>
-  <si>
-    <t>Below are some statements about feelings and thoughts.Please select the answer that best describes your experience of each over the last 2 weeks.</t>
-  </si>
-  <si>
-    <t>Warwick-Edinburgh Mental Wellbeing Scale (https://doi.org/10.1186/1477-7525-5-63)</t>
-  </si>
-  <si>
-    <t>1 - None of the time; 2 - Rarely; 3 - Some of the time; 4 - Often; 5 - All of the time</t>
-  </si>
-  <si>
-    <t>wemwbs_2</t>
-  </si>
-  <si>
-    <t>I’ve been feeling relaxed</t>
-  </si>
-  <si>
-    <t>wemwbs_3</t>
-  </si>
-  <si>
-    <t>I’ve been thinking clearly</t>
-  </si>
-  <si>
-    <t>wemwbs_4</t>
-  </si>
-  <si>
-    <t>I’ve been feeling close to other people</t>
-  </si>
-  <si>
-    <t>wemwbs_5</t>
-  </si>
-  <si>
-    <t>I’ve been able to make up my own mind about things</t>
-  </si>
-  <si>
-    <t>wemwbs_6</t>
-  </si>
-  <si>
-    <t>I’ve been feeling useful</t>
-  </si>
-  <si>
-    <t>wemwbs_7</t>
-  </si>
-  <si>
-    <t>I’ve been dealing with problems well</t>
-  </si>
-  <si>
-    <t>wemwbs_attCheck_1</t>
-  </si>
-  <si>
-    <t>wemwbs_attCheck</t>
-  </si>
-  <si>
-    <t>wemwbs_attCheck_2</t>
-  </si>
-  <si>
-    <t>wemwbs_attCheck_3</t>
-  </si>
-  <si>
-    <t>wemwbs_attCheck_4</t>
-  </si>
-  <si>
-    <t>wemwbs_attCheck_5</t>
-  </si>
-  <si>
-    <t>wemwbs_attCheck_6</t>
-  </si>
-  <si>
-    <t>wemwbs_attCheck_7</t>
-  </si>
-  <si>
-    <t>promis_1</t>
-  </si>
-  <si>
-    <t>I felt worthless.</t>
-  </si>
-  <si>
-    <t>In the past 7 days...</t>
-  </si>
-  <si>
-    <t>PROMIS Short Form 8a Adult Depression Scale (https://doi.org/10.1177/1073191111411667)</t>
-  </si>
-  <si>
-    <t>Never; Rarely; Sometimes; Often; Never</t>
-  </si>
-  <si>
-    <t>promis_2</t>
-  </si>
-  <si>
-    <t>I felt that I had nothing to look forward to.</t>
-  </si>
-  <si>
-    <t>promis_3</t>
-  </si>
-  <si>
-    <t>I felt helpless.</t>
-  </si>
-  <si>
-    <t>promis_4</t>
-  </si>
-  <si>
-    <t>I felt sad.</t>
-  </si>
-  <si>
-    <t>promis_5</t>
-  </si>
-  <si>
-    <t>I felt like a failure.</t>
-  </si>
-  <si>
-    <t>promis_6</t>
-  </si>
-  <si>
-    <t>I felt depressed.</t>
-  </si>
-  <si>
-    <t>promis_7</t>
-  </si>
-  <si>
-    <t>I felt unhappy.</t>
-  </si>
-  <si>
-    <t>promis_8</t>
-  </si>
-  <si>
-    <t>I felt hopeless.</t>
-  </si>
-  <si>
-    <t>bangs_1</t>
-  </si>
-  <si>
-    <t>I could play in the way I wanted.</t>
-  </si>
-  <si>
-    <t>Below, we ask you about experiences of gaming during the last 2 weeks, across all the video games you played. If you did not play any video games in the last 2 weeks, please select "4" for all statements.When playing video games during the last 2 weeks...</t>
-  </si>
-  <si>
-    <t>Basic Needs in Games Scale (https://doi.org/10.31234/osf.io/4965z7)</t>
-  </si>
-  <si>
-    <t>1 Strongly Disagree; 2; 3; 4 Neither Agree nor Disagree; 5; 6; 7 Strongly Agree</t>
-  </si>
-  <si>
-    <t>bangs_2</t>
-  </si>
-  <si>
-    <t>I could make choices regarding how to play.</t>
-  </si>
-  <si>
-    <t>bangs_3</t>
-  </si>
-  <si>
-    <t>I could direct my own play experiences.</t>
-  </si>
-  <si>
-    <t>bangs_4</t>
-  </si>
-  <si>
-    <t>I too often felt forced to take certain actions.</t>
-  </si>
-  <si>
-    <t>bangs_5</t>
-  </si>
-  <si>
-    <t>Many actions were boring.</t>
-  </si>
-  <si>
-    <t>bangs_6</t>
-  </si>
-  <si>
-    <t>I often found myself wishing I could do something else.</t>
-  </si>
-  <si>
-    <t>bangs_7</t>
-  </si>
-  <si>
-    <t>I felt I was getting better at playing.</t>
-  </si>
-  <si>
-    <t>bangs_8</t>
-  </si>
-  <si>
-    <t>I felt that I made progress while playing.</t>
-  </si>
-  <si>
-    <t>bangs_9</t>
-  </si>
-  <si>
-    <t>I felt a sense of achievement while playing.</t>
-  </si>
-  <si>
-    <t>bangs_10</t>
-  </si>
-  <si>
-    <t>I often felt that I lacked the skills necessary.</t>
-  </si>
-  <si>
-    <t>bangs_11</t>
-  </si>
-  <si>
-    <t>I kept failing to accomplish what I wanted to while playing.</t>
-  </si>
-  <si>
-    <t>bangs_12</t>
-  </si>
-  <si>
-    <t>I felt disappointed with my performance.</t>
-  </si>
-  <si>
-    <t>bangs_13</t>
-  </si>
-  <si>
-    <t>I felt I formed relationships with other players and/or characters.</t>
-  </si>
-  <si>
-    <t>bangs_14</t>
-  </si>
-  <si>
-    <t>I felt a connection to others, virtual or real.</t>
-  </si>
-  <si>
-    <t>bangs_15</t>
-  </si>
-  <si>
-    <t>I felt that other players and/or characters in games cared about me.</t>
-  </si>
-  <si>
-    <t>bangs_16</t>
-  </si>
-  <si>
-    <t>Interactions with other players and/or characters felt toxic to me.</t>
-  </si>
-  <si>
-    <t>bangs_17</t>
-  </si>
-  <si>
-    <t>The communities or virtual worlds made me feel unwelcome.</t>
-  </si>
-  <si>
-    <t>bangs_18</t>
-  </si>
-  <si>
-    <t>Others were unfriendly towards me.</t>
-  </si>
-  <si>
-    <t>displacement_1</t>
-  </si>
-  <si>
-    <t>Work/school performance</t>
-  </si>
-  <si>
-    <t>Over the last two weeks, to what extent has the time you spend playing video games influenced the following areas of your life?</t>
-  </si>
-  <si>
-    <t>Greatly interfered; Moderately interfered; Slightly interfered; No impact; Slightly supported;
+    <t xml:space="preserve">psqi_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you have a bed partner or room mate?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psqi_10_c_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loud snoring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you have a room mate or bed partner, ask him/her/them how often in the past month youhave had . . .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psqi_10_c_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Long pauses between breaths while asleep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psqi_10_c_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legs twitching or jerking while you sleep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psqi_10_c_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Episodes of disorientation or confusion during sleep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psqi_10_c_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other restlessness while you sleep; please describe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psqi_10_c_5_TEXT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eps_1_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sitting and reading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How likely are you to doze off or fall asleep in the following situations, in comparison to feeling just tired? This refers to your usual way of life in recent times.Even if you haven't done some of these things recently, try to work out how they would have affected you. It's important that you answer each question as best you can.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epwoth Sleepiness Scale (https://doi.org/10.1093/sleep/14.6.540)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No chance of dozing; Slight chance of dozing; Moderate chance of dozing; High chance of dozing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eps_1_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Watching TV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eps_1_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sitting inactive in a public place (e.g., a theater or a meeting)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eps_1_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a passenger in a car for an hour without a break</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eps_1_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lying down to rest in the afternoon when circumstances permit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eps_1_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sitting and talking to someone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eps_1_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sitting quietly after a lunch without alcohol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eps_1_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In a car, while stopped for a few minutes in traffic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BFI-2-XS_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tends to be quiet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your Personality Here are a number of characteristics that may or may not apply to you. For example, do you agree that you are someone who likes to spend time with others? Please select a response to indicate the extent to which you agree or disagree with each statement. I am someone who...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extra-short Big Five Inventory–2 (https://doi.org/10.1016/j.jrp.2017.02.004)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disagree strongly; Disagree a little; Neutral, no opinion; Agree a little; Agree strongly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BFI-2-XS_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is compassionate, has a soft heart.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BFI-2-XS_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tends to be disorganized.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BFI-2-XS_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worries a lot.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BFI-2-XS_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is fascinated by art, music, or literature.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BFI-2-XS_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is dominant, acts as a leader.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BFI-2-XS_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is sometimes rude to others.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BFI-2-XS_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has difficulty getting started on tasks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BFI-2-XS_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tends to feel depressed, blue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BFI-2-XS_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has little interest in abstract ideas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BFI-2-XS_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is full of energy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BFI-2-XS_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assumes the best about people.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BFI-2-XS_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is reliable, can always be counted on.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BFI-2-XS_14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is emotionally stable, not easily upset.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BFI-2-XS_15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is original, comes up with new ideas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trojan_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I like to chat with my friends while playing a video game.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The following items ask you about what kinds of experiences you like to have in games.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trojan Player Typology (https://doi.org/10.1016/j.chb.2015.03.018)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - Strongly disagree; 2; 3; 4; 5 - Strongly agree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trojan_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I like to use voice communication when I play.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trojan_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's important to me to play with a tightly knit group.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trojan_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I like to master all elements of a game.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trojan_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I like to figure out how the game works inside and out.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trojan_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I like to try everything that is possible to do in a game.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trojan_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winning is a big reason for me to play video games.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trojan_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I play to win.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trojan_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's important to me to be the fastest and most skilled person playing the game.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trojan_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I like to do things in games which I cannot do in real life.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trojan_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Video games allow me to pretend I am someone/somewhere else.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trojan_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I like the feeling of being part of a story.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trojan_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I like stories in a game.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trojan_14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Games make me smarter.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trojan_15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I play games to enhance my intellectual abilities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selfreportPlay #1_1_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In each of the previous periods, how much total time did you spend playing games? Please only inc...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selfreportPlay #1_1_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selfreportPlay #1_2_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selfreportPlay #1_2_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selfreportPlay #1_3_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selfreportPlay #1_3_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recentSessions_1_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Session 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To the best of your recollection, please list at least 1 and up to 3 of your most recent gaming sessions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recentSessions_1_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recentSessions_1_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recentSessions_1_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recentSessions_2_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Session 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recentSessions_2_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recentSessions_2_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recentSessions_2_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recentSessions_3_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Session 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recentSessions_3_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recentSessions_3_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recentSessions_3_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">csas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please imagine a ladder with steps numbered from 0 at the bottom to 10 at the top. The top of the ladder represents the best possible life for you, and the bottom of the ladder represents the worst possible life for you. On which step of the ladder would you say you personally feel you stood over the past two weeks?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">affectiveValence_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How are you feeling right now?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wemwbs_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I’ve been feeling optimistic about the future</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Below are some statements about feelings and thoughts.Please select the answer that best describes your experience of each over the last 2 weeks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warwick-Edinburgh Mental Wellbeing Scale (https://doi.org/10.1186/1477-7525-5-63)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - None of the time; 2 - Rarely; 3 - Some of the time; 4 - Often; 5 - All of the time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wemwbs_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I’ve been feeling relaxed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wemwbs_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I’ve been thinking clearly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wemwbs_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I’ve been feeling close to other people</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wemwbs_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I’ve been able to make up my own mind about things</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wemwbs_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I’ve been feeling useful</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wemwbs_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I’ve been dealing with problems well</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wemwbs_attCheck_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wemwbs_attCheck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wemwbs_attCheck_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wemwbs_attCheck_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wemwbs_attCheck_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wemwbs_attCheck_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wemwbs_attCheck_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wemwbs_attCheck_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promis_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I felt worthless.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the past 7 days...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROMIS Short Form 8a Adult Depression Scale (https://doi.org/10.1177/1073191111411667)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Never; Rarely; Sometimes; Often; Never</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promis_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I felt that I had nothing to look forward to.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promis_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I felt helpless.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promis_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I felt sad.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promis_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I felt like a failure.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promis_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I felt depressed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promis_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I felt unhappy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promis_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I felt hopeless.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bangs_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I could play in the way I wanted.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Below, we ask you about experiences of gaming during the last 2 weeks, across all the video games you played. If you did not play any video games in the last 2 weeks, please select "4" for all statements.When playing video games during the last 2 weeks...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basic Needs in Games Scale (https://doi.org/10.31234/osf.io/4965z7)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Strongly Disagree; 2; 3; 4 Neither Agree nor Disagree; 5; 6; 7 Strongly Agree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bangs_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I could make choices regarding how to play.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bangs_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I could direct my own play experiences.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bangs_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I too often felt forced to take certain actions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bangs_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Many actions were boring.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bangs_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I often found myself wishing I could do something else.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bangs_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I felt I was getting better at playing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bangs_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I felt that I made progress while playing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bangs_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I felt a sense of achievement while playing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bangs_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I often felt that I lacked the skills necessary.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bangs_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I kept failing to accomplish what I wanted to while playing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bangs_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I felt disappointed with my performance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bangs_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I felt I formed relationships with other players and/or characters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bangs_14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I felt a connection to others, virtual or real.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bangs_15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I felt that other players and/or characters in games cared about me.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bangs_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interactions with other players and/or characters felt toxic to me.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bangs_17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The communities or virtual worlds made me feel unwelcome.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bangs_18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Others were unfriendly towards me.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">displacement_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work/school performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Over the last two weeks, to what extent has the time you spend playing video games influenced the following areas of your life?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greatly interfered; Moderately interfered; Slightly interfered; No impact; Slightly supported;
 Moderately supported; Greatly supported</t>
   </si>
   <si>
-    <t>displacement_2</t>
-  </si>
-  <si>
-    <t>Social participation (e.g., community involvement, personal relationships)</t>
-  </si>
-  <si>
-    <t>displacement_3</t>
-  </si>
-  <si>
-    <t>Cognitive health (e.g., attention, memory)</t>
-  </si>
-  <si>
-    <t>displacement_4</t>
-  </si>
-  <si>
-    <t>Emotion regulation (e.g., mood swings, impulse control)</t>
-  </si>
-  <si>
-    <t>displacement_5</t>
-  </si>
-  <si>
-    <t>Daily routines (e.g., sleep, eating habits)</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>missingDiary</t>
-  </si>
-  <si>
-    <t>played24hr</t>
-  </si>
-  <si>
-    <t>In the last 24 hours, have you spent any time playing video games?</t>
-  </si>
-  <si>
-    <t>socialGaming_4</t>
-  </si>
-  <si>
-    <t>Single-player games only</t>
-  </si>
-  <si>
-    <t>While gaming in the last 24 hours, what kind of social interaction did you take part in? Select all that apply.</t>
-  </si>
-  <si>
-    <t>socialGaming_5</t>
-  </si>
-  <si>
-    <t>Multiplayer with real-world friends</t>
-  </si>
-  <si>
-    <t>socialGaming_6</t>
-  </si>
-  <si>
-    <t>Multiplayer with online-only friends</t>
-  </si>
-  <si>
-    <t>socialGaming_7</t>
-  </si>
-  <si>
-    <t>Multiplayer with strangers</t>
-  </si>
-  <si>
-    <t>mostRecentGame</t>
-  </si>
-  <si>
-    <t>What is the name of the game you most recently played?
+    <t xml:space="preserve">displacement_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social participation (e.g., community involvement, personal relationships)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">displacement_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cognitive health (e.g., attention, memory)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">displacement_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emotion regulation (e.g., mood swings, impulse control)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">displacement_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily routines (e.g., sleep, eating habits)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">missingDiary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">played24hr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the last 24 hours, have you spent any time playing video games?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">socialGaming_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single-player games only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">While gaming in the last 24 hours, what kind of social interaction did you take part in? Select all that apply.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">socialGaming_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiplayer with real-world friends</t>
+  </si>
+  <si>
+    <t xml:space="preserve">socialGaming_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiplayer with online-only friends</t>
+  </si>
+  <si>
+    <t xml:space="preserve">socialGaming_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiplayer with strangers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mostRecentGame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the name of the game you most recently played?
 This text will be copied into certain other questions, so please write only the game name and use abbreviations if needed.</t>
   </si>
   <si>
-    <t>In my most recent session of [QID6-ChoiceTextEntryValue]...</t>
-  </si>
-  <si>
-    <t>1 
+    <t xml:space="preserve">In my most recent session of [QID6-ChoiceTextEntryValue]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 
 Strongly Disagree; 2; 3; 4Neither Agree nor Disagree; 5; 6; 7 Strongly agree</t>
   </si>
   <si>
-    <t>displacedActivity</t>
-  </si>
-  <si>
-    <t>Think back to your most recent gaming session. If you hadn't played a game, what would you most likely have done instead?</t>
-  </si>
-  <si>
-    <t>lifeSat_1</t>
-  </si>
-  <si>
-    <t>I was satisfied with my life today.</t>
-  </si>
-  <si>
-    <t>Cantril Self-anchoring Scale (Cantril, 1965)</t>
-  </si>
-  <si>
-    <t>1-100 sliding scale</t>
-  </si>
-  <si>
-    <t>bpnsfs_1</t>
-  </si>
-  <si>
-    <t>... I was able to do things that I really want and value in life.</t>
-  </si>
-  <si>
-    <t>The next statements tap into your experiences today. Please indicate for each of the statements to what extent they are true for you.Today...</t>
-  </si>
-  <si>
-    <t>Basic Psychological Need Satisfaction and Frustration Scale (https://doi.org/10.1007/s11031-014-9450-1), brief version (https://doi.org/1015-5759/a000846)</t>
-  </si>
-  <si>
-    <t>1 - very strongly disagree; 2 - strongly disagree; 3 - disagree; 4 - neither disagree nor agree; 5 - agree</t>
-  </si>
-  <si>
-    <t>bpnsfs_2</t>
-  </si>
-  <si>
-    <t>... I felt forced to do many things I wouldn’t choose to do.</t>
-  </si>
-  <si>
-    <t>bpnsfs_3</t>
-  </si>
-  <si>
-    <t>... I could do things well and achieve my goals.</t>
-  </si>
-  <si>
-    <t>bpnsfs_4</t>
-  </si>
-  <si>
-    <t>... I felt insecure about my abilities.</t>
-  </si>
-  <si>
-    <t>bpnsfs_5</t>
-  </si>
-  <si>
-    <t>... I felt close and connected with other people who are important to me.</t>
-  </si>
-  <si>
-    <t>bpnsfs_6</t>
-  </si>
-  <si>
-    <t>... I felt excluded from the group I want to belong to.</t>
-  </si>
-  <si>
-    <t>sd_0</t>
-  </si>
-  <si>
-    <t>Which best describes today for you?</t>
-  </si>
-  <si>
-    <t>Consensus Sleep Diary (https://doi.org/10.5665/sleep.1642)</t>
-  </si>
-  <si>
-    <t>Regular work day; Regular day off; Weekend; Holiday; Vacation day Other (please specify):</t>
-  </si>
-  <si>
-    <t>sd_0_8_TEXT</t>
-  </si>
-  <si>
-    <t>Other (please specify):</t>
-  </si>
-  <si>
-    <t>sd_1#1_1_1</t>
-  </si>
-  <si>
-    <t>What time did you get into bed last night? Write the time that you got into bed. This may not be...</t>
-  </si>
-  <si>
-    <t>sd_1#1_1_2</t>
-  </si>
-  <si>
-    <t>sd_1#2_1</t>
-  </si>
-  <si>
-    <t>sd_2#1_1_1</t>
-  </si>
-  <si>
-    <t>What time did you try to go to sleep?  Record the time that you began “trying” to fall asleep.</t>
-  </si>
-  <si>
-    <t>sd_2#1_1_2</t>
-  </si>
-  <si>
-    <t>sd_2#2_1</t>
-  </si>
-  <si>
-    <t>sd_3</t>
-  </si>
-  <si>
-    <t>How long did it take you to fall asleep?
+    <t xml:space="preserve">displacedActivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Think back to your most recent gaming session. If you hadn't played a game, what would you most likely have done instead?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lifeSat_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was satisfied with my life today.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cantril Self-anchoring Scale (Cantril, 1965)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-100 sliding scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpnsfs_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">... I was able to do things that I really want and value in life.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The next statements tap into your experiences today. Please indicate for each of the statements to what extent they are true for you.Today...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basic Psychological Need Satisfaction and Frustration Scale (https://doi.org/10.1007/s11031-014-9450-1), brief version (https://doi.org/1015-5759/a000846)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - very strongly disagree; 2 - strongly disagree; 3 - disagree; 4 - neither disagree nor agree; 5 - agree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpnsfs_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">... I felt forced to do many things I wouldn’t choose to do.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpnsfs_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">... I could do things well and achieve my goals.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpnsfs_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">... I felt insecure about my abilities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpnsfs_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">... I felt close and connected with other people who are important to me.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpnsfs_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">... I felt excluded from the group I want to belong to.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which best describes today for you?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consensus Sleep Diary (https://doi.org/10.5665/sleep.1642)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regular work day; Regular day off; Weekend; Holiday; Vacation day Other (please specify):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd_0_8_TEXT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other (please specify):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd_1#1_1_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What time did you get into bed last night? Write the time that you got into bed. This may not be...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd_1#1_1_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd_1#2_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd_2#1_1_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What time did you try to go to sleep?  Record the time that you began “trying” to fall asleep.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd_2#1_1_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd_2#2_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How long did it take you to fall asleep?
 Based on the time you provided in the previous question, please indicate how many minutes it took you to fall asleep.
 Number of minutes:</t>
   </si>
   <si>
-    <t>sd_4#1_1_1</t>
-  </si>
-  <si>
-    <t>What time was your final awakening? Record the last time you woke up in the morning.</t>
-  </si>
-  <si>
-    <t>sd_4#1_1_2</t>
-  </si>
-  <si>
-    <t>sd_4#2_1</t>
-  </si>
-  <si>
-    <t>sd_5#1_1_1</t>
-  </si>
-  <si>
-    <t>What time did you get out of bed for the day? What time did you get out of bed with no further at...</t>
-  </si>
-  <si>
-    <t>sd_5#1_1_2</t>
-  </si>
-  <si>
-    <t>sd_5#2_1</t>
-  </si>
-  <si>
-    <t>sd_6</t>
-  </si>
-  <si>
-    <t>How do you rate the quality of your sleep?
+    <t xml:space="preserve">sd_4#1_1_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What time was your final awakening? Record the last time you woke up in the morning.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd_4#1_1_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd_4#2_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd_5#1_1_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What time did you get out of bed for the day? What time did you get out of bed with no further at...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd_5#1_1_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd_5#2_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How do you rate the quality of your sleep?
 "Sleep Quality" is your sense of whether you slept well or poorly.</t>
   </si>
   <si>
-    <t>timeUse_5</t>
-  </si>
-  <si>
-    <t>Sleep</t>
-  </si>
-  <si>
-    <t>In the past 24 hours, how much time did you spend on each of the following activities?Note: The total hours must add up to 24.</t>
-  </si>
-  <si>
-    <t>slider from 0-16 hours, with increments of .1</t>
-  </si>
-  <si>
-    <t>timeUse_6</t>
-  </si>
-  <si>
-    <t>Work and Employment</t>
-  </si>
-  <si>
-    <t>timeUse_1</t>
-  </si>
-  <si>
-    <t>Gaming</t>
-  </si>
-  <si>
-    <t>timeUse_2</t>
-  </si>
-  <si>
-    <t>Social Media and Instant Messaging</t>
-  </si>
-  <si>
-    <t>timeUse_3</t>
-  </si>
-  <si>
-    <t>TV, Movies &amp;amp; Streaming&amp;nbsp;(e.g., Television, Netflix, Youtube, Twitch, etc.)</t>
-  </si>
-  <si>
-    <t>timeUse_4</t>
-  </si>
-  <si>
-    <t>Internet Browsing and Online Shopping</t>
-  </si>
-  <si>
-    <t>timeUse_7</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>timeUse_8</t>
-  </si>
-  <si>
-    <t>Exercise and Sports</t>
-  </si>
-  <si>
-    <t>timeUse_9</t>
-  </si>
-  <si>
-    <t>Offline Leisure and Recreation</t>
-  </si>
-  <si>
-    <t>timeUse_10</t>
-  </si>
-  <si>
-    <t>Household Activities</t>
-  </si>
-  <si>
-    <t>timeUse_11</t>
-  </si>
-  <si>
-    <t>Childcare and Caregiving</t>
-  </si>
-  <si>
-    <t>timeUse_12</t>
-  </si>
-  <si>
-    <t>Travel and Transportation</t>
-  </si>
-  <si>
-    <t>timeUse_13</t>
-  </si>
-  <si>
-    <t>Voluntary Activities and Religious Practices</t>
-  </si>
-  <si>
-    <t>timeUse_14</t>
-  </si>
-  <si>
-    <t>Unspecified and Miscellaneous Activities</t>
-  </si>
-  <si>
-    <t>stress_argument</t>
-  </si>
-  <si>
-    <t>Did you have an argument or disagreement with anyone since this time yesterday?</t>
-  </si>
-  <si>
-    <t>Daily Inventory of Stressful Events (https://doi.org/10.1177/1073191102091006)</t>
-  </si>
-  <si>
-    <t>Yes; No</t>
-  </si>
-  <si>
-    <t>howStress_arg</t>
-  </si>
-  <si>
-    <t>How stressful was this for you?</t>
-  </si>
-  <si>
-    <t>Not at all; Not very; Somewhat; Very</t>
-  </si>
-  <si>
-    <t>stress_letpass</t>
-  </si>
-  <si>
-    <t>Since this time yesterday, did anything happen that you could have argued about but you decided to let pass in order to avoid a disagreement?</t>
-  </si>
-  <si>
-    <t>howStress_letPass</t>
-  </si>
-  <si>
-    <t>stress_school</t>
-  </si>
-  <si>
-    <t>Since this time yesterday, did anything happen at work or school (other than what you have already mentioned) that most people would consider stressful?</t>
-  </si>
-  <si>
-    <t>howStress_school</t>
-  </si>
-  <si>
-    <t>stress_home</t>
-  </si>
-  <si>
-    <t>Since this time yesterday, did anything happen at home (other than what you have already mentioned) that most people would consider stressful?</t>
-  </si>
-  <si>
-    <t>howStress_home</t>
-  </si>
-  <si>
-    <t>stress_discrim</t>
-  </si>
-  <si>
-    <t>Many people experience discrimination on the basis of such things as race, sex, or age. Did anything like this happen to you since this time yesterday?</t>
-  </si>
-  <si>
-    <t>howStress_discrim</t>
-  </si>
-  <si>
-    <t>stress_relative</t>
-  </si>
-  <si>
-    <t>Since this time yesterday, did anything happen to a close friend or relative?</t>
-  </si>
-  <si>
-    <t>howStress_relative</t>
-  </si>
-  <si>
-    <t>stress_other</t>
-  </si>
-  <si>
-    <t>Did anything else happen to you since this
+    <t xml:space="preserve">timeUse_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sleep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the past 24 hours, how much time did you spend on each of the following activities?Note: The total hours must add up to 24.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slider from 0-16 hours, with increments of .1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">timeUse_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work and Employment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">timeUse_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gaming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">timeUse_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social Media and Instant Messaging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">timeUse_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV, Movies &amp;amp; Streaming&amp;nbsp;(e.g., Television, Netflix, Youtube, Twitch, etc.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">timeUse_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internet Browsing and Online Shopping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">timeUse_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">timeUse_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exercise and Sports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">timeUse_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Offline Leisure and Recreation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">timeUse_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Household Activities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">timeUse_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Childcare and Caregiving</t>
+  </si>
+  <si>
+    <t xml:space="preserve">timeUse_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Travel and Transportation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">timeUse_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voluntary Activities and Religious Practices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">timeUse_14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unspecified and Miscellaneous Activities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stress_argument</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did you have an argument or disagreement with anyone since this time yesterday?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily Inventory of Stressful Events (https://doi.org/10.1177/1073191102091006)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes; No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">howStress_arg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How stressful was this for you?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not at all; Not very; Somewhat; Very</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stress_letpass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Since this time yesterday, did anything happen that you could have argued about but you decided to let pass in order to avoid a disagreement?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">howStress_letPass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stress_school</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Since this time yesterday, did anything happen at work or school (other than what you have already mentioned) that most people would consider stressful?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">howStress_school</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stress_home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Since this time yesterday, did anything happen at home (other than what you have already mentioned) that most people would consider stressful?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">howStress_home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stress_discrim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Many people experience discrimination on the basis of such things as race, sex, or age. Did anything like this happen to you since this time yesterday?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">howStress_discrim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stress_relative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Since this time yesterday, did anything happen to a close friend or relative?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">howStress_relative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stress_other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did anything else happen to you since this
 time yesterday that most people
 would consider stressful?</t>
   </si>
   <si>
-    <t>howStress_other</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>A unique identifier assigned to each participant in the study.</t>
-  </si>
-  <si>
-    <t>The day number relative to the start of the study (e.g., Day 1, Day 2).</t>
-  </si>
-  <si>
-    <t>The calendar date on which the gaming session occurred (format: YYYY-MM-DD).</t>
-  </si>
-  <si>
-    <t>session</t>
-  </si>
-  <si>
-    <t>A sequential identifier for each gaming session on a given day for the participant.</t>
-  </si>
-  <si>
-    <t>titleID</t>
-  </si>
-  <si>
-    <t>The name of the game played during the session.</t>
-  </si>
-  <si>
-    <t>sessionStart</t>
-  </si>
-  <si>
-    <t>The time of day when the gaming session began (format: HH:MM:SS).</t>
-  </si>
-  <si>
-    <t>duration</t>
-  </si>
-  <si>
-    <t>The length of the gaming session in minutes.</t>
-  </si>
-  <si>
-    <t>genre</t>
-  </si>
-  <si>
-    <t>The genre(s) of the game played (e.g., Action, Puzzle, Role-Playing), using IGDB categories.</t>
-  </si>
-  <si>
-    <t>Possible genres are: Adventure, Arcade, Card &amp; Board Game, Fighting, Hack and slash/Beat 'em up, MOBA, Music, Platform, Puzzle, Racing, Real Time Strategy (RTS), Role-playing (RPG), Shooter, Simulator, Sport, Strategy, Tactical, Turn-based strategy (TBS), Visual Novel</t>
-  </si>
-  <si>
-    <t>platform</t>
-  </si>
-  <si>
-    <t>The platform on which the game was played, for use in future merging (here: always Nintendo).</t>
-  </si>
-  <si>
-    <t>The genre(s) of the game played using IGDB categories.</t>
-  </si>
-  <si>
-    <t>The platform on which the game was played, for use in future merging (here: always Xbox).</t>
-  </si>
-  <si>
-    <t>hour</t>
-  </si>
-  <si>
-    <t>The hour of the day when the gaming session began (0-23).</t>
-  </si>
-  <si>
-    <t>persona</t>
-  </si>
-  <si>
-    <t>One of 250 possible Steam personas, generated by LLMs, with particular gameplay habits</t>
-  </si>
-  <si>
-    <t>minutes</t>
-  </si>
-  <si>
-    <t>The number of minutes played of that game during the hour period in question.</t>
-  </si>
-  <si>
-    <t>AppID</t>
-  </si>
-  <si>
-    <t>A unique identifier assigned to each game on the Steam platform.</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>The platform on which the game was played, for use in future merging (here: always Steam).</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>The week number relative to the start of the study.</t>
-  </si>
-  <si>
-    <t>The date corresponding to the start of the week in question (format: YYYY-MM-DD).</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>Indicator for whether the data for the week is missing (TRUE = missing).</t>
-  </si>
-  <si>
-    <t>dropout</t>
-  </si>
-  <si>
-    <t>Indicator for whether the participant dropped out of the study (TRUE = dropped out).</t>
-  </si>
-  <si>
-    <t>Entertainment</t>
-  </si>
-  <si>
-    <t>Total amount of time spent in entertainment apps during the week (in minutes).</t>
-  </si>
-  <si>
-    <t>Social</t>
-  </si>
-  <si>
-    <t>Total amount of time spent in social media apps during the week (in minutes).</t>
-  </si>
-  <si>
-    <t>Information &amp; Reading</t>
-  </si>
-  <si>
-    <t>Total amount of time spent in information and reading apps during the week (in minutes).</t>
-  </si>
-  <si>
-    <t>Games</t>
-  </si>
-  <si>
-    <t>Total amount of time spent in gaming apps during the week (in minutes).</t>
-  </si>
-  <si>
-    <t>Productivity &amp; Finance</t>
-  </si>
-  <si>
-    <t>Total amount of time spent in productivity and finance apps during the week (in minutes).</t>
-  </si>
-  <si>
-    <t>Travel</t>
-  </si>
-  <si>
-    <t>Total amount of time spent in travel-related apps during the week (in minutes).</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Total amount of time spent in other uncategorized apps during the week (in minutes).</t>
-  </si>
-  <si>
-    <t>Creativity</t>
-  </si>
-  <si>
-    <t>Total amount of time spent in creativity apps (e.g., photo/video editing) during the week (in minutes).</t>
-  </si>
-  <si>
-    <t>Total amount of time spent in educational apps during the week (in minutes).</t>
-  </si>
-  <si>
-    <t>Health &amp; Fitness</t>
-  </si>
-  <si>
-    <t>Total amount of time spent in health and fitness apps during the week (in minutes).</t>
-  </si>
-  <si>
-    <t>Shopping &amp; Food</t>
-  </si>
-  <si>
-    <t>Total amount of time spent in shopping and food-related apps during the week (in minutes).</t>
-  </si>
-  <si>
-    <t>Utilities</t>
-  </si>
-  <si>
-    <t>Total amount of time spent in utility apps (e.g., weather, calculators) during the week (in minutes).</t>
-  </si>
-  <si>
-    <t>totalScreentime</t>
-  </si>
-  <si>
-    <t>Total amount of screen time across all app categories during the week (in minutes).</t>
-  </si>
-  <si>
-    <t>numDailyAppSessions</t>
-  </si>
-  <si>
-    <t>The total number of app sessions recorded on the given day.</t>
-  </si>
-  <si>
-    <t>The calendar date on which the app sessions occurred (format: YYYY-MM-DD).</t>
-  </si>
-  <si>
-    <t>A sequential identifier for each app session on the given day for the participant.</t>
-  </si>
-  <si>
-    <t>app</t>
-  </si>
-  <si>
-    <t>The name of the app used during the session.</t>
-  </si>
-  <si>
-    <t>The time of day when the app session began (format: HH:MM:SS).</t>
-  </si>
-  <si>
-    <t>The duration of the app session in minutes.</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>The category of the app used during the session (e.g., Social, Productivity, Entertainment).</t>
-  </si>
-  <si>
-    <t>Tabs of this file contain the respective codebooks for each data table.</t>
+    <t xml:space="preserve">howStress_other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A unique identifier assigned to each participant in the study.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The day number relative to the start of the study (e.g., Day 1, Day 2).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The calendar date on which the gaming session occurred (format: YYYY-MM-DD).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">session</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A sequential identifier for each gaming session on a given day for the participant.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">titleID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The name of the game played during the session.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sessionStart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The time of day when the gaming session began (format: HH:MM:SS).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The length of the gaming session in minutes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The genre(s) of the game played (e.g., Action, Puzzle, Role-Playing), using IGDB categories.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Possible genres are: Adventure, Arcade, Card &amp; Board Game, Fighting, Hack and slash/Beat 'em up, MOBA, Music, Platform, Puzzle, Racing, Real Time Strategy (RTS), Role-playing (RPG), Shooter, Simulator, Sport, Strategy, Tactical, Turn-based strategy (TBS), Visual Novel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">platform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The platform on which the game was played, for use in future merging (here: always Nintendo).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The genre(s) of the game played using IGDB categories.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The platform on which the game was played, for use in future merging (here: always Xbox).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hour of the day when the gaming session began (0-23).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">persona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One of 250 possible Steam personas, generated by LLMs, with particular gameplay habits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of minutes played of that game during the hour period in question.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AppID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A unique identifier assigned to each game on the Steam platform.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The platform on which the game was played, for use in future merging (here: always Steam).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">week</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The week number relative to the start of the study.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The date corresponding to the start of the week in question (format: YYYY-MM-DD).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">missing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indicator for whether the data for the week is missing (TRUE = missing).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dropout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indicator for whether the participant dropped out of the study (TRUE = dropped out).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entertainment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total amount of time spent in entertainment apps during the week (in minutes).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total amount of time spent in social media apps during the week (in minutes).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Information &amp; Reading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total amount of time spent in information and reading apps during the week (in minutes).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Games</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total amount of time spent in gaming apps during the week (in minutes).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Productivity &amp; Finance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total amount of time spent in productivity and finance apps during the week (in minutes).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Travel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total amount of time spent in travel-related apps during the week (in minutes).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total amount of time spent in other uncategorized apps during the week (in minutes).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creativity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total amount of time spent in creativity apps (e.g., photo/video editing) during the week (in minutes).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total amount of time spent in educational apps during the week (in minutes).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health &amp; Fitness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total amount of time spent in health and fitness apps during the week (in minutes).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shopping &amp; Food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total amount of time spent in shopping and food-related apps during the week (in minutes).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total amount of time spent in utility apps (e.g., weather, calculators) during the week (in minutes).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">totalScreentime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total amount of screen time across all app categories during the week (in minutes).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numDailyAppSessions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The total number of app sessions recorded on the given day.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The calendar date on which the app sessions occurred (format: YYYY-MM-DD).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A sequential identifier for each app session on the given day for the participant.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">app</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The name of the app used during the session.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The time of day when the app session began (format: HH:MM:SS).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The duration of the app session in minutes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The category of the app used during the session (e.g., Social, Productivity, Entertainment).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabs of this file contain the respective codebooks for each data table.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2084,17 +2077,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <b/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2117,13 +2108,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2133,15 +2121,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -2423,19 +2402,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" customWidth="1"/>
-    <col min="3" max="3" width="81.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="30.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="81.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2446,7 +2425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2457,7 +2436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2468,7 +2447,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2479,7 +2458,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -2490,7 +2469,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -2501,7 +2480,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -2512,7 +2491,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -2523,7 +2502,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -2534,36 +2513,36 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+    <row r="11" ht="50" customHeight="1">
+      <c r="A11" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A11:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C77"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" customWidth="1"/>
+    <col min="1" max="1" width="25.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="100.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="40.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -2574,31 +2553,34 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>30</v>
       </c>
       <c r="B2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C2"/>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>32</v>
       </c>
       <c r="B3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C3"/>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>33</v>
       </c>
       <c r="B4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C4"/>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -2609,7 +2591,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -2620,7 +2602,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -2631,23 +2613,25 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>42</v>
       </c>
       <c r="B8" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C8"/>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
         <v>44</v>
       </c>
       <c r="B9" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9"/>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -2658,7 +2642,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -2669,23 +2653,25 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>51</v>
       </c>
       <c r="B12" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12"/>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
         <v>53</v>
       </c>
       <c r="B13" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C13"/>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
         <v>55</v>
       </c>
@@ -2696,7 +2682,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>58</v>
       </c>
@@ -2707,7 +2693,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>60</v>
       </c>
@@ -2718,7 +2704,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>62</v>
       </c>
@@ -2729,7 +2715,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>64</v>
       </c>
@@ -2740,7 +2726,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>66</v>
       </c>
@@ -2751,7 +2737,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>68</v>
       </c>
@@ -2762,7 +2748,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>70</v>
       </c>
@@ -2773,7 +2759,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
         <v>72</v>
       </c>
@@ -2784,7 +2770,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
         <v>74</v>
       </c>
@@ -2795,7 +2781,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" t="s">
         <v>76</v>
       </c>
@@ -2806,7 +2792,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" t="s">
         <v>78</v>
       </c>
@@ -2817,7 +2803,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="A26" t="s">
         <v>80</v>
       </c>
@@ -2828,7 +2814,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="A27" t="s">
         <v>81</v>
       </c>
@@ -2839,7 +2825,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="A28" t="s">
         <v>83</v>
       </c>
@@ -2850,7 +2836,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="A29" t="s">
         <v>84</v>
       </c>
@@ -2861,7 +2847,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="A30" t="s">
         <v>85</v>
       </c>
@@ -2872,7 +2858,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="A31" t="s">
         <v>86</v>
       </c>
@@ -2883,7 +2869,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="A32" t="s">
         <v>87</v>
       </c>
@@ -2894,7 +2880,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="A33" t="s">
         <v>88</v>
       </c>
@@ -2905,7 +2891,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="A34" t="s">
         <v>89</v>
       </c>
@@ -2916,7 +2902,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="A35" t="s">
         <v>90</v>
       </c>
@@ -2927,7 +2913,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="A36" t="s">
         <v>91</v>
       </c>
@@ -2938,7 +2924,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="A37" t="s">
         <v>92</v>
       </c>
@@ -2949,7 +2935,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="A38" t="s">
         <v>93</v>
       </c>
@@ -2960,7 +2946,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="A39" t="s">
         <v>94</v>
       </c>
@@ -2971,7 +2957,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40">
       <c r="A40" t="s">
         <v>95</v>
       </c>
@@ -2982,7 +2968,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="A41" t="s">
         <v>97</v>
       </c>
@@ -2993,7 +2979,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42">
       <c r="A42" t="s">
         <v>98</v>
       </c>
@@ -3004,7 +2990,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43">
       <c r="A43" t="s">
         <v>101</v>
       </c>
@@ -3015,7 +3001,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44">
       <c r="A44" t="s">
         <v>103</v>
       </c>
@@ -3026,7 +3012,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45">
       <c r="A45" t="s">
         <v>105</v>
       </c>
@@ -3037,7 +3023,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46">
       <c r="A46" t="s">
         <v>107</v>
       </c>
@@ -3048,7 +3034,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47">
       <c r="A47" t="s">
         <v>109</v>
       </c>
@@ -3059,15 +3045,16 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48">
       <c r="A48" t="s">
         <v>111</v>
       </c>
       <c r="B48" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C48"/>
+    </row>
+    <row r="49">
       <c r="A49" t="s">
         <v>113</v>
       </c>
@@ -3078,7 +3065,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50">
       <c r="A50" t="s">
         <v>116</v>
       </c>
@@ -3089,7 +3076,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51">
       <c r="A51" t="s">
         <v>118</v>
       </c>
@@ -3100,7 +3087,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52">
       <c r="A52" t="s">
         <v>120</v>
       </c>
@@ -3111,7 +3098,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53">
       <c r="A53" t="s">
         <v>122</v>
       </c>
@@ -3122,7 +3109,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54">
       <c r="A54" t="s">
         <v>124</v>
       </c>
@@ -3133,7 +3120,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55">
       <c r="A55" t="s">
         <v>126</v>
       </c>
@@ -3144,7 +3131,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56">
       <c r="A56" t="s">
         <v>128</v>
       </c>
@@ -3155,7 +3142,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57">
       <c r="A57" t="s">
         <v>130</v>
       </c>
@@ -3166,7 +3153,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58">
       <c r="A58" t="s">
         <v>132</v>
       </c>
@@ -3177,7 +3164,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59">
       <c r="A59" t="s">
         <v>133</v>
       </c>
@@ -3188,7 +3175,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60">
       <c r="A60" t="s">
         <v>135</v>
       </c>
@@ -3199,7 +3186,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61">
       <c r="A61" t="s">
         <v>136</v>
       </c>
@@ -3210,7 +3197,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62">
       <c r="A62" t="s">
         <v>137</v>
       </c>
@@ -3221,137 +3208,150 @@
         <v>131</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63">
       <c r="A63" t="s">
         <v>138</v>
       </c>
       <c r="B63" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C63"/>
+    </row>
+    <row r="64">
       <c r="A64" t="s">
         <v>139</v>
       </c>
       <c r="B64" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C64"/>
+    </row>
+    <row r="65">
       <c r="A65" t="s">
         <v>140</v>
       </c>
       <c r="B65" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C65"/>
+    </row>
+    <row r="66">
       <c r="A66" t="s">
         <v>141</v>
       </c>
       <c r="B66" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C66"/>
+    </row>
+    <row r="67">
       <c r="A67" t="s">
         <v>142</v>
       </c>
       <c r="B67" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C67"/>
+    </row>
+    <row r="68">
       <c r="A68" t="s">
         <v>143</v>
       </c>
       <c r="B68" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C68"/>
+    </row>
+    <row r="69">
       <c r="A69" t="s">
         <v>144</v>
       </c>
       <c r="B69" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C69"/>
+    </row>
+    <row r="70">
       <c r="A70" t="s">
         <v>145</v>
       </c>
       <c r="B70" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C70"/>
+    </row>
+    <row r="71">
       <c r="A71" t="s">
         <v>146</v>
       </c>
       <c r="B71" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C71"/>
+    </row>
+    <row r="72">
       <c r="A72" t="s">
         <v>147</v>
       </c>
       <c r="B72" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C72"/>
+    </row>
+    <row r="73">
       <c r="A73" t="s">
         <v>148</v>
       </c>
       <c r="B73" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C73"/>
+    </row>
+    <row r="74">
       <c r="A74" t="s">
         <v>149</v>
       </c>
       <c r="B74" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C74"/>
+    </row>
+    <row r="75">
       <c r="A75" t="s">
         <v>150</v>
       </c>
       <c r="B75" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C75"/>
+    </row>
+    <row r="77">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E168"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" customWidth="1"/>
-    <col min="4" max="4" width="86.6640625" customWidth="1"/>
-    <col min="5" max="5" width="134.6640625" customWidth="1"/>
+    <col min="1" max="1" width="25.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="100.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="40.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="86.71" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="134.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>151</v>
       </c>
@@ -3368,13 +3368,14 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>30</v>
       </c>
       <c r="B2" t="s">
         <v>31</v>
       </c>
+      <c r="C2"/>
       <c r="D2" t="s">
         <v>31</v>
       </c>
@@ -3382,13 +3383,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>154</v>
       </c>
       <c r="B3" t="s">
         <v>31</v>
       </c>
+      <c r="C3"/>
       <c r="D3" t="s">
         <v>31</v>
       </c>
@@ -3396,13 +3398,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>155</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
       </c>
+      <c r="C4"/>
       <c r="D4" t="s">
         <v>31</v>
       </c>
@@ -3410,13 +3413,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>156</v>
       </c>
       <c r="B5" t="s">
         <v>31</v>
       </c>
+      <c r="C5"/>
       <c r="D5" t="s">
         <v>31</v>
       </c>
@@ -3424,13 +3428,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>157</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
+      <c r="C6"/>
       <c r="D6" t="s">
         <v>31</v>
       </c>
@@ -3438,13 +3443,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>158</v>
       </c>
       <c r="B7" t="s">
         <v>159</v>
       </c>
+      <c r="C7"/>
       <c r="D7" t="s">
         <v>31</v>
       </c>
@@ -3452,13 +3458,14 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>161</v>
       </c>
       <c r="B8" t="s">
         <v>162</v>
       </c>
+      <c r="C8"/>
       <c r="D8" t="s">
         <v>31</v>
       </c>
@@ -3466,7 +3473,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>163</v>
       </c>
@@ -3483,7 +3490,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>167</v>
       </c>
@@ -3500,7 +3507,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>169</v>
       </c>
@@ -3517,7 +3524,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>171</v>
       </c>
@@ -3534,13 +3541,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>173</v>
       </c>
       <c r="B13" t="s">
         <v>174</v>
       </c>
+      <c r="C13"/>
       <c r="D13" t="s">
         <v>175</v>
       </c>
@@ -3548,7 +3556,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>176</v>
       </c>
@@ -3565,7 +3573,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>179</v>
       </c>
@@ -3582,7 +3590,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>182</v>
       </c>
@@ -3599,7 +3607,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>184</v>
       </c>
@@ -3616,7 +3624,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>186</v>
       </c>
@@ -3633,7 +3641,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>188</v>
       </c>
@@ -3650,7 +3658,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>190</v>
       </c>
@@ -3667,7 +3675,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>192</v>
       </c>
@@ -3684,7 +3692,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
         <v>195</v>
       </c>
@@ -3701,7 +3709,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
         <v>198</v>
       </c>
@@ -3718,7 +3726,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" t="s">
         <v>200</v>
       </c>
@@ -3735,7 +3743,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" t="s">
         <v>201</v>
       </c>
@@ -3752,7 +3760,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="A26" t="s">
         <v>202</v>
       </c>
@@ -3769,7 +3777,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="A27" t="s">
         <v>203</v>
       </c>
@@ -3786,7 +3794,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="A28" t="s">
         <v>204</v>
       </c>
@@ -3803,7 +3811,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="A29" t="s">
         <v>205</v>
       </c>
@@ -3820,7 +3828,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="A30" t="s">
         <v>208</v>
       </c>
@@ -3837,7 +3845,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="A31" t="s">
         <v>210</v>
       </c>
@@ -3854,13 +3862,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="A32" t="s">
         <v>213</v>
       </c>
       <c r="B32" t="s">
         <v>214</v>
       </c>
+      <c r="C32"/>
       <c r="D32" t="s">
         <v>175</v>
       </c>
@@ -3868,7 +3877,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="A33" t="s">
         <v>215</v>
       </c>
@@ -3885,7 +3894,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="A34" t="s">
         <v>218</v>
       </c>
@@ -3902,7 +3911,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="A35" t="s">
         <v>219</v>
       </c>
@@ -3919,13 +3928,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="A36" t="s">
         <v>221</v>
       </c>
       <c r="B36" t="s">
         <v>222</v>
       </c>
+      <c r="C36"/>
       <c r="D36" t="s">
         <v>31</v>
       </c>
@@ -3933,7 +3943,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="A37" t="s">
         <v>223</v>
       </c>
@@ -3950,7 +3960,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="A38" t="s">
         <v>225</v>
       </c>
@@ -3967,7 +3977,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="A39" t="s">
         <v>226</v>
       </c>
@@ -3984,7 +3994,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40">
       <c r="A40" t="s">
         <v>227</v>
       </c>
@@ -4001,7 +4011,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="A41" t="s">
         <v>229</v>
       </c>
@@ -4018,7 +4028,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42">
       <c r="A42" t="s">
         <v>230</v>
       </c>
@@ -4035,7 +4045,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43">
       <c r="A43" t="s">
         <v>233</v>
       </c>
@@ -4052,7 +4062,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44">
       <c r="A44" t="s">
         <v>235</v>
       </c>
@@ -4069,7 +4079,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45">
       <c r="A45" t="s">
         <v>237</v>
       </c>
@@ -4086,7 +4096,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46">
       <c r="A46" t="s">
         <v>239</v>
       </c>
@@ -4103,7 +4113,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47">
       <c r="A47" t="s">
         <v>241</v>
       </c>
@@ -4120,7 +4130,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48">
       <c r="A48" t="s">
         <v>243</v>
       </c>
@@ -4137,7 +4147,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49">
       <c r="A49" t="s">
         <v>245</v>
       </c>
@@ -4154,7 +4164,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50">
       <c r="A50" t="s">
         <v>247</v>
       </c>
@@ -4171,13 +4181,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51">
       <c r="A51" t="s">
         <v>249</v>
       </c>
       <c r="B51" t="s">
         <v>250</v>
       </c>
+      <c r="C51"/>
       <c r="D51" t="s">
         <v>31</v>
       </c>
@@ -4185,7 +4196,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52">
       <c r="A52" t="s">
         <v>251</v>
       </c>
@@ -4202,13 +4213,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53">
       <c r="A53" t="s">
         <v>254</v>
       </c>
       <c r="B53" t="s">
         <v>255</v>
       </c>
+      <c r="C53"/>
       <c r="D53" t="s">
         <v>31</v>
       </c>
@@ -4216,13 +4228,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54">
       <c r="A54" t="s">
         <v>256</v>
       </c>
       <c r="B54" t="s">
         <v>257</v>
       </c>
+      <c r="C54"/>
       <c r="D54" t="s">
         <v>31</v>
       </c>
@@ -4230,13 +4243,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55">
       <c r="A55" t="s">
         <v>258</v>
       </c>
       <c r="B55" t="s">
         <v>259</v>
       </c>
+      <c r="C55"/>
       <c r="D55" t="s">
         <v>31</v>
       </c>
@@ -4244,13 +4258,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56">
       <c r="A56" t="s">
         <v>260</v>
       </c>
       <c r="B56" t="s">
         <v>261</v>
       </c>
+      <c r="C56"/>
       <c r="D56" t="s">
         <v>31</v>
       </c>
@@ -4258,13 +4273,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57">
       <c r="A57" t="s">
         <v>262</v>
       </c>
       <c r="B57" t="s">
         <v>263</v>
       </c>
+      <c r="C57"/>
       <c r="D57" t="s">
         <v>31</v>
       </c>
@@ -4272,7 +4288,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58">
       <c r="A58" t="s">
         <v>264</v>
       </c>
@@ -4289,7 +4305,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59">
       <c r="A59" t="s">
         <v>267</v>
       </c>
@@ -4306,7 +4322,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60">
       <c r="A60" t="s">
         <v>269</v>
       </c>
@@ -4323,7 +4339,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61">
       <c r="A61" t="s">
         <v>271</v>
       </c>
@@ -4340,7 +4356,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62">
       <c r="A62" t="s">
         <v>273</v>
       </c>
@@ -4357,7 +4373,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63">
       <c r="A63" t="s">
         <v>275</v>
       </c>
@@ -4374,7 +4390,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64">
       <c r="A64" t="s">
         <v>276</v>
       </c>
@@ -4391,7 +4407,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65">
       <c r="A65" t="s">
         <v>281</v>
       </c>
@@ -4408,7 +4424,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66">
       <c r="A66" t="s">
         <v>283</v>
       </c>
@@ -4425,7 +4441,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67">
       <c r="A67" t="s">
         <v>285</v>
       </c>
@@ -4442,7 +4458,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68">
       <c r="A68" t="s">
         <v>287</v>
       </c>
@@ -4459,7 +4475,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69">
       <c r="A69" t="s">
         <v>289</v>
       </c>
@@ -4476,7 +4492,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70">
       <c r="A70" t="s">
         <v>291</v>
       </c>
@@ -4493,7 +4509,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71">
       <c r="A71" t="s">
         <v>293</v>
       </c>
@@ -4510,7 +4526,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72">
       <c r="A72" t="s">
         <v>295</v>
       </c>
@@ -4527,7 +4543,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73">
       <c r="A73" t="s">
         <v>300</v>
       </c>
@@ -4544,7 +4560,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74">
       <c r="A74" t="s">
         <v>302</v>
       </c>
@@ -4561,7 +4577,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75">
       <c r="A75" t="s">
         <v>304</v>
       </c>
@@ -4578,7 +4594,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76">
       <c r="A76" t="s">
         <v>306</v>
       </c>
@@ -4595,7 +4611,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77">
       <c r="A77" t="s">
         <v>308</v>
       </c>
@@ -4612,7 +4628,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78">
       <c r="A78" t="s">
         <v>310</v>
       </c>
@@ -4629,7 +4645,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79">
       <c r="A79" t="s">
         <v>312</v>
       </c>
@@ -4646,7 +4662,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80">
       <c r="A80" t="s">
         <v>314</v>
       </c>
@@ -4663,7 +4679,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81">
       <c r="A81" t="s">
         <v>316</v>
       </c>
@@ -4680,7 +4696,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82">
       <c r="A82" t="s">
         <v>318</v>
       </c>
@@ -4697,7 +4713,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83">
       <c r="A83" t="s">
         <v>320</v>
       </c>
@@ -4714,7 +4730,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84">
       <c r="A84" t="s">
         <v>322</v>
       </c>
@@ -4731,7 +4747,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85">
       <c r="A85" t="s">
         <v>324</v>
       </c>
@@ -4748,7 +4764,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86">
       <c r="A86" t="s">
         <v>326</v>
       </c>
@@ -4765,7 +4781,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87">
       <c r="A87" t="s">
         <v>328</v>
       </c>
@@ -4782,7 +4798,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88">
       <c r="A88" t="s">
         <v>333</v>
       </c>
@@ -4799,7 +4815,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89">
       <c r="A89" t="s">
         <v>335</v>
       </c>
@@ -4816,7 +4832,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90">
       <c r="A90" t="s">
         <v>337</v>
       </c>
@@ -4833,7 +4849,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91">
       <c r="A91" t="s">
         <v>339</v>
       </c>
@@ -4850,7 +4866,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92">
       <c r="A92" t="s">
         <v>341</v>
       </c>
@@ -4867,7 +4883,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93">
       <c r="A93" t="s">
         <v>343</v>
       </c>
@@ -4884,7 +4900,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94">
       <c r="A94" t="s">
         <v>345</v>
       </c>
@@ -4901,7 +4917,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95">
       <c r="A95" t="s">
         <v>347</v>
       </c>
@@ -4918,7 +4934,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96">
       <c r="A96" t="s">
         <v>349</v>
       </c>
@@ -4935,7 +4951,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97">
       <c r="A97" t="s">
         <v>351</v>
       </c>
@@ -4952,7 +4968,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98">
       <c r="A98" t="s">
         <v>353</v>
       </c>
@@ -4969,7 +4985,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99">
       <c r="A99" t="s">
         <v>355</v>
       </c>
@@ -4986,7 +5002,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100">
       <c r="A100" t="s">
         <v>357</v>
       </c>
@@ -5003,7 +5019,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101">
       <c r="A101" t="s">
         <v>359</v>
       </c>
@@ -5020,7 +5036,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102">
       <c r="A102" t="s">
         <v>361</v>
       </c>
@@ -5037,7 +5053,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103">
       <c r="A103" t="s">
         <v>364</v>
       </c>
@@ -5054,7 +5070,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104">
       <c r="A104" t="s">
         <v>365</v>
       </c>
@@ -5071,7 +5087,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105">
       <c r="A105" t="s">
         <v>366</v>
       </c>
@@ -5088,7 +5104,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106">
       <c r="A106" t="s">
         <v>367</v>
       </c>
@@ -5105,7 +5121,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107">
       <c r="A107" t="s">
         <v>368</v>
       </c>
@@ -5122,7 +5138,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108">
       <c r="A108" t="s">
         <v>369</v>
       </c>
@@ -5139,7 +5155,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109">
       <c r="A109" t="s">
         <v>372</v>
       </c>
@@ -5156,7 +5172,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110">
       <c r="A110" t="s">
         <v>373</v>
       </c>
@@ -5173,7 +5189,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111">
       <c r="A111" t="s">
         <v>374</v>
       </c>
@@ -5190,7 +5206,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112">
       <c r="A112" t="s">
         <v>375</v>
       </c>
@@ -5207,7 +5223,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113">
       <c r="A113" t="s">
         <v>377</v>
       </c>
@@ -5224,7 +5240,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114">
       <c r="A114" t="s">
         <v>378</v>
       </c>
@@ -5241,7 +5257,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115">
       <c r="A115" t="s">
         <v>379</v>
       </c>
@@ -5258,7 +5274,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116">
       <c r="A116" t="s">
         <v>380</v>
       </c>
@@ -5275,7 +5291,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117">
       <c r="A117" t="s">
         <v>382</v>
       </c>
@@ -5292,7 +5308,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118">
       <c r="A118" t="s">
         <v>383</v>
       </c>
@@ -5309,7 +5325,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119">
       <c r="A119" t="s">
         <v>384</v>
       </c>
@@ -5326,13 +5342,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120">
       <c r="A120" t="s">
         <v>385</v>
       </c>
       <c r="B120" t="s">
         <v>386</v>
       </c>
+      <c r="C120"/>
       <c r="D120" t="s">
         <v>31</v>
       </c>
@@ -5340,13 +5357,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121">
       <c r="A121" t="s">
         <v>387</v>
       </c>
       <c r="B121" t="s">
         <v>388</v>
       </c>
+      <c r="C121"/>
       <c r="D121" t="s">
         <v>31</v>
       </c>
@@ -5354,7 +5372,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122">
       <c r="A122" t="s">
         <v>389</v>
       </c>
@@ -5371,7 +5389,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123">
       <c r="A123" t="s">
         <v>394</v>
       </c>
@@ -5388,7 +5406,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124">
       <c r="A124" t="s">
         <v>396</v>
       </c>
@@ -5405,7 +5423,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125">
       <c r="A125" t="s">
         <v>398</v>
       </c>
@@ -5422,7 +5440,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126">
       <c r="A126" t="s">
         <v>400</v>
       </c>
@@ -5439,7 +5457,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127">
       <c r="A127" t="s">
         <v>402</v>
       </c>
@@ -5456,7 +5474,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128">
       <c r="A128" t="s">
         <v>404</v>
       </c>
@@ -5473,7 +5491,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129">
       <c r="A129" t="s">
         <v>406</v>
       </c>
@@ -5490,7 +5508,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130">
       <c r="A130" t="s">
         <v>408</v>
       </c>
@@ -5507,7 +5525,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131">
       <c r="A131" t="s">
         <v>409</v>
       </c>
@@ -5524,7 +5542,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132">
       <c r="A132" t="s">
         <v>410</v>
       </c>
@@ -5541,7 +5559,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133">
       <c r="A133" t="s">
         <v>411</v>
       </c>
@@ -5558,7 +5576,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134">
       <c r="A134" t="s">
         <v>412</v>
       </c>
@@ -5575,7 +5593,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135">
       <c r="A135" t="s">
         <v>413</v>
       </c>
@@ -5592,7 +5610,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136">
       <c r="A136" t="s">
         <v>414</v>
       </c>
@@ -5609,7 +5627,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137">
       <c r="A137" t="s">
         <v>419</v>
       </c>
@@ -5626,7 +5644,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138">
       <c r="A138" t="s">
         <v>421</v>
       </c>
@@ -5643,7 +5661,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139">
       <c r="A139" t="s">
         <v>423</v>
       </c>
@@ -5660,7 +5678,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140">
       <c r="A140" t="s">
         <v>425</v>
       </c>
@@ -5677,7 +5695,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141">
       <c r="A141" t="s">
         <v>427</v>
       </c>
@@ -5694,7 +5712,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142">
       <c r="A142" t="s">
         <v>429</v>
       </c>
@@ -5711,7 +5729,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143">
       <c r="A143" t="s">
         <v>431</v>
       </c>
@@ -5728,7 +5746,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144">
       <c r="A144" t="s">
         <v>433</v>
       </c>
@@ -5745,7 +5763,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145">
       <c r="A145" t="s">
         <v>438</v>
       </c>
@@ -5762,7 +5780,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146">
       <c r="A146" t="s">
         <v>440</v>
       </c>
@@ -5779,7 +5797,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147">
       <c r="A147" t="s">
         <v>442</v>
       </c>
@@ -5796,7 +5814,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148">
       <c r="A148" t="s">
         <v>444</v>
       </c>
@@ -5813,7 +5831,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149">
       <c r="A149" t="s">
         <v>446</v>
       </c>
@@ -5830,7 +5848,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150">
       <c r="A150" t="s">
         <v>448</v>
       </c>
@@ -5847,7 +5865,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151">
       <c r="A151" t="s">
         <v>450</v>
       </c>
@@ -5864,7 +5882,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="152">
       <c r="A152" t="s">
         <v>452</v>
       </c>
@@ -5881,7 +5899,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153">
       <c r="A153" t="s">
         <v>454</v>
       </c>
@@ -5898,7 +5916,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154">
       <c r="A154" t="s">
         <v>456</v>
       </c>
@@ -5915,7 +5933,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155">
       <c r="A155" t="s">
         <v>458</v>
       </c>
@@ -5932,7 +5950,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156">
       <c r="A156" t="s">
         <v>460</v>
       </c>
@@ -5949,7 +5967,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157">
       <c r="A157" t="s">
         <v>462</v>
       </c>
@@ -5966,7 +5984,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158">
       <c r="A158" t="s">
         <v>464</v>
       </c>
@@ -5983,7 +6001,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159">
       <c r="A159" t="s">
         <v>466</v>
       </c>
@@ -6000,7 +6018,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160">
       <c r="A160" t="s">
         <v>468</v>
       </c>
@@ -6017,7 +6035,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161">
       <c r="A161" t="s">
         <v>470</v>
       </c>
@@ -6034,7 +6052,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162">
       <c r="A162" t="s">
         <v>472</v>
       </c>
@@ -6051,7 +6069,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163">
       <c r="A163" t="s">
         <v>476</v>
       </c>
@@ -6068,7 +6086,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164">
       <c r="A164" t="s">
         <v>478</v>
       </c>
@@ -6085,7 +6103,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165">
       <c r="A165" t="s">
         <v>480</v>
       </c>
@@ -6102,7 +6120,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166">
       <c r="A166" t="s">
         <v>482</v>
       </c>
@@ -6119,33 +6137,33 @@
         <v>475</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" customWidth="1"/>
-    <col min="4" max="4" width="154.6640625" customWidth="1"/>
-    <col min="5" max="5" width="106.6640625" customWidth="1"/>
+    <col min="1" max="1" width="25.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="100.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="40.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="154.71" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="106.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>151</v>
       </c>
@@ -6162,13 +6180,14 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>30</v>
       </c>
       <c r="B2" t="s">
         <v>31</v>
       </c>
+      <c r="C2"/>
       <c r="D2" t="s">
         <v>31</v>
       </c>
@@ -6176,13 +6195,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>484</v>
       </c>
       <c r="B3" t="s">
         <v>31</v>
       </c>
+      <c r="C3"/>
       <c r="D3" t="s">
         <v>31</v>
       </c>
@@ -6190,13 +6210,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>155</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
       </c>
+      <c r="C4"/>
       <c r="D4" t="s">
         <v>31</v>
       </c>
@@ -6204,13 +6225,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>485</v>
       </c>
       <c r="B5" t="s">
         <v>31</v>
       </c>
+      <c r="C5"/>
       <c r="D5" t="s">
         <v>31</v>
       </c>
@@ -6218,13 +6240,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>157</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
+      <c r="C6"/>
       <c r="D6" t="s">
         <v>31</v>
       </c>
@@ -6232,13 +6255,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>486</v>
       </c>
       <c r="B7" t="s">
         <v>487</v>
       </c>
+      <c r="C7"/>
       <c r="D7" t="s">
         <v>31</v>
       </c>
@@ -6246,7 +6270,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>488</v>
       </c>
@@ -6263,7 +6287,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>491</v>
       </c>
@@ -6280,7 +6304,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>493</v>
       </c>
@@ -6297,7 +6321,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>495</v>
       </c>
@@ -6314,13 +6338,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>497</v>
       </c>
       <c r="B12" t="s">
         <v>498</v>
       </c>
+      <c r="C12"/>
       <c r="D12" t="s">
         <v>31</v>
       </c>
@@ -6328,7 +6353,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>433</v>
       </c>
@@ -6345,7 +6370,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>438</v>
       </c>
@@ -6362,7 +6387,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>440</v>
       </c>
@@ -6379,7 +6404,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>442</v>
       </c>
@@ -6396,7 +6421,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>444</v>
       </c>
@@ -6413,7 +6438,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>446</v>
       </c>
@@ -6430,13 +6455,14 @@
         <v>500</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>501</v>
       </c>
       <c r="B19" t="s">
         <v>502</v>
       </c>
+      <c r="C19"/>
       <c r="D19" t="s">
         <v>31</v>
       </c>
@@ -6444,13 +6470,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>503</v>
       </c>
       <c r="B20" t="s">
         <v>504</v>
       </c>
+      <c r="C20"/>
       <c r="D20" t="s">
         <v>505</v>
       </c>
@@ -6458,13 +6485,14 @@
         <v>506</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>387</v>
       </c>
       <c r="B21" t="s">
         <v>388</v>
       </c>
+      <c r="C21"/>
       <c r="D21" t="s">
         <v>31</v>
       </c>
@@ -6472,7 +6500,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
         <v>507</v>
       </c>
@@ -6489,7 +6517,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
         <v>512</v>
       </c>
@@ -6506,7 +6534,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" t="s">
         <v>514</v>
       </c>
@@ -6523,7 +6551,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" t="s">
         <v>516</v>
       </c>
@@ -6540,7 +6568,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="A26" t="s">
         <v>518</v>
       </c>
@@ -6557,7 +6585,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="A27" t="s">
         <v>520</v>
       </c>
@@ -6574,7 +6602,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="A28" t="s">
         <v>522</v>
       </c>
@@ -6591,7 +6619,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="A29" t="s">
         <v>526</v>
       </c>
@@ -6608,7 +6636,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="A30" t="s">
         <v>528</v>
       </c>
@@ -6625,7 +6653,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="A31" t="s">
         <v>530</v>
       </c>
@@ -6642,7 +6670,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="A32" t="s">
         <v>531</v>
       </c>
@@ -6659,7 +6687,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="A33" t="s">
         <v>532</v>
       </c>
@@ -6676,7 +6704,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="A34" t="s">
         <v>534</v>
       </c>
@@ -6693,7 +6721,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="A35" t="s">
         <v>535</v>
       </c>
@@ -6710,13 +6738,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="A36" t="s">
         <v>536</v>
       </c>
       <c r="B36" t="s">
         <v>537</v>
       </c>
+      <c r="C36"/>
       <c r="D36" t="s">
         <v>524</v>
       </c>
@@ -6724,7 +6753,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="A37" t="s">
         <v>538</v>
       </c>
@@ -6741,7 +6770,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="A38" t="s">
         <v>540</v>
       </c>
@@ -6758,7 +6787,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="A39" t="s">
         <v>541</v>
       </c>
@@ -6775,7 +6804,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40">
       <c r="A40" t="s">
         <v>542</v>
       </c>
@@ -6792,7 +6821,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="A41" t="s">
         <v>544</v>
       </c>
@@ -6809,7 +6838,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42">
       <c r="A42" t="s">
         <v>545</v>
       </c>
@@ -6826,13 +6855,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43">
       <c r="A43" t="s">
         <v>546</v>
       </c>
       <c r="B43" t="s">
         <v>547</v>
       </c>
+      <c r="C43"/>
       <c r="D43" t="s">
         <v>524</v>
       </c>
@@ -6840,7 +6870,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44">
       <c r="A44" t="s">
         <v>548</v>
       </c>
@@ -6857,7 +6887,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45">
       <c r="A45" t="s">
         <v>552</v>
       </c>
@@ -6874,7 +6904,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46">
       <c r="A46" t="s">
         <v>554</v>
       </c>
@@ -6891,7 +6921,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47">
       <c r="A47" t="s">
         <v>556</v>
       </c>
@@ -6908,7 +6938,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48">
       <c r="A48" t="s">
         <v>558</v>
       </c>
@@ -6925,7 +6955,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49">
       <c r="A49" t="s">
         <v>560</v>
       </c>
@@ -6942,7 +6972,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50">
       <c r="A50" t="s">
         <v>562</v>
       </c>
@@ -6959,7 +6989,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51">
       <c r="A51" t="s">
         <v>564</v>
       </c>
@@ -6976,7 +7006,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52">
       <c r="A52" t="s">
         <v>566</v>
       </c>
@@ -6993,7 +7023,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53">
       <c r="A53" t="s">
         <v>568</v>
       </c>
@@ -7010,7 +7040,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54">
       <c r="A54" t="s">
         <v>570</v>
       </c>
@@ -7027,7 +7057,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55">
       <c r="A55" t="s">
         <v>572</v>
       </c>
@@ -7044,7 +7074,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56">
       <c r="A56" t="s">
         <v>574</v>
       </c>
@@ -7061,7 +7091,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57">
       <c r="A57" t="s">
         <v>576</v>
       </c>
@@ -7078,13 +7108,14 @@
         <v>551</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58">
       <c r="A58" t="s">
         <v>578</v>
       </c>
       <c r="B58" t="s">
         <v>579</v>
       </c>
+      <c r="C58"/>
       <c r="D58" t="s">
         <v>580</v>
       </c>
@@ -7092,13 +7123,14 @@
         <v>581</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59">
       <c r="A59" t="s">
         <v>582</v>
       </c>
       <c r="B59" t="s">
         <v>583</v>
       </c>
+      <c r="C59"/>
       <c r="D59" t="s">
         <v>580</v>
       </c>
@@ -7106,13 +7138,14 @@
         <v>584</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60">
       <c r="A60" t="s">
         <v>585</v>
       </c>
       <c r="B60" t="s">
         <v>586</v>
       </c>
+      <c r="C60"/>
       <c r="D60" t="s">
         <v>580</v>
       </c>
@@ -7120,13 +7153,14 @@
         <v>581</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61">
       <c r="A61" t="s">
         <v>587</v>
       </c>
       <c r="B61" t="s">
         <v>583</v>
       </c>
+      <c r="C61"/>
       <c r="D61" t="s">
         <v>580</v>
       </c>
@@ -7134,13 +7168,14 @@
         <v>584</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62">
       <c r="A62" t="s">
         <v>588</v>
       </c>
       <c r="B62" t="s">
         <v>589</v>
       </c>
+      <c r="C62"/>
       <c r="D62" t="s">
         <v>580</v>
       </c>
@@ -7148,13 +7183,14 @@
         <v>581</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63">
       <c r="A63" t="s">
         <v>590</v>
       </c>
       <c r="B63" t="s">
         <v>583</v>
       </c>
+      <c r="C63"/>
       <c r="D63" t="s">
         <v>580</v>
       </c>
@@ -7162,13 +7198,14 @@
         <v>584</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64">
       <c r="A64" t="s">
         <v>591</v>
       </c>
       <c r="B64" t="s">
         <v>592</v>
       </c>
+      <c r="C64"/>
       <c r="D64" t="s">
         <v>580</v>
       </c>
@@ -7176,13 +7213,14 @@
         <v>581</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65">
       <c r="A65" t="s">
         <v>593</v>
       </c>
       <c r="B65" t="s">
         <v>583</v>
       </c>
+      <c r="C65"/>
       <c r="D65" t="s">
         <v>580</v>
       </c>
@@ -7190,13 +7228,14 @@
         <v>584</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66">
       <c r="A66" t="s">
         <v>594</v>
       </c>
       <c r="B66" t="s">
         <v>595</v>
       </c>
+      <c r="C66"/>
       <c r="D66" t="s">
         <v>580</v>
       </c>
@@ -7204,13 +7243,14 @@
         <v>581</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67">
       <c r="A67" t="s">
         <v>596</v>
       </c>
       <c r="B67" t="s">
         <v>583</v>
       </c>
+      <c r="C67"/>
       <c r="D67" t="s">
         <v>580</v>
       </c>
@@ -7218,13 +7258,14 @@
         <v>584</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68">
       <c r="A68" t="s">
         <v>597</v>
       </c>
       <c r="B68" t="s">
         <v>598</v>
       </c>
+      <c r="C68"/>
       <c r="D68" t="s">
         <v>580</v>
       </c>
@@ -7232,13 +7273,14 @@
         <v>581</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69">
       <c r="A69" t="s">
         <v>599</v>
       </c>
       <c r="B69" t="s">
         <v>583</v>
       </c>
+      <c r="C69"/>
       <c r="D69" t="s">
         <v>580</v>
       </c>
@@ -7246,13 +7288,14 @@
         <v>584</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70">
       <c r="A70" t="s">
         <v>600</v>
       </c>
       <c r="B70" t="s">
         <v>601</v>
       </c>
+      <c r="C70"/>
       <c r="D70" t="s">
         <v>580</v>
       </c>
@@ -7260,13 +7303,14 @@
         <v>581</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71">
       <c r="A71" t="s">
         <v>602</v>
       </c>
       <c r="B71" t="s">
         <v>583</v>
       </c>
+      <c r="C71"/>
       <c r="D71" t="s">
         <v>580</v>
       </c>
@@ -7274,31 +7318,31 @@
         <v>584</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="93.6640625" customWidth="1"/>
-    <col min="3" max="3" width="250.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="93.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="250.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>151</v>
       </c>
@@ -7309,7 +7353,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -7320,7 +7364,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>484</v>
       </c>
@@ -7331,7 +7375,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>155</v>
       </c>
@@ -7342,7 +7386,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>608</v>
       </c>
@@ -7353,7 +7397,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>610</v>
       </c>
@@ -7364,7 +7408,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>612</v>
       </c>
@@ -7375,7 +7419,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>614</v>
       </c>
@@ -7386,7 +7430,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>616</v>
       </c>
@@ -7397,7 +7441,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>619</v>
       </c>
@@ -7410,24 +7454,24 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="89.6640625" customWidth="1"/>
-    <col min="3" max="3" width="250.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="89.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="250.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>151</v>
       </c>
@@ -7438,7 +7482,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -7449,7 +7493,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>484</v>
       </c>
@@ -7460,7 +7504,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>155</v>
       </c>
@@ -7471,7 +7515,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>608</v>
       </c>
@@ -7482,7 +7526,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>610</v>
       </c>
@@ -7493,7 +7537,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>612</v>
       </c>
@@ -7504,7 +7548,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>614</v>
       </c>
@@ -7515,7 +7559,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>616</v>
       </c>
@@ -7526,7 +7570,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>619</v>
       </c>
@@ -7539,24 +7583,24 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="2" width="90.6640625" customWidth="1"/>
-    <col min="3" max="3" width="250.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="90.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="250.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>151</v>
       </c>
@@ -7567,7 +7611,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -7578,7 +7622,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>484</v>
       </c>
@@ -7589,7 +7633,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>155</v>
       </c>
@@ -7600,7 +7644,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>623</v>
       </c>
@@ -7611,7 +7655,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>625</v>
       </c>
@@ -7622,7 +7666,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>616</v>
       </c>
@@ -7633,7 +7677,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>627</v>
       </c>
@@ -7644,7 +7688,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>629</v>
       </c>
@@ -7655,7 +7699,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>631</v>
       </c>
@@ -7666,7 +7710,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>619</v>
       </c>
@@ -7679,23 +7723,23 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:B19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="103.6640625" customWidth="1"/>
+    <col min="1" max="1" width="26.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="103.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>151</v>
       </c>
@@ -7703,7 +7747,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -7711,7 +7755,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>633</v>
       </c>
@@ -7719,7 +7763,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>155</v>
       </c>
@@ -7727,7 +7771,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>636</v>
       </c>
@@ -7735,7 +7779,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>638</v>
       </c>
@@ -7743,7 +7787,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>640</v>
       </c>
@@ -7751,7 +7795,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>642</v>
       </c>
@@ -7759,7 +7803,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>644</v>
       </c>
@@ -7767,7 +7811,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>646</v>
       </c>
@@ -7775,7 +7819,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>648</v>
       </c>
@@ -7783,7 +7827,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>650</v>
       </c>
@@ -7791,7 +7835,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>652</v>
       </c>
@@ -7799,7 +7843,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>654</v>
       </c>
@@ -7807,7 +7851,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>563</v>
       </c>
@@ -7815,7 +7859,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>657</v>
       </c>
@@ -7823,7 +7867,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>659</v>
       </c>
@@ -7831,7 +7875,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>661</v>
       </c>
@@ -7839,7 +7883,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>663</v>
       </c>
@@ -7849,23 +7893,23 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="2" width="92.6640625" customWidth="1"/>
+    <col min="1" max="1" width="19.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="92.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>151</v>
       </c>
@@ -7873,7 +7917,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -7881,7 +7925,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>484</v>
       </c>
@@ -7889,7 +7933,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>665</v>
       </c>
@@ -7897,7 +7941,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>155</v>
       </c>
@@ -7905,7 +7949,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>608</v>
       </c>
@@ -7913,7 +7957,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>669</v>
       </c>
@@ -7921,7 +7965,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>612</v>
       </c>
@@ -7929,7 +7973,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>614</v>
       </c>
@@ -7937,7 +7981,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>673</v>
       </c>
@@ -7947,6 +7991,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/codebook.xlsx
+++ b/codebook.xlsx
@@ -7891,6 +7891,14 @@
         <v>664</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>619</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -7989,6 +7997,14 @@
         <v>674</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>619</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/codebook.xlsx
+++ b/codebook.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="677">
   <si>
     <t xml:space="preserve">Tab</t>
   </si>
@@ -1881,6 +1881,9 @@
   </si>
   <si>
     <t xml:space="preserve">The length of the gaming session in minutes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sessionEnd</t>
   </si>
   <si>
     <t xml:space="preserve">genre</t>
@@ -2515,7 +2518,7 @@
     </row>
     <row r="11" ht="50" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -7435,20 +7438,31 @@
         <v>616</v>
       </c>
       <c r="B9" t="s">
-        <v>617</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>618</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>617</v>
+      </c>
+      <c r="B10" t="s">
+        <v>618</v>
+      </c>
+      <c r="C10" t="s">
         <v>619</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
         <v>620</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B11" t="s">
+        <v>621</v>
+      </c>
+      <c r="C11" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7564,20 +7578,31 @@
         <v>616</v>
       </c>
       <c r="B9" t="s">
-        <v>621</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>618</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B10" t="s">
         <v>622</v>
       </c>
       <c r="C10" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>620</v>
+      </c>
+      <c r="B11" t="s">
+        <v>623</v>
+      </c>
+      <c r="C11" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7595,7 +7620,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="8.71" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="12.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="90.71" hidden="0" customWidth="1"/>
     <col min="3" max="3" width="250.71" hidden="0" customWidth="1"/>
   </cols>
@@ -7646,10 +7671,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B5" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
@@ -7657,10 +7682,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B6" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
@@ -7668,21 +7693,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B7" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C7" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B8" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C8" t="s">
         <v>31</v>
@@ -7690,10 +7715,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B9" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C9" t="s">
         <v>31</v>
@@ -7701,7 +7726,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B10" t="s">
         <v>611</v>
@@ -7712,12 +7737,34 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="B11" t="s">
-        <v>632</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>616</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>620</v>
+      </c>
+      <c r="B13" t="s">
+        <v>633</v>
+      </c>
+      <c r="C13" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7757,10 +7804,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B3" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="4">
@@ -7768,87 +7815,87 @@
         <v>155</v>
       </c>
       <c r="B4" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B5" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B6" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B7" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B8" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B9" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B10" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B11" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B12" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B13" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B14" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="15">
@@ -7856,44 +7903,44 @@
         <v>563</v>
       </c>
       <c r="B15" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B16" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B17" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B18" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B19" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B20" t="s">
         <v>31</v>
@@ -7943,10 +7990,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B4" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="5">
@@ -7954,7 +8001,7 @@
         <v>155</v>
       </c>
       <c r="B5" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="6">
@@ -7962,15 +8009,15 @@
         <v>608</v>
       </c>
       <c r="B6" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B7" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="8">
@@ -7978,7 +8025,7 @@
         <v>612</v>
       </c>
       <c r="B8" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="9">
@@ -7986,22 +8033,30 @@
         <v>614</v>
       </c>
       <c r="B9" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>673</v>
+        <v>616</v>
       </c>
       <c r="B10" t="s">
-        <v>674</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>619</v>
+        <v>674</v>
       </c>
       <c r="B11" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>620</v>
+      </c>
+      <c r="B12" t="s">
         <v>31</v>
       </c>
     </row>

--- a/codebook.xlsx
+++ b/codebook.xlsx
@@ -34,7 +34,7 @@
     <t xml:space="preserve">Intake</t>
   </si>
   <si>
-    <t xml:space="preserve">data-synthetic/synIntake.csv</t>
+    <t xml:space="preserve">data-synthetic/synIntake.csv.gz</t>
   </si>
   <si>
     <t xml:space="preserve">Data on participant demographics and gaming habits</t>
@@ -43,7 +43,7 @@
     <t xml:space="preserve">Panel</t>
   </si>
   <si>
-    <t xml:space="preserve">data-synthetic/synPanel.csv</t>
+    <t xml:space="preserve">data-synthetic/synPanel.csv.gz</t>
   </si>
   <si>
     <t xml:space="preserve">Wellbeing, sleep and time use data from the panel survey</t>
@@ -52,7 +52,7 @@
     <t xml:space="preserve">Diary</t>
   </si>
   <si>
-    <t xml:space="preserve">data-synthetic/synDiary.csv</t>
+    <t xml:space="preserve">data-synthetic/synDiary.csv.gz</t>
   </si>
   <si>
     <t xml:space="preserve">Daily diary data on gaming, wellbeing, and sleep</t>
@@ -61,7 +61,7 @@
     <t xml:space="preserve">Nintendo</t>
   </si>
   <si>
-    <t xml:space="preserve">data-synthetic/synNintendo.csv</t>
+    <t xml:space="preserve">data-synthetic/synNintendo.csv.gz</t>
   </si>
   <si>
     <t xml:space="preserve">Telemetry data (session-level) from the Nintendo Switch</t>
@@ -70,7 +70,7 @@
     <t xml:space="preserve">Xbox</t>
   </si>
   <si>
-    <t xml:space="preserve">data-synthetic/synXbox.csv</t>
+    <t xml:space="preserve">data-synthetic/synXbox.csv.gz</t>
   </si>
   <si>
     <t xml:space="preserve">Telemetry data (session-level) from Xbox devices</t>
@@ -79,7 +79,7 @@
     <t xml:space="preserve">Steam</t>
   </si>
   <si>
-    <t xml:space="preserve">data-synthetic/synSteam.csv</t>
+    <t xml:space="preserve">data-synthetic/synSteam.csv.gz</t>
   </si>
   <si>
     <t xml:space="preserve">Telemetry data (total playtime in 1 hour blocks) from Steam</t>
@@ -88,7 +88,7 @@
     <t xml:space="preserve">iOS</t>
   </si>
   <si>
-    <t xml:space="preserve">data-synthetic/syniOS.csv</t>
+    <t xml:space="preserve">data-synthetic/syniOS.csv.gz</t>
   </si>
   <si>
     <t xml:space="preserve">Screen time data from iOS devices, pulled from screenshots of the Screen time app</t>
@@ -97,7 +97,7 @@
     <t xml:space="preserve">Android</t>
   </si>
   <si>
-    <t xml:space="preserve">data-synthetic/synAndroid.csv</t>
+    <t xml:space="preserve">data-synthetic/synAndroid.csv.gz</t>
   </si>
   <si>
     <t xml:space="preserve">App usage data from Android devices, pulled from ActivityWatch</t>
@@ -2413,7 +2413,7 @@
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
     <col min="1" max="1" width="8.71" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="30.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="33.71" hidden="0" customWidth="1"/>
     <col min="3" max="3" width="81.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
